--- a/output/Base_PPP.xlsx
+++ b/output/Base_PPP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liviabn\Pictures\Base_PPP\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D00D25B5-16BE-48C1-885F-370E0B0C05A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A1D1C7-16CB-4C10-926B-C4046493D677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -135,30 +135,8 @@
 </comments>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5105" uniqueCount="2409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5106" uniqueCount="2409">
   <si>
     <t>Nome</t>
   </si>
@@ -7835,8 +7813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A331" workbookViewId="0">
+      <selection activeCell="A337" sqref="A337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7971,8 +7949,7 @@
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" cm="1">
-        <f t="array" ref="A2:A340">ROW(A1:A339)</f>
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -31731,9 +31708,6 @@
       </c>
     </row>
     <row r="340" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A340">
-        <v>339</v>
-      </c>
       <c r="B340" s="8"/>
       <c r="C340" s="8"/>
       <c r="D340" s="8"/>
@@ -54476,1955 +54450,2044 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{418CBCE0-045C-4E33-9C93-A7BD716367D6}">
-  <dimension ref="A1:A324"/>
+  <dimension ref="A1:A339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1">
-        <v>1</v>
+      <c r="A1" t="s">
+        <v>2282</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2">
-        <f>A1+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3">
         <f>A2+1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4">
         <f t="shared" ref="A4:A67" si="0">A3+1</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66">
         <f t="shared" si="0"/>
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67">
         <f t="shared" si="0"/>
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68">
         <f t="shared" ref="A68:A131" si="1">A67+1</f>
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69">
         <f t="shared" si="1"/>
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71">
         <f t="shared" si="1"/>
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72">
         <f t="shared" si="1"/>
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73">
         <f t="shared" si="1"/>
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74">
         <f t="shared" si="1"/>
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76">
         <f t="shared" si="1"/>
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77">
         <f t="shared" si="1"/>
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78">
         <f t="shared" si="1"/>
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79">
         <f t="shared" si="1"/>
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82">
         <f t="shared" si="1"/>
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83">
         <f t="shared" si="1"/>
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84">
         <f t="shared" si="1"/>
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86">
         <f t="shared" si="1"/>
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87">
         <f t="shared" si="1"/>
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88">
         <f t="shared" si="1"/>
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89">
         <f t="shared" si="1"/>
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91">
         <f t="shared" si="1"/>
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92">
         <f t="shared" si="1"/>
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93">
         <f t="shared" si="1"/>
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94">
         <f t="shared" si="1"/>
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95">
         <f t="shared" si="1"/>
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96">
         <f t="shared" si="1"/>
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97">
         <f t="shared" si="1"/>
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98">
         <f t="shared" si="1"/>
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99">
         <f t="shared" si="1"/>
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A102">
         <f t="shared" si="1"/>
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A103">
         <f t="shared" si="1"/>
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A104">
         <f t="shared" si="1"/>
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A105">
         <f t="shared" si="1"/>
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A106">
         <f t="shared" si="1"/>
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A107">
         <f t="shared" si="1"/>
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A108">
         <f t="shared" si="1"/>
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A109">
         <f t="shared" si="1"/>
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A110">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A111">
         <f t="shared" si="1"/>
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A112">
         <f t="shared" si="1"/>
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A113">
         <f t="shared" si="1"/>
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A114">
         <f t="shared" si="1"/>
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A115">
         <f t="shared" si="1"/>
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A116">
         <f t="shared" si="1"/>
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A117">
         <f t="shared" si="1"/>
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A118">
         <f t="shared" si="1"/>
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A119">
         <f t="shared" si="1"/>
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A120">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A121">
         <f t="shared" si="1"/>
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A122">
         <f t="shared" si="1"/>
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A123">
         <f t="shared" si="1"/>
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A124">
         <f t="shared" si="1"/>
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A125">
         <f t="shared" si="1"/>
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A126">
         <f t="shared" si="1"/>
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A127">
         <f t="shared" si="1"/>
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A128">
         <f t="shared" si="1"/>
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A129">
         <f t="shared" si="1"/>
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A130">
         <f t="shared" si="1"/>
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A131">
         <f t="shared" si="1"/>
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A132">
         <f t="shared" ref="A132:A195" si="2">A131+1</f>
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A133">
         <f t="shared" si="2"/>
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A134">
         <f t="shared" si="2"/>
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A135">
         <f t="shared" si="2"/>
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A136">
         <f t="shared" si="2"/>
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A137">
         <f t="shared" si="2"/>
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A138">
         <f t="shared" si="2"/>
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A139">
         <f t="shared" si="2"/>
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A140">
         <f t="shared" si="2"/>
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A141">
         <f t="shared" si="2"/>
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A142">
         <f t="shared" si="2"/>
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A143">
         <f t="shared" si="2"/>
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A144">
         <f t="shared" si="2"/>
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A145">
         <f t="shared" si="2"/>
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A146">
         <f t="shared" si="2"/>
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A147">
         <f t="shared" si="2"/>
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A148">
         <f t="shared" si="2"/>
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A149">
         <f t="shared" si="2"/>
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A150">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A151">
         <f t="shared" si="2"/>
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A152">
         <f t="shared" si="2"/>
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A153">
         <f t="shared" si="2"/>
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A154">
         <f t="shared" si="2"/>
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A155">
         <f t="shared" si="2"/>
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A156">
         <f t="shared" si="2"/>
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A157">
         <f t="shared" si="2"/>
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A158">
         <f t="shared" si="2"/>
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A159">
         <f t="shared" si="2"/>
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A160">
         <f t="shared" si="2"/>
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A161">
         <f t="shared" si="2"/>
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A162">
         <f t="shared" si="2"/>
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A163">
         <f t="shared" si="2"/>
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A164">
         <f t="shared" si="2"/>
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A165">
         <f t="shared" si="2"/>
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A166">
         <f t="shared" si="2"/>
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A167">
         <f t="shared" si="2"/>
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A168">
         <f t="shared" si="2"/>
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A169">
         <f t="shared" si="2"/>
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A170">
         <f t="shared" si="2"/>
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A171">
         <f t="shared" si="2"/>
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A172">
         <f t="shared" si="2"/>
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A173">
         <f t="shared" si="2"/>
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A174">
         <f t="shared" si="2"/>
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A175">
         <f t="shared" si="2"/>
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A176">
         <f t="shared" si="2"/>
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A177">
         <f t="shared" si="2"/>
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A178">
         <f t="shared" si="2"/>
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A179">
         <f t="shared" si="2"/>
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A180">
         <f t="shared" si="2"/>
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A181">
         <f t="shared" si="2"/>
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A182">
         <f t="shared" si="2"/>
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A183">
         <f t="shared" si="2"/>
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A184">
         <f t="shared" si="2"/>
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A185">
         <f t="shared" si="2"/>
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A186">
         <f t="shared" si="2"/>
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A187">
         <f t="shared" si="2"/>
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A188">
         <f t="shared" si="2"/>
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A189">
         <f t="shared" si="2"/>
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A190">
         <f t="shared" si="2"/>
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A191">
         <f t="shared" si="2"/>
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A192">
         <f t="shared" si="2"/>
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A193">
         <f t="shared" si="2"/>
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A194">
         <f t="shared" si="2"/>
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A195">
         <f t="shared" si="2"/>
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A196">
         <f t="shared" ref="A196:A259" si="3">A195+1</f>
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A197">
         <f t="shared" si="3"/>
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A198">
         <f t="shared" si="3"/>
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A199">
         <f t="shared" si="3"/>
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A200">
         <f t="shared" si="3"/>
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A201">
         <f t="shared" si="3"/>
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A202">
         <f t="shared" si="3"/>
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A203">
         <f t="shared" si="3"/>
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A204">
         <f t="shared" si="3"/>
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A205">
         <f t="shared" si="3"/>
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A206">
         <f t="shared" si="3"/>
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A207">
         <f t="shared" si="3"/>
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A208">
         <f t="shared" si="3"/>
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A209">
         <f t="shared" si="3"/>
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A210">
         <f t="shared" si="3"/>
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A211">
         <f t="shared" si="3"/>
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A212">
         <f t="shared" si="3"/>
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A213">
         <f t="shared" si="3"/>
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A214">
         <f t="shared" si="3"/>
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A215">
         <f t="shared" si="3"/>
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A216">
         <f t="shared" si="3"/>
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A217">
         <f t="shared" si="3"/>
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A218">
         <f t="shared" si="3"/>
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A219">
         <f t="shared" si="3"/>
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A220">
         <f t="shared" si="3"/>
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A221">
         <f t="shared" si="3"/>
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A222">
         <f t="shared" si="3"/>
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A223">
         <f t="shared" si="3"/>
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A224">
         <f t="shared" si="3"/>
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A225">
         <f t="shared" si="3"/>
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A226">
         <f t="shared" si="3"/>
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A227">
         <f t="shared" si="3"/>
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A228">
         <f t="shared" si="3"/>
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A229">
         <f t="shared" si="3"/>
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A230">
         <f t="shared" si="3"/>
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A231">
         <f t="shared" si="3"/>
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A232">
         <f t="shared" si="3"/>
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A233">
         <f t="shared" si="3"/>
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A234">
         <f t="shared" si="3"/>
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A235">
         <f t="shared" si="3"/>
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A236">
         <f t="shared" si="3"/>
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A237">
         <f t="shared" si="3"/>
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A238">
         <f t="shared" si="3"/>
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A239">
         <f t="shared" si="3"/>
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A240">
         <f t="shared" si="3"/>
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A241">
         <f t="shared" si="3"/>
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A242">
         <f t="shared" si="3"/>
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A243">
         <f t="shared" si="3"/>
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A244">
         <f t="shared" si="3"/>
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A245">
         <f t="shared" si="3"/>
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A246">
         <f t="shared" si="3"/>
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A247">
         <f t="shared" si="3"/>
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A248">
         <f t="shared" si="3"/>
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A249">
         <f t="shared" si="3"/>
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A250">
         <f t="shared" si="3"/>
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A251">
         <f t="shared" si="3"/>
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A252">
         <f t="shared" si="3"/>
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A253">
         <f t="shared" si="3"/>
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A254">
         <f t="shared" si="3"/>
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A255">
         <f t="shared" si="3"/>
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A256">
         <f t="shared" si="3"/>
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A257">
         <f t="shared" si="3"/>
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A258">
         <f t="shared" si="3"/>
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A259">
         <f t="shared" si="3"/>
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A260">
         <f t="shared" ref="A260:A323" si="4">A259+1</f>
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A261">
         <f t="shared" si="4"/>
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A262">
         <f t="shared" si="4"/>
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A263">
         <f t="shared" si="4"/>
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A264">
         <f t="shared" si="4"/>
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A265">
         <f t="shared" si="4"/>
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A266">
         <f t="shared" si="4"/>
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A267">
         <f t="shared" si="4"/>
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A268">
         <f t="shared" si="4"/>
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A269">
         <f t="shared" si="4"/>
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A270">
         <f t="shared" si="4"/>
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A271">
         <f t="shared" si="4"/>
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A272">
         <f t="shared" si="4"/>
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A273">
         <f t="shared" si="4"/>
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A274">
         <f t="shared" si="4"/>
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A275">
         <f t="shared" si="4"/>
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A276">
         <f t="shared" si="4"/>
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A277">
         <f t="shared" si="4"/>
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A278">
         <f t="shared" si="4"/>
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A279">
         <f t="shared" si="4"/>
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A280">
         <f t="shared" si="4"/>
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A281">
         <f t="shared" si="4"/>
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A282">
         <f t="shared" si="4"/>
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A283">
         <f t="shared" si="4"/>
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A284">
         <f t="shared" si="4"/>
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A285">
         <f t="shared" si="4"/>
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A286">
         <f t="shared" si="4"/>
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A287">
         <f t="shared" si="4"/>
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A288">
         <f t="shared" si="4"/>
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A289">
         <f t="shared" si="4"/>
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A290">
         <f t="shared" si="4"/>
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A291">
         <f t="shared" si="4"/>
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A292">
         <f t="shared" si="4"/>
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A293">
         <f t="shared" si="4"/>
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A294">
         <f t="shared" si="4"/>
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A295">
         <f t="shared" si="4"/>
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A296">
         <f t="shared" si="4"/>
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A297">
         <f t="shared" si="4"/>
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A298">
         <f t="shared" si="4"/>
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A299">
         <f t="shared" si="4"/>
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A300">
         <f t="shared" si="4"/>
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A301">
         <f t="shared" si="4"/>
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A302">
         <f t="shared" si="4"/>
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A303">
         <f t="shared" si="4"/>
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A304">
         <f t="shared" si="4"/>
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A305">
         <f t="shared" si="4"/>
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A306">
         <f t="shared" si="4"/>
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A307">
         <f t="shared" si="4"/>
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A308">
         <f t="shared" si="4"/>
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A309">
         <f t="shared" si="4"/>
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A310">
         <f t="shared" si="4"/>
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A311">
         <f t="shared" si="4"/>
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A312">
         <f t="shared" si="4"/>
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A313">
         <f t="shared" si="4"/>
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A314">
         <f t="shared" si="4"/>
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A315">
         <f t="shared" si="4"/>
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A316">
         <f t="shared" si="4"/>
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A317">
         <f t="shared" si="4"/>
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A318">
         <f t="shared" si="4"/>
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A319">
         <f t="shared" si="4"/>
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A320">
         <f t="shared" si="4"/>
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A321">
         <f t="shared" si="4"/>
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A322">
         <f t="shared" si="4"/>
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A323">
         <f t="shared" si="4"/>
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A324">
-        <f t="shared" ref="A324" si="5">A323+1</f>
+        <f t="shared" ref="A324:A339" si="5">A323+1</f>
+        <v>323</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A325">
+        <f t="shared" si="5"/>
         <v>324</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A326">
+        <f t="shared" si="5"/>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A327">
+        <f t="shared" si="5"/>
+        <v>326</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A328">
+        <f t="shared" si="5"/>
+        <v>327</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A329">
+        <f t="shared" si="5"/>
+        <v>328</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A330">
+        <f t="shared" si="5"/>
+        <v>329</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A331">
+        <f t="shared" si="5"/>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A332">
+        <f t="shared" si="5"/>
+        <v>331</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A333">
+        <f t="shared" si="5"/>
+        <v>332</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A334">
+        <f t="shared" si="5"/>
+        <v>333</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A335">
+        <f t="shared" si="5"/>
+        <v>334</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A336">
+        <f t="shared" si="5"/>
+        <v>335</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A337">
+        <f t="shared" si="5"/>
+        <v>336</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A338">
+        <f t="shared" si="5"/>
+        <v>337</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A339">
+        <f t="shared" si="5"/>
+        <v>338</v>
       </c>
     </row>
   </sheetData>

--- a/output/Base_PPP.xlsx
+++ b/output/Base_PPP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liviabn\Pictures\Base_PPP\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A1D1C7-16CB-4C10-926B-C4046493D677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D55185-6531-4D8E-9CA1-449824C70A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5106" uniqueCount="2409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5706" uniqueCount="2601">
   <si>
     <t>Nome</t>
   </si>
@@ -7366,6 +7366,582 @@
   </si>
   <si>
     <t>Amazônia Resíduos SPE Ltda. e a Prefeitura Municipal de Guarantã do Norte</t>
+  </si>
+  <si>
+    <t>Senador Alexandre Costa</t>
+  </si>
+  <si>
+    <t>Concessão administrativa da prestação dos serviços de iluminação pública nas vias, incluídos o desenvolvimento, modernização, ampliação, eficientização energética, operação e manutenção.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R$ 18.773.959,65 </t>
+  </si>
+  <si>
+    <t>Prefeitura Municipal de Senador Alexandre Costa do Município de Senador Alexandre Costa</t>
+  </si>
+  <si>
+    <t>Alexandre Luz SPE Ltda.</t>
+  </si>
+  <si>
+    <t>10/01/2022</t>
+  </si>
+  <si>
+    <t>28/04/2022</t>
+  </si>
+  <si>
+    <t>05/10/2022</t>
+  </si>
+  <si>
+    <t>Brasiluz Eletrificação e Eletrônica Ltda.; Hikari Luz Eletrificação Ltda.; Quark Engenharia Ltda.</t>
+  </si>
+  <si>
+    <t>https://radarppp.com/resumo-de-contratos-de-ppps/iluminacao-publica-senador-alexandre-costa/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centros Educacionais Unificados </t>
+  </si>
+  <si>
+    <t>Concessão administrativa para a implantação, administração, manutenção e conservação de Centros Educacionais Unificados - CEUS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R$991.000,00 </t>
+  </si>
+  <si>
+    <t>Secretaria Municipal de Governo - SGM e Secretaria Executiva de Desestatização e Parcerias - SEDPo - SEDP do Município de São Paulo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPE Integra S.A.  </t>
+  </si>
+  <si>
+    <t>30/11/2021</t>
+  </si>
+  <si>
+    <t>16/06/2022</t>
+  </si>
+  <si>
+    <t>EPO Participações Ltda.; GSA - Gestão da Propr</t>
+  </si>
+  <si>
+    <t>https://radarppp.com/resumo-de-contratos-de-ppps/centros-educacionais-unificados-municipio-de-sao-paulo/</t>
+  </si>
+  <si>
+    <t>Jaraguá</t>
+  </si>
+  <si>
+    <t>Concessão Administrativa, para Parceria Público-Privada, dos serviços de eficientização, operação e manutenção da iluminação pública e da implantação, operação e manutenção da infraestrutura de telecomunicações e usina fotovoltaica do município.</t>
+  </si>
+  <si>
+    <t>R$189.766,91.</t>
+  </si>
+  <si>
+    <t>Prefeitura Municipal de Jaraguá do Município de Jaraguá</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jaraguá Luz Concessionária de Cidade Inteligente SPE Ltda. </t>
+  </si>
+  <si>
+    <t>. Em resum</t>
+  </si>
+  <si>
+    <t>07/04/2022</t>
+  </si>
+  <si>
+    <t>14/09/2022</t>
+  </si>
+  <si>
+    <t>G.C.E S.A.; RH Engenharia Ltda.; Smartly Engenharia Sustentável Ltda.</t>
+  </si>
+  <si>
+    <t>https://radarppp.com/resumo-de-contratos-de-ppps/iluminacao-publica-jaragua/</t>
+  </si>
+  <si>
+    <t>Campinas</t>
+  </si>
+  <si>
+    <t>Concessão administrativa para prestação dos serviços de iluminação pública no Município de Campinas-SP, incluídos o desenvolvimento, modernização, expansão, eficientização energética, operação e manutenção da Rede Municipal de Iluminação Pública.</t>
+  </si>
+  <si>
+    <t>13,00 anos</t>
+  </si>
+  <si>
+    <t>R$2.310.849,00;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Secretaria Municipal de Gestão e Controle do Município de Campinas</t>
+  </si>
+  <si>
+    <t>Concessionária de Iluminação Pública Conecta Campinas S.A.</t>
+  </si>
+  <si>
+    <t>30/03/2021</t>
+  </si>
+  <si>
+    <t>12/09/2022</t>
+  </si>
+  <si>
+    <t>Green Luce Soluções Energéticas S.A.; High Trend Brasil Serviços e Participações Ltda.; Proteres Participações S.A.; Severo Villares Projetos e Construções S.A.</t>
+  </si>
+  <si>
+    <t>https://radarppp.com/resumo-de-contratos-de-ppps/iluminacao-publica-campinas/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Painéis Solares Fotovoltaicos </t>
+  </si>
+  <si>
+    <t>Concessão dos serviços de implantação, operação e manutenção de mini usinas fotovoltaicas para geração de energia distribuída às unidades consumidoras da Prefeitura de Manaus.</t>
+  </si>
+  <si>
+    <t>27,00 anos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R$667.096,68 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Secretaria Municipal de Administração Planejamento e Gestão - SEMAD do Município de Manaus</t>
+  </si>
+  <si>
+    <t>Energia Limpa PPP SPE S.A.</t>
+  </si>
+  <si>
+    <t>17/10/2019</t>
+  </si>
+  <si>
+    <t>16/10/2020</t>
+  </si>
+  <si>
+    <t>09/09/2022</t>
+  </si>
+  <si>
+    <t>Amazon Watt S.A.</t>
+  </si>
+  <si>
+    <t>https://radarppp.com/resumo-de-contratos-de-ppps/paineis-solares-fotovoltaicos-manaus/</t>
+  </si>
+  <si>
+    <t>Suzano</t>
+  </si>
+  <si>
+    <t>Concessão administrativa para a prestação dos serviços de limpeza urbana, com manejo de resíduos sólidos, manejo de resíduos da saúde e destinação final com reaproveitamento energético e apoio à educação ambiental.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R$ 3.869.630,00 </t>
+  </si>
+  <si>
+    <t>Secretaria Municipal de Manutenção e Serviços Urbanos do Município de Suzano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renova Suzano Ambiental Ltda. </t>
+  </si>
+  <si>
+    <t>08/01/2020</t>
+  </si>
+  <si>
+    <t>22/04/2021</t>
+  </si>
+  <si>
+    <t>18/04/2022</t>
+  </si>
+  <si>
+    <t>02/09/2022</t>
+  </si>
+  <si>
+    <t>MPE Engenharia e Serviços S.A.; Renovar Saneamento Ambiental Ltda.; Resitec Serviços Industriais Ltda.</t>
+  </si>
+  <si>
+    <t>https://radarppp.com/resumo-de-contratos-de-ppps/residuos-solidos-suzano/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sede da Procuradoria Geral do Estado </t>
+  </si>
+  <si>
+    <t>Rondônia</t>
+  </si>
+  <si>
+    <t>Concessão administrativa para a prestação de serviços de construção de edificação e posterior administração, operação, exploração e manutenção da nova Sede da Procuradoria Geral do Estado de Rondônia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R$1.495.800,00 </t>
+  </si>
+  <si>
+    <t>Procuradoria-Geral do Estado de Rondônia do Estado de Rondônia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centro Norte Construção e Administração de Empreendimentos SPE Ltda. </t>
+  </si>
+  <si>
+    <t>Unidades Administrativas e Serviços Públicos</t>
+  </si>
+  <si>
+    <t>22/10/2019</t>
+  </si>
+  <si>
+    <t>15/09/2021</t>
+  </si>
+  <si>
+    <t>13/04/2022</t>
+  </si>
+  <si>
+    <t>09/08/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centro Vias Construtora, Incorporadora, Participações e Armazéns </t>
+  </si>
+  <si>
+    <t>https://radarppp.com/resumo-de-contratos-de-ppps/sede-da-procuradoria-geral-do-estado-rondonia/</t>
+  </si>
+  <si>
+    <t>Jaboatão dos Guararapes</t>
+  </si>
+  <si>
+    <t>Concessão administrativa dos serviços de iluminação pública, incluindo a modernização, eficientização, expansão, operação e a manutenção da infraestrutura da rede municipal de iluminação pública.</t>
+  </si>
+  <si>
+    <t>22,00 anos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R$1.426.575,50 </t>
+  </si>
+  <si>
+    <t>Empresa Municipal de Energia e Iluminação Pública - Emlume do Município de Jaboatão dos Guararapes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luz de Jaboatão Energia S.A. </t>
+  </si>
+  <si>
+    <t>15/10/2015</t>
+  </si>
+  <si>
+    <t>23/11/2021</t>
+  </si>
+  <si>
+    <t>29/01/2022</t>
+  </si>
+  <si>
+    <t>05/08/2022</t>
+  </si>
+  <si>
+    <t>Enel X Brasil S.A.; Mobit - Mobilidade, Iluminação e Tecnologia Ltda.; Selt Engenharia Ltda.</t>
+  </si>
+  <si>
+    <t>https://radarppp.com/resumo-de-contratos-de-ppps/iluminacao-publica-jaboatao-dos-guararapes/</t>
+  </si>
+  <si>
+    <t>Civap – Estado de São Paulo</t>
+  </si>
+  <si>
+    <t>Concessão administrativa para a exploração de serviços de tratamento e destinação final dos resíduos, com previsão de aproveitamento energético visando a redução da massa que se encaminhará ao destino final.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R$85,00 </t>
+  </si>
+  <si>
+    <t>Consórcio Intermunicipal do Vale do Paranapanema - Civap do Consórcio Público de Assis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAL Civap SPE Ltda. </t>
+  </si>
+  <si>
+    <t>21/08/2020</t>
+  </si>
+  <si>
+    <t>19/05/2021</t>
+  </si>
+  <si>
+    <t>29/07/2022</t>
+  </si>
+  <si>
+    <t>Fortnort Desenvolvimento Ambiental e Urbano Eireli; MPE Engenharia e Serviços S.A.; Sigla Sinalização e Construções Ltda.</t>
+  </si>
+  <si>
+    <t>https://radarppp.com/resumo-de-contratos-de-ppps/residuos-solidos-civap-estado-de-sao-paulo/</t>
+  </si>
+  <si>
+    <t>Dores do Indaiá</t>
+  </si>
+  <si>
+    <t>Concessão administrativa para os serviços de eficientização, operação e manutenção da iluminação pública, implantação, operação e manutenção da infraestrutura de telecomunicações e usina fotovoltaica.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R$ 26.049.756,75 </t>
+  </si>
+  <si>
+    <t>Prefeitura Municipal de Dores do Indaiá do Município de Dores do Indaiá</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iluminação Pública Dores do Indaiá </t>
+  </si>
+  <si>
+    <t>22/09/2021</t>
+  </si>
+  <si>
+    <t>15/07/2022</t>
+  </si>
+  <si>
+    <t>Sigma Engenharia Indústria e Comércio Ltda.; Sitran - Sinalização de Trânsito Industrial Ltda.; Solarfast do Brasil Ltda.</t>
+  </si>
+  <si>
+    <t>https://radarppp.com/resumo-de-contratos-de-ppps/iluminacao-publica-dores-do-indaia/</t>
+  </si>
+  <si>
+    <t>Correntina</t>
+  </si>
+  <si>
+    <t>Concessão administrativa para a realização de serviço de destino final de resíduos sólidos urbanos para tratamento em aterro sanitário licenciado.</t>
+  </si>
+  <si>
+    <t>16,00 anos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R$26.801.032,70 </t>
+  </si>
+  <si>
+    <t>Prefeitura Municipal de Correntina do Município de Correntin</t>
+  </si>
+  <si>
+    <t>Três M Ambiental Eireli</t>
+  </si>
+  <si>
+    <t>06/05/2022</t>
+  </si>
+  <si>
+    <t>08/07/2022</t>
+  </si>
+  <si>
+    <t>https://radarppp.com/resumo-de-contratos-de-ppps/residuos-solidos-correntina/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serviços de Iluminação Pública </t>
+  </si>
+  <si>
+    <t>Caruaru</t>
+  </si>
+  <si>
+    <t>Concessão administrativa dos serviços de iluminação pública, no município de Caruaru, incluindo a implantação, instalação, recuperação, modernização, melhoramento, eficientização, expansão, operação e manutenção da infraestrutura da rede municipal de iluminação pública.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R$3.119.220,00 </t>
+  </si>
+  <si>
+    <t>Prefeitura Municipal de Caruaru:</t>
+  </si>
+  <si>
+    <t>Luz de Caruaru Energia S.A.</t>
+  </si>
+  <si>
+    <t>18/06/2021</t>
+  </si>
+  <si>
+    <t>10/12/2021</t>
+  </si>
+  <si>
+    <t>06/07/2022</t>
+  </si>
+  <si>
+    <t>https://radarppp.com/resumo-de-contratos-de-ppps/servicos-de-iluminacao-publica-caruaru/</t>
+  </si>
+  <si>
+    <t>Patos de Minas</t>
+  </si>
+  <si>
+    <t>Concessão administrativa para prestação dos serviços de iluminação pública, incluídas a instalação, modernização, eficientização, expansão, gestão, operação e manutenção do sistema de iluminação pública municipal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R$730.000,00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prefeitura Municipal de Patos de Minas do Município de Patos de Minas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ilumina Patos - SPE S.A. </t>
+  </si>
+  <si>
+    <t>31/05/2021</t>
+  </si>
+  <si>
+    <t>04/07/2022</t>
+  </si>
+  <si>
+    <t>Cale Eletricidade, Construções e Serviços Ltda.; Crater Construções Ltda.; Spin Energy Serviços Elétricos Ltda.</t>
+  </si>
+  <si>
+    <t>https://radarppp.com/resumo-de-contratos-de-ppps/iluminacao-publica-patos-de-minas/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infovia Digital </t>
+  </si>
+  <si>
+    <t>Concessão administrativa para prestação de serviços de transporte de dados, mediante construção, operação e manutenção de infraestrutura de rede de fibra óptica de alta capacidade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R$1.762.556,52 </t>
+  </si>
+  <si>
+    <t>Secretaria de Estado de Fazenda - Sefaz do Estado</t>
+  </si>
+  <si>
+    <t>Sonda Infovia Digital do Estado de MS Serviços de Transporte de Dados SPE S.A.</t>
+  </si>
+  <si>
+    <t>09/01/2017</t>
+  </si>
+  <si>
+    <t>13/10/2021</t>
+  </si>
+  <si>
+    <t>28/12/2021</t>
+  </si>
+  <si>
+    <t>14/06/2022</t>
+  </si>
+  <si>
+    <t>CTIS Tecnologia S.A.; Sonda Procwork Informática Ltda.; Sonda do Brasil S.A.</t>
+  </si>
+  <si>
+    <t>https://radarppp.com/resumo-de-contratos-de-ppps/infovia-digital-mato-grosso-do-sul/</t>
+  </si>
+  <si>
+    <t>São José dos Basílios</t>
+  </si>
+  <si>
+    <t>Concessão administrativa para a modernização, expansão, operação e manutenção da infraestrutura da rede de iluminação pública.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R$ 90.555,55 </t>
+  </si>
+  <si>
+    <t>Secretaria de Infraestrutura e Serviços Públicos do Município de São José dos Basílios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basílios Luz SPE Ltda. </t>
+  </si>
+  <si>
+    <t>12/01/2021</t>
+  </si>
+  <si>
+    <t>03/02/2022</t>
+  </si>
+  <si>
+    <t>10/06/2022</t>
+  </si>
+  <si>
+    <t>https://radarppp.com/resumo-de-contratos-de-ppps/iluminacao-publica-sao-jose-dos-basilios/</t>
+  </si>
+  <si>
+    <t>Concessão administrativa visando a realização de investimentos, operação, tratamento e disposição final dos resíduos sólidos urbanos gerados no Município de Água Boa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R$ 52.467.735,99 </t>
+  </si>
+  <si>
+    <t>Prefeitura Municipal de Água Boa</t>
+  </si>
+  <si>
+    <t>Portal do Araguaia Resíduos SPE Ltda.</t>
+  </si>
+  <si>
+    <t>02/06/2020</t>
+  </si>
+  <si>
+    <t>10/09/2021</t>
+  </si>
+  <si>
+    <t>22/04/2022</t>
+  </si>
+  <si>
+    <t>Saraguaia - Saneamento Ambiental do Araguaia Ltda.</t>
+  </si>
+  <si>
+    <t>https://radarppp.com/resumo-de-contratos-de-ppps/residuos-solidos-agua-boa/</t>
+  </si>
+  <si>
+    <t>Nova Serrana</t>
+  </si>
+  <si>
+    <t>Concessão administrativa, dos serviços de eficientização, operação e manutenção da iluminação pública e da implantação, operação e manutenção da infraestrutura de telecomunicações do Município.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R$ 152.090.370,73 </t>
+  </si>
+  <si>
+    <t>Prefeitura Municipal de Nova Serrana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qluz Nova Serrana Concessionária de Cidade Inteligente SPE S.A. </t>
+  </si>
+  <si>
+    <t>25/03/2019</t>
+  </si>
+  <si>
+    <t>https://radarppp.com/resumo-de-contratos-de-ppps/iluminacao-publica-nova-serrana/</t>
+  </si>
+  <si>
+    <t>São Félix do Coribe</t>
+  </si>
+  <si>
+    <t>Concessão administrativa, para a realização de serviço de destino final de resíduos sólidos urbanos para tratamento em aterro sanitário licenciado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R$12.919.519,44 </t>
+  </si>
+  <si>
+    <t>Secretaria Municipal de Infraestrutura do Município de São Félix do Coribe</t>
+  </si>
+  <si>
+    <t>04/04/2022</t>
+  </si>
+  <si>
+    <t>https://radarppp.com/resumo-de-contratos-de-ppps/residuos-solidos-sao-felix-do-coribe/</t>
+  </si>
+  <si>
+    <t>CPGI – Minas Gerais</t>
+  </si>
+  <si>
+    <t>Concessão administrativa dos serviços de gestão, operação, modernização, otimização, expansão e manutenção da rede de iluminação pública.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R$ 165.000.000,00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Consórcio Público para Gestão Integrada - CPGI do Consórcio Público</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concessionária Smart CPGI SPE S.A. </t>
+  </si>
+  <si>
+    <t>23/10/2019</t>
+  </si>
+  <si>
+    <t>30/04/2021</t>
+  </si>
+  <si>
+    <t>30/03/2022</t>
+  </si>
+  <si>
+    <t>RT Energia e Serviços Ltda.; Splice do Brasil Telecomunicações e Eletrônica S.A.</t>
+  </si>
+  <si>
+    <t>https://radarppp.com/resumo-de-contratos-de-ppps/iluminacao-publica-cpgi-minas-gerais/</t>
+  </si>
+  <si>
+    <t>Oeiras</t>
+  </si>
+  <si>
+    <t>R$180.000,00,</t>
+  </si>
+  <si>
+    <t>Prefeitura Municipal de Oeiras do Município de Oeiras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oeiras Luz SPE Ltda. </t>
+  </si>
+  <si>
+    <t>11/11/2019</t>
+  </si>
+  <si>
+    <t>Brasiluz Eletrificação e Eletrônica Ltda.; Sigma Engenharia Indústria e Comércio Ltda.</t>
+  </si>
+  <si>
+    <t>https://radarppp.com/resumo-de-contratos-de-ppps/iluminacao-publica-oeiras/</t>
   </si>
 </sst>
 </file>
@@ -7524,8 +8100,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="34">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -7562,9 +8138,6 @@
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -7585,7 +8158,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -7813,8 +8385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A331" workbookViewId="0">
-      <selection activeCell="A337" sqref="A337"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AF327" sqref="AF327:AF339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7851,10 +8423,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="32" t="s">
         <v>2282</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -7896,10 +8468,10 @@
       <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="29" t="s">
+      <c r="P1" s="28" t="s">
         <v>2283</v>
       </c>
-      <c r="Q1" s="29" t="s">
+      <c r="Q1" s="28" t="s">
         <v>2284</v>
       </c>
       <c r="R1" s="1" t="s">
@@ -8868,7 +9440,7 @@
       <c r="AE17" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="AH17" s="19" t="s">
+      <c r="AH17" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -8950,7 +9522,7 @@
       <c r="AE18" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="AH18" s="19" t="s">
+      <c r="AH18" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -9028,7 +9600,7 @@
       <c r="AE19" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="AH19" s="19" t="s">
+      <c r="AH19" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -9110,7 +9682,7 @@
       <c r="AE20" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="AH20" s="19" t="s">
+      <c r="AH20" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -9192,7 +9764,7 @@
       <c r="AE21" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="AH21" s="19" t="s">
+      <c r="AH21" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -9270,7 +9842,7 @@
       <c r="AE22" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="AH22" s="19" t="s">
+      <c r="AH22" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -9352,7 +9924,7 @@
       <c r="AE23" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="AH23" s="19" t="s">
+      <c r="AH23" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -9434,7 +10006,7 @@
       <c r="AE24" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="AH24" s="19" t="s">
+      <c r="AH24" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -9512,7 +10084,7 @@
       <c r="AE25" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="AH25" s="19" t="s">
+      <c r="AH25" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -9588,7 +10160,7 @@
       <c r="AE26" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="AH26" s="19" t="s">
+      <c r="AH26" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -9666,7 +10238,7 @@
       <c r="AE27" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="AH27" s="19" t="s">
+      <c r="AH27" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -9744,7 +10316,7 @@
       <c r="AE28" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="AH28" s="19" t="s">
+      <c r="AH28" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -9816,7 +10388,7 @@
       <c r="AE29" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="AH29" s="19" t="s">
+      <c r="AH29" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -9833,10 +10405,10 @@
       <c r="D30" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="20" t="s">
+      <c r="E30" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="F30" s="20" t="s">
+      <c r="F30" s="19" t="s">
         <v>88</v>
       </c>
       <c r="G30" s="8" t="s">
@@ -9849,7 +10421,7 @@
       <c r="J30" s="9">
         <v>30</v>
       </c>
-      <c r="K30" s="21">
+      <c r="K30" s="20">
         <v>1770000000</v>
       </c>
       <c r="L30" s="18" t="s">
@@ -9866,10 +10438,10 @@
       <c r="Q30" s="8"/>
       <c r="R30" s="8"/>
       <c r="S30" s="8"/>
-      <c r="T30" s="22">
+      <c r="T30" s="21">
         <v>43759</v>
       </c>
-      <c r="U30" s="22">
+      <c r="U30" s="21">
         <v>2020</v>
       </c>
       <c r="V30" s="8" t="s">
@@ -9886,7 +10458,7 @@
       <c r="AE30" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="AH30" s="19" t="s">
+      <c r="AH30" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -9958,7 +10530,7 @@
       <c r="AE31" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="AH31" s="19" t="s">
+      <c r="AH31" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -10028,7 +10600,7 @@
       <c r="AE32" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="AH32" s="19" t="s">
+      <c r="AH32" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -10100,7 +10672,7 @@
       <c r="AE33" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="AH33" s="19" t="s">
+      <c r="AH33" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -10182,7 +10754,7 @@
       <c r="AE34" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="AH34" s="19" t="s">
+      <c r="AH34" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -10260,7 +10832,7 @@
       <c r="AE35" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="AH35" s="19" t="s">
+      <c r="AH35" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -10342,7 +10914,7 @@
       <c r="AE36" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="AH36" s="19" t="s">
+      <c r="AH36" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -10424,7 +10996,7 @@
       <c r="AE37" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="AH37" s="19" t="s">
+      <c r="AH37" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -10506,7 +11078,7 @@
       <c r="AE38" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="AH38" s="19" t="s">
+      <c r="AH38" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -10586,7 +11158,7 @@
       <c r="AE39" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="AH39" s="19" t="s">
+      <c r="AH39" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -10668,7 +11240,7 @@
       <c r="AE40" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="AH40" s="19" t="s">
+      <c r="AH40" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -10748,7 +11320,7 @@
       <c r="AE41" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="AH41" s="19" t="s">
+      <c r="AH41" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -10828,7 +11400,7 @@
       <c r="AE42" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="AH42" s="19" t="s">
+      <c r="AH42" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -10910,7 +11482,7 @@
       <c r="AE43" s="11" t="s">
         <v>382</v>
       </c>
-      <c r="AH43" s="19" t="s">
+      <c r="AH43" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -10990,7 +11562,7 @@
       <c r="AE44" s="11" t="s">
         <v>392</v>
       </c>
-      <c r="AH44" s="19" t="s">
+      <c r="AH44" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -11070,7 +11642,7 @@
       <c r="AE45" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="AH45" s="19" t="s">
+      <c r="AH45" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -11156,7 +11728,7 @@
       <c r="AE46" s="11" t="s">
         <v>417</v>
       </c>
-      <c r="AH46" s="19" t="s">
+      <c r="AH46" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -11238,7 +11810,7 @@
       <c r="AE47" s="11" t="s">
         <v>427</v>
       </c>
-      <c r="AH47" s="19" t="s">
+      <c r="AH47" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -11318,7 +11890,7 @@
       <c r="AE48" s="11" t="s">
         <v>437</v>
       </c>
-      <c r="AH48" s="19" t="s">
+      <c r="AH48" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -11400,7 +11972,7 @@
       <c r="AE49" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="AH49" s="19" t="s">
+      <c r="AH49" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -11482,7 +12054,7 @@
       <c r="AE50" s="11" t="s">
         <v>458</v>
       </c>
-      <c r="AH50" s="19" t="s">
+      <c r="AH50" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -11564,7 +12136,7 @@
       <c r="AE51" s="11" t="s">
         <v>467</v>
       </c>
-      <c r="AH51" s="19" t="s">
+      <c r="AH51" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -11646,7 +12218,7 @@
       <c r="AE52" s="11" t="s">
         <v>478</v>
       </c>
-      <c r="AH52" s="19" t="s">
+      <c r="AH52" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -11730,7 +12302,7 @@
       <c r="AE53" s="11" t="s">
         <v>489</v>
       </c>
-      <c r="AH53" s="19" t="s">
+      <c r="AH53" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -11814,7 +12386,7 @@
       <c r="AE54" s="11" t="s">
         <v>500</v>
       </c>
-      <c r="AH54" s="19" t="s">
+      <c r="AH54" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -11896,7 +12468,7 @@
       <c r="AE55" s="11" t="s">
         <v>509</v>
       </c>
-      <c r="AH55" s="19" t="s">
+      <c r="AH55" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -11980,7 +12552,7 @@
       <c r="AE56" s="11" t="s">
         <v>521</v>
       </c>
-      <c r="AH56" s="19" t="s">
+      <c r="AH56" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -12064,7 +12636,7 @@
       <c r="AE57" s="11" t="s">
         <v>533</v>
       </c>
-      <c r="AH57" s="19" t="s">
+      <c r="AH57" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -12144,7 +12716,7 @@
       <c r="AE58" s="11" t="s">
         <v>541</v>
       </c>
-      <c r="AH58" s="19" t="s">
+      <c r="AH58" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -12226,7 +12798,7 @@
       <c r="AE59" s="11" t="s">
         <v>551</v>
       </c>
-      <c r="AH59" s="19" t="s">
+      <c r="AH59" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -12310,7 +12882,7 @@
       <c r="AE60" s="11" t="s">
         <v>564</v>
       </c>
-      <c r="AH60" s="19" t="s">
+      <c r="AH60" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -12392,7 +12964,7 @@
       <c r="AE61" s="11" t="s">
         <v>574</v>
       </c>
-      <c r="AH61" s="19" t="s">
+      <c r="AH61" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -12474,7 +13046,7 @@
       <c r="AE62" s="11" t="s">
         <v>585</v>
       </c>
-      <c r="AH62" s="19" t="s">
+      <c r="AH62" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -12556,7 +13128,7 @@
       <c r="AE63" s="11" t="s">
         <v>594</v>
       </c>
-      <c r="AH63" s="19" t="s">
+      <c r="AH63" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -12638,7 +13210,7 @@
       <c r="AE64" s="11" t="s">
         <v>603</v>
       </c>
-      <c r="AH64" s="19" t="s">
+      <c r="AH64" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -12718,7 +13290,7 @@
       <c r="AE65" s="11" t="s">
         <v>612</v>
       </c>
-      <c r="AH65" s="19" t="s">
+      <c r="AH65" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -12798,7 +13370,7 @@
       <c r="AE66" s="11" t="s">
         <v>620</v>
       </c>
-      <c r="AH66" s="19" t="s">
+      <c r="AH66" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -12880,7 +13452,7 @@
       <c r="AE67" s="11" t="s">
         <v>628</v>
       </c>
-      <c r="AH67" s="19" t="s">
+      <c r="AH67" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -12962,7 +13534,7 @@
       <c r="AE68" s="11" t="s">
         <v>640</v>
       </c>
-      <c r="AH68" s="19" t="s">
+      <c r="AH68" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -13042,7 +13614,7 @@
       <c r="AE69" s="11" t="s">
         <v>648</v>
       </c>
-      <c r="AH69" s="19" t="s">
+      <c r="AH69" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -13128,7 +13700,7 @@
       <c r="AE70" s="11" t="s">
         <v>660</v>
       </c>
-      <c r="AH70" s="19" t="s">
+      <c r="AH70" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -13161,7 +13733,7 @@
       <c r="J71" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="K71" s="23" t="s">
+      <c r="K71" s="22" t="s">
         <v>89</v>
       </c>
       <c r="L71" s="10"/>
@@ -13206,7 +13778,7 @@
       <c r="AE71" s="11" t="s">
         <v>666</v>
       </c>
-      <c r="AH71" s="19" t="s">
+      <c r="AH71" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -13290,7 +13862,7 @@
       <c r="AE72" s="11" t="s">
         <v>674</v>
       </c>
-      <c r="AH72" s="19" t="s">
+      <c r="AH72" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -13374,7 +13946,7 @@
       <c r="AE73" s="11" t="s">
         <v>685</v>
       </c>
-      <c r="AH73" s="19" t="s">
+      <c r="AH73" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -13458,7 +14030,7 @@
       <c r="AE74" s="11" t="s">
         <v>697</v>
       </c>
-      <c r="AH74" s="19" t="s">
+      <c r="AH74" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -13540,7 +14112,7 @@
       <c r="AE75" s="11" t="s">
         <v>706</v>
       </c>
-      <c r="AH75" s="19" t="s">
+      <c r="AH75" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -13624,7 +14196,7 @@
       <c r="AE76" s="11" t="s">
         <v>715</v>
       </c>
-      <c r="AH76" s="19" t="s">
+      <c r="AH76" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -13706,7 +14278,7 @@
       <c r="AE77" s="11" t="s">
         <v>725</v>
       </c>
-      <c r="AH77" s="19" t="s">
+      <c r="AH77" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -13794,7 +14366,7 @@
       <c r="AE78" s="11" t="s">
         <v>737</v>
       </c>
-      <c r="AH78" s="19" t="s">
+      <c r="AH78" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -13874,7 +14446,7 @@
       <c r="AE79" s="11" t="s">
         <v>744</v>
       </c>
-      <c r="AH79" s="19" t="s">
+      <c r="AH79" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -13956,7 +14528,7 @@
       <c r="AE80" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="AH80" s="19" t="s">
+      <c r="AH80" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -14040,7 +14612,7 @@
       <c r="AE81" s="11" t="s">
         <v>763</v>
       </c>
-      <c r="AH81" s="19" t="s">
+      <c r="AH81" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -14118,7 +14690,7 @@
       <c r="AE82" s="11" t="s">
         <v>769</v>
       </c>
-      <c r="AH82" s="19" t="s">
+      <c r="AH82" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -14135,10 +14707,10 @@
       <c r="D83" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E83" s="20" t="s">
+      <c r="E83" s="19" t="s">
         <v>325</v>
       </c>
-      <c r="F83" s="20" t="s">
+      <c r="F83" s="19" t="s">
         <v>56</v>
       </c>
       <c r="G83" s="8" t="s">
@@ -14151,7 +14723,7 @@
       <c r="J83" s="9">
         <v>30</v>
       </c>
-      <c r="K83" s="21">
+      <c r="K83" s="20">
         <v>84357742</v>
       </c>
       <c r="L83" s="18" t="s">
@@ -14168,16 +14740,16 @@
       </c>
       <c r="P83" s="8"/>
       <c r="Q83" s="8"/>
-      <c r="R83" s="22">
+      <c r="R83" s="21">
         <v>42046</v>
       </c>
-      <c r="S83" s="22">
+      <c r="S83" s="21">
         <v>42731</v>
       </c>
-      <c r="T83" s="22">
+      <c r="T83" s="21">
         <v>42844</v>
       </c>
-      <c r="U83" s="22">
+      <c r="U83" s="21">
         <v>42858</v>
       </c>
       <c r="V83" s="8" t="s">
@@ -14198,7 +14770,7 @@
       <c r="AE83" s="11" t="s">
         <v>776</v>
       </c>
-      <c r="AH83" s="19" t="s">
+      <c r="AH83" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -14215,10 +14787,10 @@
       <c r="D84" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E84" s="20" t="s">
+      <c r="E84" s="19" t="s">
         <v>325</v>
       </c>
-      <c r="F84" s="20" t="s">
+      <c r="F84" s="19" t="s">
         <v>56</v>
       </c>
       <c r="G84" s="8" t="s">
@@ -14231,7 +14803,7 @@
       <c r="J84" s="9">
         <v>20</v>
       </c>
-      <c r="K84" s="21">
+      <c r="K84" s="20">
         <v>7217473.5099999998</v>
       </c>
       <c r="L84" s="18" t="s">
@@ -14248,16 +14820,16 @@
       </c>
       <c r="P84" s="8"/>
       <c r="Q84" s="8"/>
-      <c r="R84" s="22">
+      <c r="R84" s="21">
         <v>42963</v>
       </c>
-      <c r="S84" s="22">
+      <c r="S84" s="21">
         <v>43626</v>
       </c>
-      <c r="T84" s="22">
+      <c r="T84" s="21">
         <v>44161</v>
       </c>
-      <c r="U84" s="22">
+      <c r="U84" s="21">
         <v>44356</v>
       </c>
       <c r="V84" s="8" t="s">
@@ -14278,7 +14850,7 @@
       <c r="AE84" s="11" t="s">
         <v>783</v>
       </c>
-      <c r="AH84" s="19" t="s">
+      <c r="AH84" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -14295,10 +14867,10 @@
       <c r="D85" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E85" s="20" t="s">
+      <c r="E85" s="19" t="s">
         <v>325</v>
       </c>
-      <c r="F85" s="20" t="s">
+      <c r="F85" s="19" t="s">
         <v>56</v>
       </c>
       <c r="G85" s="8" t="s">
@@ -14311,7 +14883,7 @@
       <c r="J85" s="9">
         <v>20</v>
       </c>
-      <c r="K85" s="21">
+      <c r="K85" s="20">
         <v>6815388.3399999999</v>
       </c>
       <c r="L85" s="18" t="s">
@@ -14328,16 +14900,16 @@
       </c>
       <c r="P85" s="8"/>
       <c r="Q85" s="8"/>
-      <c r="R85" s="22">
+      <c r="R85" s="21">
         <v>43032</v>
       </c>
-      <c r="S85" s="22">
+      <c r="S85" s="21">
         <v>43206</v>
       </c>
-      <c r="T85" s="22">
+      <c r="T85" s="21">
         <v>43480</v>
       </c>
-      <c r="U85" s="22">
+      <c r="U85" s="21">
         <v>43523</v>
       </c>
       <c r="V85" s="8" t="s">
@@ -14358,7 +14930,7 @@
       <c r="AE85" s="11" t="s">
         <v>790</v>
       </c>
-      <c r="AH85" s="19" t="s">
+      <c r="AH85" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -14411,13 +14983,13 @@
       <c r="R86" s="12">
         <v>43173</v>
       </c>
-      <c r="S86" s="22">
+      <c r="S86" s="21">
         <v>44147</v>
       </c>
-      <c r="T86" s="22">
+      <c r="T86" s="21">
         <v>44508</v>
       </c>
-      <c r="U86" s="22">
+      <c r="U86" s="21">
         <v>44552</v>
       </c>
       <c r="V86" s="8" t="s">
@@ -14438,7 +15010,7 @@
       <c r="AE86" s="11" t="s">
         <v>796</v>
       </c>
-      <c r="AH86" s="19" t="s">
+      <c r="AH86" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -14491,13 +15063,13 @@
       <c r="R87" s="12">
         <v>43022</v>
       </c>
-      <c r="S87" s="22">
+      <c r="S87" s="21">
         <v>43619</v>
       </c>
-      <c r="T87" s="22">
+      <c r="T87" s="21">
         <v>44348</v>
       </c>
-      <c r="U87" s="22">
+      <c r="U87" s="21">
         <v>44352</v>
       </c>
       <c r="V87" s="8" t="s">
@@ -14518,7 +15090,7 @@
       <c r="AE87" s="11" t="s">
         <v>803</v>
       </c>
-      <c r="AH87" s="19" t="s">
+      <c r="AH87" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -14571,13 +15143,13 @@
       <c r="R88" s="12">
         <v>42646</v>
       </c>
-      <c r="S88" s="22">
+      <c r="S88" s="21">
         <v>42780</v>
       </c>
-      <c r="T88" s="22">
+      <c r="T88" s="21">
         <v>43038</v>
       </c>
-      <c r="U88" s="22">
+      <c r="U88" s="21">
         <v>43256</v>
       </c>
       <c r="V88" s="8" t="s">
@@ -14598,7 +15170,7 @@
       <c r="AE88" s="11" t="s">
         <v>810</v>
       </c>
-      <c r="AH88" s="19" t="s">
+      <c r="AH88" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -14649,13 +15221,13 @@
       <c r="P89" s="8"/>
       <c r="Q89" s="8"/>
       <c r="R89" s="12"/>
-      <c r="S89" s="22">
+      <c r="S89" s="21">
         <v>42342</v>
       </c>
-      <c r="T89" s="22">
+      <c r="T89" s="21">
         <v>42697</v>
       </c>
-      <c r="U89" s="22">
+      <c r="U89" s="21">
         <v>42816</v>
       </c>
       <c r="V89" s="8" t="s">
@@ -14676,7 +15248,7 @@
       <c r="AE89" s="11" t="s">
         <v>816</v>
       </c>
-      <c r="AH89" s="19" t="s">
+      <c r="AH89" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -14727,13 +15299,13 @@
       <c r="P90" s="8"/>
       <c r="Q90" s="8"/>
       <c r="R90" s="12"/>
-      <c r="S90" s="22">
+      <c r="S90" s="21">
         <v>42247</v>
       </c>
-      <c r="T90" s="22">
+      <c r="T90" s="21">
         <v>42264</v>
       </c>
-      <c r="U90" s="22">
+      <c r="U90" s="21">
         <v>42341</v>
       </c>
       <c r="V90" s="8" t="s">
@@ -14754,7 +15326,7 @@
       <c r="AE90" s="11" t="s">
         <v>821</v>
       </c>
-      <c r="AH90" s="19" t="s">
+      <c r="AH90" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -14805,13 +15377,13 @@
       <c r="P91" s="8"/>
       <c r="Q91" s="8"/>
       <c r="R91" s="12"/>
-      <c r="S91" s="22">
+      <c r="S91" s="21">
         <v>42247</v>
       </c>
-      <c r="T91" s="22">
+      <c r="T91" s="21">
         <v>42264</v>
       </c>
-      <c r="U91" s="22">
+      <c r="U91" s="21">
         <v>42341</v>
       </c>
       <c r="V91" s="8" t="s">
@@ -14832,7 +15404,7 @@
       <c r="AE91" s="11" t="s">
         <v>826</v>
       </c>
-      <c r="AH91" s="19" t="s">
+      <c r="AH91" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -14883,13 +15455,13 @@
       <c r="P92" s="8"/>
       <c r="Q92" s="8"/>
       <c r="R92" s="12"/>
-      <c r="S92" s="22">
+      <c r="S92" s="21">
         <v>42247</v>
       </c>
-      <c r="T92" s="22">
+      <c r="T92" s="21">
         <v>42264</v>
       </c>
-      <c r="U92" s="22">
+      <c r="U92" s="21">
         <v>42341</v>
       </c>
       <c r="V92" s="8" t="s">
@@ -14910,7 +15482,7 @@
       <c r="AE92" s="11" t="s">
         <v>831</v>
       </c>
-      <c r="AH92" s="19" t="s">
+      <c r="AH92" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -14963,13 +15535,13 @@
       <c r="R93" s="12">
         <v>43770</v>
       </c>
-      <c r="S93" s="22">
+      <c r="S93" s="21">
         <v>44148</v>
       </c>
-      <c r="T93" s="22">
+      <c r="T93" s="21">
         <v>44285</v>
       </c>
-      <c r="U93" s="22">
+      <c r="U93" s="21">
         <v>44407</v>
       </c>
       <c r="V93" s="8" t="s">
@@ -14988,7 +15560,7 @@
       <c r="AE93" s="11" t="s">
         <v>838</v>
       </c>
-      <c r="AH93" s="19" t="s">
+      <c r="AH93" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -15066,7 +15638,7 @@
       <c r="AE94" s="8" t="s">
         <v>845</v>
       </c>
-      <c r="AH94" s="19" t="s">
+      <c r="AH94" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -15134,7 +15706,7 @@
       <c r="AC95" s="8"/>
       <c r="AD95" s="8"/>
       <c r="AE95" s="8"/>
-      <c r="AH95" s="19" t="s">
+      <c r="AH95" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -15204,7 +15776,7 @@
       <c r="AE96" s="8" t="s">
         <v>853</v>
       </c>
-      <c r="AH96" s="19" t="s">
+      <c r="AH96" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -15251,13 +15823,13 @@
       <c r="R97" s="12">
         <v>43711</v>
       </c>
-      <c r="S97" s="22">
+      <c r="S97" s="21">
         <v>43882</v>
       </c>
-      <c r="T97" s="22">
+      <c r="T97" s="21">
         <v>44021</v>
       </c>
-      <c r="U97" s="22">
+      <c r="U97" s="21">
         <v>44047</v>
       </c>
       <c r="V97" s="8" t="s">
@@ -15274,7 +15846,7 @@
       <c r="AE97" s="11" t="s">
         <v>859</v>
       </c>
-      <c r="AH97" s="19" t="s">
+      <c r="AH97" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -15334,7 +15906,7 @@
       <c r="AE98" s="11" t="s">
         <v>863</v>
       </c>
-      <c r="AH98" s="19" t="s">
+      <c r="AH98" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -15394,7 +15966,7 @@
       <c r="AE99" s="8" t="s">
         <v>868</v>
       </c>
-      <c r="AH99" s="19" t="s">
+      <c r="AH99" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -15466,7 +16038,7 @@
       <c r="AC100" s="8"/>
       <c r="AD100" s="8"/>
       <c r="AE100" s="8"/>
-      <c r="AH100" s="19" t="s">
+      <c r="AH100" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -15500,7 +16072,7 @@
       <c r="K101" s="17">
         <v>4000000</v>
       </c>
-      <c r="L101" s="24" t="s">
+      <c r="L101" s="23" t="s">
         <v>882</v>
       </c>
       <c r="M101" s="8" t="s">
@@ -15530,7 +16102,7 @@
       <c r="AE101" s="8" t="s">
         <v>883</v>
       </c>
-      <c r="AH101" s="19" t="s">
+      <c r="AH101" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -15610,7 +16182,7 @@
       <c r="AE102" s="11" t="s">
         <v>891</v>
       </c>
-      <c r="AH102" s="19" t="s">
+      <c r="AH102" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -15694,7 +16266,7 @@
       <c r="AE103" s="11" t="s">
         <v>902</v>
       </c>
-      <c r="AH103" s="19" t="s">
+      <c r="AH103" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -15778,7 +16350,7 @@
       <c r="AE104" s="11" t="s">
         <v>913</v>
       </c>
-      <c r="AH104" s="19" t="s">
+      <c r="AH104" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -15858,7 +16430,7 @@
       <c r="AE105" s="11" t="s">
         <v>921</v>
       </c>
-      <c r="AH105" s="19" t="s">
+      <c r="AH105" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -15940,7 +16512,7 @@
       <c r="AE106" s="11" t="s">
         <v>930</v>
       </c>
-      <c r="AH106" s="19" t="s">
+      <c r="AH106" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -16022,7 +16594,7 @@
       <c r="AE107" s="11" t="s">
         <v>941</v>
       </c>
-      <c r="AH107" s="19" t="s">
+      <c r="AH107" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -16100,7 +16672,7 @@
       <c r="AE108" s="11" t="s">
         <v>948</v>
       </c>
-      <c r="AH108" s="19" t="s">
+      <c r="AH108" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -16186,7 +16758,7 @@
       <c r="AE109" s="11" t="s">
         <v>959</v>
       </c>
-      <c r="AH109" s="19" t="s">
+      <c r="AH109" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -16264,7 +16836,7 @@
       <c r="AE110" s="11" t="s">
         <v>968</v>
       </c>
-      <c r="AH110" s="19" t="s">
+      <c r="AH110" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -16340,7 +16912,7 @@
       <c r="AE111" s="11" t="s">
         <v>976</v>
       </c>
-      <c r="AH111" s="19" t="s">
+      <c r="AH111" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -16418,7 +16990,7 @@
       <c r="AE112" s="11" t="s">
         <v>982</v>
       </c>
-      <c r="AH112" s="19" t="s">
+      <c r="AH112" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -16498,7 +17070,7 @@
       <c r="AE113" s="11" t="s">
         <v>988</v>
       </c>
-      <c r="AH113" s="19" t="s">
+      <c r="AH113" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -16570,7 +17142,7 @@
       <c r="AE114" s="11" t="s">
         <v>993</v>
       </c>
-      <c r="AH114" s="19" t="s">
+      <c r="AH114" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -16628,7 +17200,7 @@
       <c r="AE115" s="11" t="s">
         <v>997</v>
       </c>
-      <c r="AH115" s="19" t="s">
+      <c r="AH115" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -16708,7 +17280,7 @@
       <c r="AE116" s="11" t="s">
         <v>1004</v>
       </c>
-      <c r="AH116" s="19" t="s">
+      <c r="AH116" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -16786,7 +17358,7 @@
       <c r="AE117" s="11" t="s">
         <v>1013</v>
       </c>
-      <c r="AH117" s="19" t="s">
+      <c r="AH117" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -16868,7 +17440,7 @@
       <c r="AE118" s="11" t="s">
         <v>1024</v>
       </c>
-      <c r="AH118" s="19" t="s">
+      <c r="AH118" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -16950,7 +17522,7 @@
       <c r="AE119" s="11" t="s">
         <v>1035</v>
       </c>
-      <c r="AH119" s="19" t="s">
+      <c r="AH119" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -17028,7 +17600,7 @@
       <c r="AE120" s="11" t="s">
         <v>1042</v>
       </c>
-      <c r="AH120" s="19" t="s">
+      <c r="AH120" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -17108,7 +17680,7 @@
       <c r="AE121" s="11" t="s">
         <v>1051</v>
       </c>
-      <c r="AH121" s="19" t="s">
+      <c r="AH121" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -17186,7 +17758,7 @@
       <c r="AE122" s="11" t="s">
         <v>1059</v>
       </c>
-      <c r="AH122" s="19" t="s">
+      <c r="AH122" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -17264,7 +17836,7 @@
       <c r="AE123" s="11" t="s">
         <v>1067</v>
       </c>
-      <c r="AH123" s="19" t="s">
+      <c r="AH123" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -17350,7 +17922,7 @@
       <c r="AE124" s="11" t="s">
         <v>1078</v>
       </c>
-      <c r="AH124" s="19" t="s">
+      <c r="AH124" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -17432,7 +18004,7 @@
       <c r="AE125" s="11" t="s">
         <v>1086</v>
       </c>
-      <c r="AH125" s="19" t="s">
+      <c r="AH125" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -17514,7 +18086,7 @@
       <c r="AE126" s="11" t="s">
         <v>1097</v>
       </c>
-      <c r="AH126" s="19" t="s">
+      <c r="AH126" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -17602,7 +18174,7 @@
       <c r="AE127" s="11" t="s">
         <v>1109</v>
       </c>
-      <c r="AH127" s="19" t="s">
+      <c r="AH127" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -17680,7 +18252,7 @@
       <c r="AE128" s="11" t="s">
         <v>1116</v>
       </c>
-      <c r="AH128" s="19" t="s">
+      <c r="AH128" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -17758,7 +18330,7 @@
       <c r="AE129" s="11" t="s">
         <v>1123</v>
       </c>
-      <c r="AH129" s="19" t="s">
+      <c r="AH129" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -17836,7 +18408,7 @@
       <c r="AE130" s="11" t="s">
         <v>1132</v>
       </c>
-      <c r="AH130" s="19" t="s">
+      <c r="AH130" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -17916,7 +18488,7 @@
       <c r="AE131" s="11" t="s">
         <v>1141</v>
       </c>
-      <c r="AH131" s="19" t="s">
+      <c r="AH131" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -17994,7 +18566,7 @@
       <c r="AE132" s="11" t="s">
         <v>1148</v>
       </c>
-      <c r="AH132" s="19" t="s">
+      <c r="AH132" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -18074,7 +18646,7 @@
       <c r="AE133" s="11" t="s">
         <v>1155</v>
       </c>
-      <c r="AH133" s="19" t="s">
+      <c r="AH133" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -18152,7 +18724,7 @@
       <c r="AE134" s="11" t="s">
         <v>1163</v>
       </c>
-      <c r="AH134" s="19" t="s">
+      <c r="AH134" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -18230,7 +18802,7 @@
       <c r="AE135" s="11" t="s">
         <v>1169</v>
       </c>
-      <c r="AH135" s="19" t="s">
+      <c r="AH135" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -18308,7 +18880,7 @@
       <c r="AE136" s="11" t="s">
         <v>1176</v>
       </c>
-      <c r="AH136" s="19" t="s">
+      <c r="AH136" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -18386,7 +18958,7 @@
       <c r="AE137" s="11" t="s">
         <v>1183</v>
       </c>
-      <c r="AH137" s="19" t="s">
+      <c r="AH137" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -18466,7 +19038,7 @@
       <c r="AE138" s="11" t="s">
         <v>1192</v>
       </c>
-      <c r="AH138" s="19" t="s">
+      <c r="AH138" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -18546,7 +19118,7 @@
       <c r="AE139" s="11" t="s">
         <v>1201</v>
       </c>
-      <c r="AH139" s="19" t="s">
+      <c r="AH139" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -18626,7 +19198,7 @@
       <c r="AE140" s="11" t="s">
         <v>1206</v>
       </c>
-      <c r="AH140" s="19" t="s">
+      <c r="AH140" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -18714,7 +19286,7 @@
       <c r="AE141" s="11" t="s">
         <v>1217</v>
       </c>
-      <c r="AH141" s="19" t="s">
+      <c r="AH141" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -18796,7 +19368,7 @@
       <c r="AE142" s="11" t="s">
         <v>1226</v>
       </c>
-      <c r="AH142" s="19" t="s">
+      <c r="AH142" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -18876,7 +19448,7 @@
       <c r="AE143" s="11" t="s">
         <v>1235</v>
       </c>
-      <c r="AH143" s="19" t="s">
+      <c r="AH143" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -18956,7 +19528,7 @@
       <c r="AE144" s="11" t="s">
         <v>1242</v>
       </c>
-      <c r="AH144" s="19" t="s">
+      <c r="AH144" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -19034,7 +19606,7 @@
       <c r="AE145" s="11" t="s">
         <v>1249</v>
       </c>
-      <c r="AH145" s="19" t="s">
+      <c r="AH145" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -19118,7 +19690,7 @@
       <c r="AE146" s="11" t="s">
         <v>1260</v>
       </c>
-      <c r="AH146" s="19" t="s">
+      <c r="AH146" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -19196,7 +19768,7 @@
       <c r="AE147" s="11" t="s">
         <v>1269</v>
       </c>
-      <c r="AH147" s="19" t="s">
+      <c r="AH147" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -19276,7 +19848,7 @@
       <c r="AE148" s="11" t="s">
         <v>1278</v>
       </c>
-      <c r="AH148" s="19" t="s">
+      <c r="AH148" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -19364,7 +19936,7 @@
       <c r="AE149" s="11" t="s">
         <v>1290</v>
       </c>
-      <c r="AH149" s="19" t="s">
+      <c r="AH149" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -19446,7 +20018,7 @@
       <c r="AE150" s="11" t="s">
         <v>1300</v>
       </c>
-      <c r="AH150" s="19" t="s">
+      <c r="AH150" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -19528,7 +20100,7 @@
       <c r="AE151" s="11" t="s">
         <v>1310</v>
       </c>
-      <c r="AH151" s="19" t="s">
+      <c r="AH151" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -19567,7 +20139,7 @@
       <c r="L152" s="10" t="s">
         <v>1314</v>
       </c>
-      <c r="M152" s="24" t="s">
+      <c r="M152" s="23" t="s">
         <v>1323</v>
       </c>
       <c r="N152" s="8" t="s">
@@ -19618,7 +20190,7 @@
       <c r="AE152" s="11" t="s">
         <v>1322</v>
       </c>
-      <c r="AH152" s="19" t="s">
+      <c r="AH152" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -19657,7 +20229,7 @@
       <c r="L153" s="10" t="s">
         <v>1325</v>
       </c>
-      <c r="M153" s="24"/>
+      <c r="M153" s="23"/>
       <c r="N153" s="8" t="s">
         <v>96</v>
       </c>
@@ -19698,7 +20270,7 @@
       <c r="AE153" s="11" t="s">
         <v>1326</v>
       </c>
-      <c r="AH153" s="19" t="s">
+      <c r="AH153" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -19778,7 +20350,7 @@
       <c r="AE154" s="11" t="s">
         <v>1333</v>
       </c>
-      <c r="AH154" s="19" t="s">
+      <c r="AH154" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -19858,7 +20430,7 @@
       <c r="AE155" s="11" t="s">
         <v>1343</v>
       </c>
-      <c r="AH155" s="19" t="s">
+      <c r="AH155" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -19938,7 +20510,7 @@
       <c r="AE156" s="11" t="s">
         <v>1352</v>
       </c>
-      <c r="AH156" s="19" t="s">
+      <c r="AH156" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -20018,7 +20590,7 @@
       <c r="AE157" s="11" t="s">
         <v>1360</v>
       </c>
-      <c r="AH157" s="19" t="s">
+      <c r="AH157" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -20104,7 +20676,7 @@
       <c r="AE158" s="11" t="s">
         <v>1371</v>
       </c>
-      <c r="AH158" s="19" t="s">
+      <c r="AH158" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -20184,7 +20756,7 @@
       <c r="AE159" s="11" t="s">
         <v>1381</v>
       </c>
-      <c r="AH159" s="19" t="s">
+      <c r="AH159" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -20266,7 +20838,7 @@
       <c r="AE160" s="11" t="s">
         <v>1392</v>
       </c>
-      <c r="AH160" s="19" t="s">
+      <c r="AH160" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -20350,7 +20922,7 @@
       <c r="AE161" s="11" t="s">
         <v>1402</v>
       </c>
-      <c r="AH161" s="19" t="s">
+      <c r="AH161" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -20432,7 +21004,7 @@
       <c r="AE162" s="11" t="s">
         <v>1413</v>
       </c>
-      <c r="AH162" s="19" t="s">
+      <c r="AH162" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -20514,7 +21086,7 @@
       <c r="AE163" s="11" t="s">
         <v>1423</v>
       </c>
-      <c r="AH163" s="19" t="s">
+      <c r="AH163" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -20594,7 +21166,7 @@
       <c r="AE164" s="11" t="s">
         <v>1429</v>
       </c>
-      <c r="AH164" s="19" t="s">
+      <c r="AH164" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -20674,7 +21246,7 @@
       <c r="AE165" s="11" t="s">
         <v>1438</v>
       </c>
-      <c r="AH165" s="19" t="s">
+      <c r="AH165" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -20758,7 +21330,7 @@
       <c r="AE166" s="11" t="s">
         <v>1447</v>
       </c>
-      <c r="AH166" s="19" t="s">
+      <c r="AH166" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -20844,7 +21416,7 @@
       <c r="AE167" s="11" t="s">
         <v>1459</v>
       </c>
-      <c r="AH167" s="19" t="s">
+      <c r="AH167" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -20924,7 +21496,7 @@
       <c r="AE168" s="11" t="s">
         <v>1468</v>
       </c>
-      <c r="AH168" s="19" t="s">
+      <c r="AH168" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -21006,7 +21578,7 @@
       <c r="AE169" s="11" t="s">
         <v>1477</v>
       </c>
-      <c r="AH169" s="19" t="s">
+      <c r="AH169" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -21086,7 +21658,7 @@
       <c r="AE170" s="11" t="s">
         <v>1485</v>
       </c>
-      <c r="AH170" s="19" t="s">
+      <c r="AH170" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -21164,7 +21736,7 @@
       <c r="AE171" s="11" t="s">
         <v>1492</v>
       </c>
-      <c r="AH171" s="19" t="s">
+      <c r="AH171" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -21246,7 +21818,7 @@
       <c r="AE172" s="11" t="s">
         <v>1501</v>
       </c>
-      <c r="AH172" s="19" t="s">
+      <c r="AH172" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -21324,7 +21896,7 @@
       <c r="AE173" s="11" t="s">
         <v>1510</v>
       </c>
-      <c r="AH173" s="19" t="s">
+      <c r="AH173" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -21404,7 +21976,7 @@
       <c r="AE174" s="11" t="s">
         <v>1519</v>
       </c>
-      <c r="AH174" s="19" t="s">
+      <c r="AH174" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -21478,7 +22050,7 @@
       <c r="AE175" s="11" t="s">
         <v>1525</v>
       </c>
-      <c r="AH175" s="19" t="s">
+      <c r="AH175" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -21556,7 +22128,7 @@
       <c r="AE176" s="11" t="s">
         <v>1534</v>
       </c>
-      <c r="AH176" s="19" t="s">
+      <c r="AH176" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -21634,7 +22206,7 @@
       <c r="AE177" s="11" t="s">
         <v>1543</v>
       </c>
-      <c r="AH177" s="19" t="s">
+      <c r="AH177" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -21714,7 +22286,7 @@
       <c r="AE178" s="11" t="s">
         <v>1552</v>
       </c>
-      <c r="AH178" s="19" t="s">
+      <c r="AH178" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -21792,7 +22364,7 @@
       <c r="AE179" s="11" t="s">
         <v>1561</v>
       </c>
-      <c r="AH179" s="19" t="s">
+      <c r="AH179" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -21870,7 +22442,7 @@
       <c r="AE180" s="11" t="s">
         <v>1567</v>
       </c>
-      <c r="AH180" s="19" t="s">
+      <c r="AH180" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -21952,7 +22524,7 @@
       <c r="AE181" s="11" t="s">
         <v>1574</v>
       </c>
-      <c r="AH181" s="19" t="s">
+      <c r="AH181" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -22042,7 +22614,7 @@
       <c r="AE182" s="11" t="s">
         <v>1585</v>
       </c>
-      <c r="AH182" s="19" t="s">
+      <c r="AH182" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -22126,7 +22698,7 @@
       <c r="AE183" s="11" t="s">
         <v>1595</v>
       </c>
-      <c r="AH183" s="19" t="s">
+      <c r="AH183" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -22208,7 +22780,7 @@
       <c r="AE184" s="11" t="s">
         <v>1604</v>
       </c>
-      <c r="AH184" s="19" t="s">
+      <c r="AH184" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -22286,7 +22858,7 @@
       <c r="AE185" s="11" t="s">
         <v>1611</v>
       </c>
-      <c r="AH185" s="19" t="s">
+      <c r="AH185" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -22366,7 +22938,7 @@
       <c r="AE186" s="11" t="s">
         <v>1618</v>
       </c>
-      <c r="AH186" s="19" t="s">
+      <c r="AH186" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -22448,7 +23020,7 @@
       <c r="AE187" s="11" t="s">
         <v>1630</v>
       </c>
-      <c r="AH187" s="19" t="s">
+      <c r="AH187" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -22478,7 +23050,7 @@
       <c r="I188" s="8">
         <v>2020</v>
       </c>
-      <c r="J188" s="25" t="s">
+      <c r="J188" s="24" t="s">
         <v>89</v>
       </c>
       <c r="K188" s="17">
@@ -22526,7 +23098,7 @@
       <c r="AE188" s="11" t="s">
         <v>1637</v>
       </c>
-      <c r="AH188" s="19" t="s">
+      <c r="AH188" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -22608,7 +23180,7 @@
       <c r="AE189" s="11" t="s">
         <v>1646</v>
       </c>
-      <c r="AH189" s="19" t="s">
+      <c r="AH189" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -22688,7 +23260,7 @@
       <c r="AE190" s="11" t="s">
         <v>1654</v>
       </c>
-      <c r="AH190" s="19" t="s">
+      <c r="AH190" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -22774,7 +23346,7 @@
       <c r="AE191" s="11" t="s">
         <v>1661</v>
       </c>
-      <c r="AH191" s="19" t="s">
+      <c r="AH191" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -22852,7 +23424,7 @@
       <c r="AE192" s="11" t="s">
         <v>1669</v>
       </c>
-      <c r="AH192" s="19" t="s">
+      <c r="AH192" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -22938,7 +23510,7 @@
       <c r="AE193" s="11" t="s">
         <v>1678</v>
       </c>
-      <c r="AH193" s="19" t="s">
+      <c r="AH193" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -23016,7 +23588,7 @@
       <c r="AE194" s="11" t="s">
         <v>1685</v>
       </c>
-      <c r="AH194" s="19" t="s">
+      <c r="AH194" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -23096,7 +23668,7 @@
       <c r="AE195" s="11" t="s">
         <v>1692</v>
       </c>
-      <c r="AH195" s="19" t="s">
+      <c r="AH195" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -23176,7 +23748,7 @@
       <c r="AE196" s="11" t="s">
         <v>1700</v>
       </c>
-      <c r="AH196" s="19" t="s">
+      <c r="AH196" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -23258,7 +23830,7 @@
       <c r="AE197" s="11" t="s">
         <v>1709</v>
       </c>
-      <c r="AH197" s="19" t="s">
+      <c r="AH197" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -23338,7 +23910,7 @@
       <c r="AE198" s="11" t="s">
         <v>1716</v>
       </c>
-      <c r="AH198" s="19" t="s">
+      <c r="AH198" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -23424,7 +23996,7 @@
       <c r="AE199" s="11" t="s">
         <v>1725</v>
       </c>
-      <c r="AH199" s="19" t="s">
+      <c r="AH199" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -23502,7 +24074,7 @@
       <c r="AE200" s="11" t="s">
         <v>1731</v>
       </c>
-      <c r="AH200" s="19" t="s">
+      <c r="AH200" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -23584,7 +24156,7 @@
       <c r="AE201" s="11" t="s">
         <v>1737</v>
       </c>
-      <c r="AH201" s="19" t="s">
+      <c r="AH201" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -23601,23 +24173,23 @@
       <c r="D202" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E202" s="20" t="s">
+      <c r="E202" s="19" t="s">
         <v>1007</v>
       </c>
-      <c r="F202" s="20" t="s">
+      <c r="F202" s="19" t="s">
         <v>64</v>
       </c>
       <c r="G202" s="8" t="s">
         <v>1740</v>
       </c>
       <c r="H202" s="10"/>
-      <c r="I202" s="20">
+      <c r="I202" s="19">
         <v>2012</v>
       </c>
       <c r="J202" s="9">
         <v>10</v>
       </c>
-      <c r="K202" s="21">
+      <c r="K202" s="20">
         <v>42057789.439999998</v>
       </c>
       <c r="L202" s="18" t="s">
@@ -23656,7 +24228,7 @@
       <c r="AE202" s="11" t="s">
         <v>1743</v>
       </c>
-      <c r="AH202" s="19" t="s">
+      <c r="AH202" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -23707,13 +24279,13 @@
       <c r="P203" s="8"/>
       <c r="Q203" s="8"/>
       <c r="R203" s="12"/>
-      <c r="S203" s="22">
+      <c r="S203" s="21">
         <v>40848</v>
       </c>
-      <c r="T203" s="22">
+      <c r="T203" s="21">
         <v>41477</v>
       </c>
-      <c r="U203" s="22">
+      <c r="U203" s="21">
         <v>41508</v>
       </c>
       <c r="V203" s="8" t="s">
@@ -23734,7 +24306,7 @@
       <c r="AE203" s="11" t="s">
         <v>1750</v>
       </c>
-      <c r="AH203" s="19" t="s">
+      <c r="AH203" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -23785,11 +24357,11 @@
       <c r="P204" s="8"/>
       <c r="Q204" s="8"/>
       <c r="R204" s="12"/>
-      <c r="S204" s="22"/>
-      <c r="T204" s="22">
+      <c r="S204" s="21"/>
+      <c r="T204" s="21">
         <v>41305</v>
       </c>
-      <c r="U204" s="22">
+      <c r="U204" s="21">
         <v>41878</v>
       </c>
       <c r="V204" s="8" t="s">
@@ -23818,7 +24390,7 @@
       <c r="AE204" s="11" t="s">
         <v>1762</v>
       </c>
-      <c r="AH204" s="19" t="s">
+      <c r="AH204" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -23894,7 +24466,7 @@
       <c r="AE205" s="11" t="s">
         <v>1769</v>
       </c>
-      <c r="AH205" s="19" t="s">
+      <c r="AH205" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -23947,13 +24519,13 @@
       <c r="R206" s="12">
         <v>42328</v>
       </c>
-      <c r="S206" s="22">
+      <c r="S206" s="21">
         <v>42706</v>
       </c>
-      <c r="T206" s="22">
+      <c r="T206" s="21">
         <v>43119</v>
       </c>
-      <c r="U206" s="22">
+      <c r="U206" s="21">
         <v>43195</v>
       </c>
       <c r="V206" s="8" t="s">
@@ -23976,7 +24548,7 @@
       <c r="AE206" s="11" t="s">
         <v>1750</v>
       </c>
-      <c r="AH206" s="19" t="s">
+      <c r="AH206" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -24058,7 +24630,7 @@
       <c r="AE207" s="11" t="s">
         <v>1788</v>
       </c>
-      <c r="AH207" s="19" t="s">
+      <c r="AH207" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -24140,7 +24712,7 @@
       <c r="AE208" s="11" t="s">
         <v>1800</v>
       </c>
-      <c r="AH208" s="19" t="s">
+      <c r="AH208" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -24220,7 +24792,7 @@
       <c r="AE209" s="11" t="s">
         <v>1810</v>
       </c>
-      <c r="AH209" s="19" t="s">
+      <c r="AH209" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -24302,7 +24874,7 @@
       <c r="AE210" s="11" t="s">
         <v>1819</v>
       </c>
-      <c r="AH210" s="19" t="s">
+      <c r="AH210" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -24384,7 +24956,7 @@
       <c r="AE211" s="11" t="s">
         <v>1827</v>
       </c>
-      <c r="AH211" s="19" t="s">
+      <c r="AH211" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -24468,7 +25040,7 @@
       <c r="AE212" s="11" t="s">
         <v>1838</v>
       </c>
-      <c r="AH212" s="19" t="s">
+      <c r="AH212" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -24554,7 +25126,7 @@
       <c r="AE213" s="11" t="s">
         <v>1848</v>
       </c>
-      <c r="AH213" s="19" t="s">
+      <c r="AH213" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -24636,7 +25208,7 @@
       <c r="AE214" s="11" t="s">
         <v>1856</v>
       </c>
-      <c r="AH214" s="19" t="s">
+      <c r="AH214" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -24718,7 +25290,7 @@
       <c r="AE215" s="11" t="s">
         <v>1866</v>
       </c>
-      <c r="AH215" s="19" t="s">
+      <c r="AH215" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -24798,7 +25370,7 @@
       <c r="AE216" s="11" t="s">
         <v>1872</v>
       </c>
-      <c r="AH216" s="19" t="s">
+      <c r="AH216" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -24878,7 +25450,7 @@
       <c r="AE217" s="11" t="s">
         <v>1880</v>
       </c>
-      <c r="AH217" s="19" t="s">
+      <c r="AH217" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -24960,7 +25532,7 @@
       <c r="AE218" s="11" t="s">
         <v>1887</v>
       </c>
-      <c r="AH218" s="19" t="s">
+      <c r="AH218" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -25022,7 +25594,7 @@
       <c r="AE219" s="11" t="s">
         <v>1893</v>
       </c>
-      <c r="AH219" s="19" t="s">
+      <c r="AH219" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -25045,7 +25617,7 @@
       <c r="F220" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="G220" s="26"/>
+      <c r="G220" s="25"/>
       <c r="H220" s="10"/>
       <c r="I220" s="8"/>
       <c r="J220" s="9">
@@ -25082,63 +25654,63 @@
       <c r="AE220" s="11" t="s">
         <v>1897</v>
       </c>
-      <c r="AH220" s="19" t="s">
+      <c r="AH220" s="18" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="221" spans="1:34" s="30" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:34" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>220</v>
       </c>
-      <c r="B221" s="30" t="s">
+      <c r="B221" t="s">
         <v>1899</v>
       </c>
-      <c r="C221" s="30" t="s">
+      <c r="C221" t="s">
         <v>225</v>
       </c>
-      <c r="G221" s="30" t="s">
+      <c r="G221" t="s">
         <v>226</v>
       </c>
-      <c r="I221" s="30">
+      <c r="I221">
         <v>2021</v>
       </c>
-      <c r="J221" s="30" t="s">
+      <c r="J221" t="s">
         <v>2407</v>
       </c>
-      <c r="K221" s="30">
+      <c r="K221">
         <v>100000</v>
       </c>
-      <c r="L221" s="30" t="s">
+      <c r="L221" t="s">
         <v>2408</v>
       </c>
-      <c r="N221" s="30" t="s">
+      <c r="N221" t="s">
         <v>66</v>
       </c>
-      <c r="O221" s="30" t="s">
+      <c r="O221" t="s">
         <v>1900</v>
       </c>
-      <c r="R221" s="30" t="s">
+      <c r="R221" t="s">
         <v>1901</v>
       </c>
-      <c r="S221" s="30" t="s">
+      <c r="S221" t="s">
         <v>89</v>
       </c>
-      <c r="T221" s="33">
+      <c r="T221" s="31">
         <v>44506</v>
       </c>
-      <c r="U221" s="30" t="s">
+      <c r="U221" t="s">
         <v>1902</v>
       </c>
-      <c r="V221" s="30" t="s">
+      <c r="V221" t="s">
         <v>37</v>
       </c>
-      <c r="W221" s="30" t="s">
+      <c r="W221" t="s">
         <v>189</v>
       </c>
-      <c r="X221" s="30" t="s">
+      <c r="X221" t="s">
         <v>1903</v>
       </c>
-      <c r="AF221" s="31" t="s">
+      <c r="AF221" s="29" t="s">
         <v>1904</v>
       </c>
     </row>
@@ -25161,7 +25733,7 @@
       <c r="F222" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="G222" s="26"/>
+      <c r="G222" s="25"/>
       <c r="H222" s="10"/>
       <c r="I222" s="14" t="s">
         <v>89</v>
@@ -25196,7 +25768,7 @@
       <c r="AE222" s="15" t="s">
         <v>1907</v>
       </c>
-      <c r="AH222" s="19" t="s">
+      <c r="AH222" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -25219,7 +25791,7 @@
       <c r="F223" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="G223" s="26"/>
+      <c r="G223" s="25"/>
       <c r="H223" s="10"/>
       <c r="I223" s="14" t="s">
         <v>89</v>
@@ -25251,10 +25823,10 @@
       <c r="AB223" s="8"/>
       <c r="AC223" s="8"/>
       <c r="AD223" s="8"/>
-      <c r="AE223" s="27" t="s">
+      <c r="AE223" s="26" t="s">
         <v>1910</v>
       </c>
-      <c r="AH223" s="19" t="s">
+      <c r="AH223" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -25334,7 +25906,7 @@
       <c r="AE224" s="11" t="s">
         <v>1917</v>
       </c>
-      <c r="AH224" s="19" t="s">
+      <c r="AH224" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -25414,7 +25986,7 @@
       <c r="AE225" s="11" t="s">
         <v>1924</v>
       </c>
-      <c r="AH225" s="19" t="s">
+      <c r="AH225" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -25494,7 +26066,7 @@
       <c r="AE226" s="11" t="s">
         <v>1930</v>
       </c>
-      <c r="AH226" s="19" t="s">
+      <c r="AH226" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -25578,7 +26150,7 @@
       <c r="AE227" s="11" t="s">
         <v>1939</v>
       </c>
-      <c r="AH227" s="19" t="s">
+      <c r="AH227" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -25658,7 +26230,7 @@
       <c r="AE228" s="11" t="s">
         <v>1946</v>
       </c>
-      <c r="AH228" s="19" t="s">
+      <c r="AH228" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -25726,7 +26298,7 @@
       <c r="AE229" s="11" t="s">
         <v>1954</v>
       </c>
-      <c r="AH229" s="19" t="s">
+      <c r="AH229" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -25796,7 +26368,7 @@
       <c r="AE230" s="8" t="s">
         <v>1961</v>
       </c>
-      <c r="AH230" s="19" t="s">
+      <c r="AH230" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -25963,7 +26535,7 @@
       <c r="AB233" s="8"/>
       <c r="AC233" s="8"/>
       <c r="AD233" s="8"/>
-      <c r="AE233" s="27" t="s">
+      <c r="AE233" s="26" t="s">
         <v>1974</v>
       </c>
       <c r="AH233" s="10"/>
@@ -26879,7 +27451,7 @@
         <v>89</v>
       </c>
       <c r="J250" s="8"/>
-      <c r="K250" s="28"/>
+      <c r="K250" s="27"/>
       <c r="L250" s="8"/>
       <c r="M250" s="8" t="s">
         <v>2054</v>
@@ -27325,7 +27897,7 @@
       <c r="F258" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="G258" s="26"/>
+      <c r="G258" s="25"/>
       <c r="H258" s="13"/>
       <c r="I258" s="14" t="s">
         <v>89</v>
@@ -27993,7 +28565,7 @@
       <c r="AB270" s="8"/>
       <c r="AC270" s="8"/>
       <c r="AD270" s="8"/>
-      <c r="AE270" s="27" t="s">
+      <c r="AE270" s="26" t="s">
         <v>2130</v>
       </c>
       <c r="AH270" s="13"/>
@@ -28877,7 +29449,7 @@
       <c r="AB286" s="8"/>
       <c r="AC286" s="8"/>
       <c r="AD286" s="8"/>
-      <c r="AE286" s="27" t="s">
+      <c r="AE286" s="26" t="s">
         <v>2196</v>
       </c>
       <c r="AH286" s="10"/>
@@ -28929,7 +29501,7 @@
       <c r="AB287" s="8"/>
       <c r="AC287" s="8"/>
       <c r="AD287" s="8"/>
-      <c r="AE287" s="27" t="s">
+      <c r="AE287" s="26" t="s">
         <v>2200</v>
       </c>
       <c r="AH287" s="10"/>
@@ -29039,7 +29611,7 @@
       <c r="AB289" s="8"/>
       <c r="AC289" s="8"/>
       <c r="AD289" s="8"/>
-      <c r="AE289" s="27" t="s">
+      <c r="AE289" s="26" t="s">
         <v>2207</v>
       </c>
       <c r="AH289" s="10"/>
@@ -29113,7 +29685,7 @@
       <c r="F291" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="G291" s="26"/>
+      <c r="G291" s="25"/>
       <c r="H291" s="10"/>
       <c r="I291" s="14" t="s">
         <v>89</v>
@@ -29167,7 +29739,7 @@
       <c r="F292" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="G292" s="26"/>
+      <c r="G292" s="25"/>
       <c r="H292" s="10"/>
       <c r="I292" s="14" t="s">
         <v>89</v>
@@ -29281,7 +29853,7 @@
       <c r="F294" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="G294" s="26"/>
+      <c r="G294" s="25"/>
       <c r="H294" s="10"/>
       <c r="I294" s="14" t="s">
         <v>89</v>
@@ -29331,7 +29903,7 @@
       <c r="F295" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="G295" s="26"/>
+      <c r="G295" s="25"/>
       <c r="H295" s="10"/>
       <c r="I295" s="14" t="s">
         <v>89</v>
@@ -29373,10 +29945,10 @@
       <c r="D296" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E296" s="20" t="s">
+      <c r="E296" s="19" t="s">
         <v>554</v>
       </c>
-      <c r="F296" s="20" t="s">
+      <c r="F296" s="19" t="s">
         <v>56</v>
       </c>
       <c r="G296" s="8"/>
@@ -29392,8 +29964,8 @@
       <c r="Q296" s="8"/>
       <c r="R296" s="8"/>
       <c r="S296" s="8"/>
-      <c r="T296" s="22"/>
-      <c r="U296" s="22"/>
+      <c r="T296" s="21"/>
+      <c r="U296" s="21"/>
       <c r="V296" s="8" t="s">
         <v>37</v>
       </c>
@@ -29419,10 +29991,10 @@
       <c r="D297" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E297" s="20" t="s">
+      <c r="E297" s="19" t="s">
         <v>554</v>
       </c>
-      <c r="F297" s="20" t="s">
+      <c r="F297" s="19" t="s">
         <v>56</v>
       </c>
       <c r="G297" s="8"/>
@@ -29438,8 +30010,8 @@
       <c r="Q297" s="8"/>
       <c r="R297" s="8"/>
       <c r="S297" s="8"/>
-      <c r="T297" s="22"/>
-      <c r="U297" s="22"/>
+      <c r="T297" s="21"/>
+      <c r="U297" s="21"/>
       <c r="V297" s="8"/>
       <c r="W297" s="8"/>
       <c r="X297" s="8"/>
@@ -29463,10 +30035,10 @@
       <c r="D298" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E298" s="20" t="s">
+      <c r="E298" s="19" t="s">
         <v>554</v>
       </c>
-      <c r="F298" s="20" t="s">
+      <c r="F298" s="19" t="s">
         <v>56</v>
       </c>
       <c r="G298" s="8"/>
@@ -29482,8 +30054,8 @@
       <c r="Q298" s="8"/>
       <c r="R298" s="8"/>
       <c r="S298" s="8"/>
-      <c r="T298" s="22"/>
-      <c r="U298" s="22"/>
+      <c r="T298" s="21"/>
+      <c r="U298" s="21"/>
       <c r="V298" s="8"/>
       <c r="W298" s="8"/>
       <c r="X298" s="8"/>
@@ -29507,10 +30079,10 @@
       <c r="D299" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E299" s="20" t="s">
+      <c r="E299" s="19" t="s">
         <v>554</v>
       </c>
-      <c r="F299" s="20" t="s">
+      <c r="F299" s="19" t="s">
         <v>56</v>
       </c>
       <c r="G299" s="8"/>
@@ -29528,8 +30100,8 @@
       <c r="Q299" s="8"/>
       <c r="R299" s="8"/>
       <c r="S299" s="8"/>
-      <c r="T299" s="22"/>
-      <c r="U299" s="22"/>
+      <c r="T299" s="21"/>
+      <c r="U299" s="21"/>
       <c r="V299" s="8"/>
       <c r="W299" s="8"/>
       <c r="X299" s="8"/>
@@ -29553,10 +30125,10 @@
       <c r="D300" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E300" s="20" t="s">
+      <c r="E300" s="19" t="s">
         <v>554</v>
       </c>
-      <c r="F300" s="20" t="s">
+      <c r="F300" s="19" t="s">
         <v>56</v>
       </c>
       <c r="G300" s="8"/>
@@ -29574,8 +30146,8 @@
       <c r="Q300" s="8"/>
       <c r="R300" s="8"/>
       <c r="S300" s="8"/>
-      <c r="T300" s="22"/>
-      <c r="U300" s="22"/>
+      <c r="T300" s="21"/>
+      <c r="U300" s="21"/>
       <c r="V300" s="8"/>
       <c r="W300" s="8"/>
       <c r="X300" s="8"/>
@@ -29599,10 +30171,10 @@
       <c r="D301" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E301" s="20" t="s">
+      <c r="E301" s="19" t="s">
         <v>554</v>
       </c>
-      <c r="F301" s="20" t="s">
+      <c r="F301" s="19" t="s">
         <v>56</v>
       </c>
       <c r="G301" s="8"/>
@@ -29620,8 +30192,8 @@
       <c r="Q301" s="8"/>
       <c r="R301" s="8"/>
       <c r="S301" s="8"/>
-      <c r="T301" s="22"/>
-      <c r="U301" s="22"/>
+      <c r="T301" s="21"/>
+      <c r="U301" s="21"/>
       <c r="V301" s="8"/>
       <c r="W301" s="8"/>
       <c r="X301" s="8"/>
@@ -29645,10 +30217,10 @@
       <c r="D302" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E302" s="20" t="s">
+      <c r="E302" s="19" t="s">
         <v>554</v>
       </c>
-      <c r="F302" s="20" t="s">
+      <c r="F302" s="19" t="s">
         <v>56</v>
       </c>
       <c r="G302" s="8"/>
@@ -29666,8 +30238,8 @@
       <c r="Q302" s="8"/>
       <c r="R302" s="8"/>
       <c r="S302" s="8"/>
-      <c r="T302" s="22"/>
-      <c r="U302" s="22"/>
+      <c r="T302" s="21"/>
+      <c r="U302" s="21"/>
       <c r="V302" s="8"/>
       <c r="W302" s="8"/>
       <c r="X302" s="8"/>
@@ -29691,10 +30263,10 @@
       <c r="D303" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E303" s="20" t="s">
+      <c r="E303" s="19" t="s">
         <v>554</v>
       </c>
-      <c r="F303" s="20" t="s">
+      <c r="F303" s="19" t="s">
         <v>56</v>
       </c>
       <c r="G303" s="8"/>
@@ -29712,8 +30284,8 @@
       <c r="Q303" s="8"/>
       <c r="R303" s="8"/>
       <c r="S303" s="8"/>
-      <c r="T303" s="22"/>
-      <c r="U303" s="22"/>
+      <c r="T303" s="21"/>
+      <c r="U303" s="21"/>
       <c r="V303" s="8" t="s">
         <v>1892</v>
       </c>
@@ -29739,10 +30311,10 @@
       <c r="D304" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E304" s="20" t="s">
+      <c r="E304" s="19" t="s">
         <v>554</v>
       </c>
-      <c r="F304" s="20" t="s">
+      <c r="F304" s="19" t="s">
         <v>56</v>
       </c>
       <c r="G304" s="8"/>
@@ -29760,8 +30332,8 @@
       <c r="Q304" s="8"/>
       <c r="R304" s="8"/>
       <c r="S304" s="8"/>
-      <c r="T304" s="22"/>
-      <c r="U304" s="22"/>
+      <c r="T304" s="21"/>
+      <c r="U304" s="21"/>
       <c r="V304" s="8" t="s">
         <v>2235</v>
       </c>
@@ -29787,10 +30359,10 @@
       <c r="D305" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E305" s="20" t="s">
+      <c r="E305" s="19" t="s">
         <v>554</v>
       </c>
-      <c r="F305" s="20" t="s">
+      <c r="F305" s="19" t="s">
         <v>56</v>
       </c>
       <c r="G305" s="8"/>
@@ -29808,8 +30380,8 @@
       <c r="Q305" s="8"/>
       <c r="R305" s="8"/>
       <c r="S305" s="8"/>
-      <c r="T305" s="22"/>
-      <c r="U305" s="22"/>
+      <c r="T305" s="21"/>
+      <c r="U305" s="21"/>
       <c r="V305" s="8"/>
       <c r="W305" s="8"/>
       <c r="X305" s="8"/>
@@ -29826,17 +30398,17 @@
       <c r="A306">
         <v>305</v>
       </c>
-      <c r="B306" s="26" t="s">
+      <c r="B306" s="25" t="s">
         <v>2239</v>
       </c>
       <c r="C306" s="8"/>
       <c r="D306" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E306" s="20" t="s">
+      <c r="E306" s="19" t="s">
         <v>554</v>
       </c>
-      <c r="F306" s="20" t="s">
+      <c r="F306" s="19" t="s">
         <v>56</v>
       </c>
       <c r="G306" s="8"/>
@@ -29854,8 +30426,8 @@
       <c r="Q306" s="8"/>
       <c r="R306" s="8"/>
       <c r="S306" s="8"/>
-      <c r="T306" s="22"/>
-      <c r="U306" s="22"/>
+      <c r="T306" s="21"/>
+      <c r="U306" s="21"/>
       <c r="V306" s="8"/>
       <c r="W306" s="8"/>
       <c r="X306" s="8"/>
@@ -29901,9 +30473,9 @@
       <c r="P307" s="8"/>
       <c r="Q307" s="8"/>
       <c r="R307" s="12"/>
-      <c r="S307" s="22"/>
-      <c r="T307" s="22"/>
-      <c r="U307" s="22"/>
+      <c r="S307" s="21"/>
+      <c r="T307" s="21"/>
+      <c r="U307" s="21"/>
       <c r="V307" s="8"/>
       <c r="W307" s="8"/>
       <c r="X307" s="8"/>
@@ -29947,9 +30519,9 @@
       <c r="P308" s="8"/>
       <c r="Q308" s="8"/>
       <c r="R308" s="12"/>
-      <c r="S308" s="22"/>
-      <c r="T308" s="22"/>
-      <c r="U308" s="22"/>
+      <c r="S308" s="21"/>
+      <c r="T308" s="21"/>
+      <c r="U308" s="21"/>
       <c r="V308" s="8"/>
       <c r="W308" s="8"/>
       <c r="X308" s="8"/>
@@ -30296,7 +30868,7 @@
       </c>
       <c r="J315" s="9"/>
       <c r="K315" s="10"/>
-      <c r="L315" s="24"/>
+      <c r="L315" s="23"/>
       <c r="M315" s="8"/>
       <c r="N315" s="8" t="s">
         <v>2168</v>
@@ -30445,9 +31017,9 @@
       <c r="P318" s="8"/>
       <c r="Q318" s="8"/>
       <c r="R318" s="12"/>
-      <c r="S318" s="22"/>
-      <c r="T318" s="22"/>
-      <c r="U318" s="22"/>
+      <c r="S318" s="21"/>
+      <c r="T318" s="21"/>
+      <c r="U318" s="21"/>
       <c r="V318" s="8"/>
       <c r="W318" s="8"/>
       <c r="X318" s="8"/>
@@ -30488,9 +31060,9 @@
       <c r="P319" s="8"/>
       <c r="Q319" s="8"/>
       <c r="R319" s="12"/>
-      <c r="S319" s="22"/>
-      <c r="T319" s="22"/>
-      <c r="U319" s="22"/>
+      <c r="S319" s="21"/>
+      <c r="T319" s="21"/>
+      <c r="U319" s="21"/>
       <c r="V319" s="8"/>
       <c r="W319" s="8"/>
       <c r="X319" s="8"/>
@@ -30580,9 +31152,9 @@
       <c r="P321" s="8"/>
       <c r="Q321" s="8"/>
       <c r="R321" s="12"/>
-      <c r="S321" s="22"/>
-      <c r="T321" s="22"/>
-      <c r="U321" s="22"/>
+      <c r="S321" s="21"/>
+      <c r="T321" s="21"/>
+      <c r="U321" s="21"/>
       <c r="V321" s="8"/>
       <c r="W321" s="8"/>
       <c r="X321" s="8"/>
@@ -30623,9 +31195,9 @@
       <c r="P322" s="8"/>
       <c r="Q322" s="8"/>
       <c r="R322" s="12"/>
-      <c r="S322" s="22"/>
-      <c r="T322" s="22"/>
-      <c r="U322" s="22"/>
+      <c r="S322" s="21"/>
+      <c r="T322" s="21"/>
+      <c r="U322" s="21"/>
       <c r="V322" s="8"/>
       <c r="W322" s="8"/>
       <c r="X322" s="8"/>
@@ -30658,7 +31230,7 @@
       <c r="F323" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="G323" s="26"/>
+      <c r="G323" s="25"/>
       <c r="H323" s="10"/>
       <c r="I323" s="8"/>
       <c r="J323" s="9"/>
@@ -30758,7 +31330,7 @@
       <c r="F325" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="G325" s="26"/>
+      <c r="G325" s="25"/>
       <c r="H325" s="10"/>
       <c r="I325" s="8"/>
       <c r="J325" s="9"/>
@@ -30807,7 +31379,7 @@
       <c r="F326" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="G326" s="26"/>
+      <c r="G326" s="25"/>
       <c r="H326" s="10"/>
       <c r="I326" s="8">
         <v>2018</v>
@@ -30843,1551 +31415,2664 @@
       <c r="A327">
         <v>326</v>
       </c>
-      <c r="B327" s="30" t="s">
+      <c r="B327" t="s">
         <v>2285</v>
       </c>
-      <c r="C327" s="30" t="s">
+      <c r="C327" t="s">
         <v>2286</v>
       </c>
-      <c r="D327" s="30"/>
-      <c r="E327" s="30"/>
-      <c r="F327" s="30"/>
-      <c r="G327" s="30" t="s">
+      <c r="G327" t="s">
         <v>2287</v>
       </c>
-      <c r="H327" s="30"/>
-      <c r="I327" s="30" t="s">
+      <c r="I327" t="s">
         <v>2288</v>
       </c>
-      <c r="J327" s="30" t="s">
+      <c r="J327" t="s">
         <v>2289</v>
       </c>
-      <c r="K327" s="30" t="s">
+      <c r="K327" t="s">
         <v>2290</v>
       </c>
-      <c r="L327" s="30" t="s">
+      <c r="L327" t="s">
         <v>2291</v>
       </c>
-      <c r="M327" s="30"/>
-      <c r="N327" s="30" t="s">
+      <c r="N327" t="s">
         <v>2285</v>
       </c>
-      <c r="O327" s="30"/>
-      <c r="P327" s="30"/>
-      <c r="Q327" s="30"/>
-      <c r="R327" s="30" t="s">
+      <c r="R327" t="s">
         <v>2292</v>
       </c>
-      <c r="S327" s="30" t="s">
+      <c r="S327" t="s">
         <v>2293</v>
       </c>
-      <c r="T327" s="30" t="s">
+      <c r="T327" t="s">
         <v>2294</v>
       </c>
-      <c r="U327" s="30" t="s">
+      <c r="U327" t="s">
         <v>2295</v>
       </c>
-      <c r="V327" s="30" t="s">
+      <c r="V327" t="s">
         <v>37</v>
       </c>
-      <c r="W327" s="30" t="s">
+      <c r="W327" t="s">
         <v>132</v>
       </c>
-      <c r="X327" s="30" t="s">
+      <c r="X327" t="s">
         <v>89</v>
       </c>
-      <c r="Y327" s="30"/>
-      <c r="Z327" s="30"/>
-      <c r="AA327" s="30"/>
-      <c r="AB327" s="30"/>
-      <c r="AC327" s="30"/>
-      <c r="AD327" s="30"/>
-      <c r="AE327" s="30"/>
-      <c r="AF327" s="32" t="s">
+      <c r="AE327" s="30" t="s">
         <v>2296</v>
       </c>
-      <c r="AG327" s="30"/>
+      <c r="AF327" s="30"/>
       <c r="AH327" s="10"/>
     </row>
     <row r="328" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A328">
         <v>327</v>
       </c>
-      <c r="B328" s="30" t="s">
+      <c r="B328" t="s">
         <v>2297</v>
       </c>
-      <c r="C328" s="30" t="s">
+      <c r="C328" t="s">
         <v>1236</v>
       </c>
-      <c r="D328" s="30"/>
-      <c r="E328" s="30"/>
-      <c r="F328" s="30"/>
-      <c r="G328" s="30" t="s">
+      <c r="G328" t="s">
         <v>2298</v>
       </c>
-      <c r="H328" s="30"/>
-      <c r="I328" s="30" t="s">
+      <c r="I328" t="s">
         <v>2288</v>
       </c>
-      <c r="J328" s="30" t="s">
+      <c r="J328" t="s">
         <v>2299</v>
       </c>
-      <c r="K328" s="30" t="s">
+      <c r="K328" t="s">
         <v>2300</v>
       </c>
-      <c r="L328" s="30" t="s">
+      <c r="L328" t="s">
         <v>2301</v>
       </c>
-      <c r="M328" s="30"/>
-      <c r="N328" s="30" t="s">
+      <c r="N328" t="s">
         <v>633</v>
       </c>
-      <c r="O328" s="30"/>
-      <c r="P328" s="30"/>
-      <c r="Q328" s="30"/>
-      <c r="R328" s="30" t="s">
+      <c r="R328" t="s">
         <v>2302</v>
       </c>
-      <c r="S328" s="30" t="s">
+      <c r="S328" t="s">
         <v>2303</v>
       </c>
-      <c r="T328" s="30" t="s">
+      <c r="T328" t="s">
         <v>89</v>
       </c>
-      <c r="U328" s="30" t="s">
+      <c r="U328" t="s">
         <v>2304</v>
       </c>
-      <c r="V328" s="30" t="s">
+      <c r="V328" t="s">
         <v>37</v>
       </c>
-      <c r="W328" s="30" t="s">
+      <c r="W328" t="s">
         <v>132</v>
       </c>
-      <c r="X328" s="30" t="s">
+      <c r="X328" t="s">
         <v>2305</v>
       </c>
-      <c r="Y328" s="30"/>
-      <c r="Z328" s="30"/>
-      <c r="AA328" s="30"/>
-      <c r="AB328" s="30"/>
-      <c r="AC328" s="30"/>
-      <c r="AD328" s="30"/>
-      <c r="AE328" s="30"/>
-      <c r="AF328" s="32" t="s">
+      <c r="AE328" s="30" t="s">
         <v>2306</v>
       </c>
-      <c r="AG328" s="30"/>
+      <c r="AF328" s="30"/>
       <c r="AH328" s="10"/>
     </row>
     <row r="329" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A329">
         <v>328</v>
       </c>
-      <c r="B329" s="30" t="s">
+      <c r="B329" t="s">
         <v>2307</v>
       </c>
-      <c r="C329" s="30" t="s">
+      <c r="C329" t="s">
         <v>470</v>
       </c>
-      <c r="D329" s="30"/>
-      <c r="E329" s="30"/>
-      <c r="F329" s="30"/>
-      <c r="G329" s="30" t="s">
+      <c r="G329" t="s">
         <v>2308</v>
       </c>
-      <c r="H329" s="30"/>
-      <c r="I329" s="30" t="s">
+      <c r="I329" t="s">
         <v>2288</v>
       </c>
-      <c r="J329" s="30" t="s">
+      <c r="J329" t="s">
         <v>2309</v>
       </c>
-      <c r="K329" s="30" t="s">
+      <c r="K329" t="s">
         <v>2310</v>
       </c>
-      <c r="L329" s="30" t="s">
+      <c r="L329" t="s">
         <v>2311</v>
       </c>
-      <c r="M329" s="30"/>
-      <c r="N329" s="30" t="s">
+      <c r="N329" t="s">
         <v>1304</v>
       </c>
-      <c r="O329" s="30"/>
-      <c r="P329" s="30"/>
-      <c r="Q329" s="30"/>
-      <c r="R329" s="30" t="s">
+      <c r="R329" t="s">
         <v>2312</v>
       </c>
-      <c r="S329" s="30" t="s">
+      <c r="S329" t="s">
         <v>2293</v>
       </c>
-      <c r="T329" s="30" t="s">
+      <c r="T329" t="s">
         <v>2313</v>
       </c>
-      <c r="U329" s="30" t="s">
+      <c r="U329" t="s">
         <v>2314</v>
       </c>
-      <c r="V329" s="30" t="s">
+      <c r="V329" t="s">
         <v>177</v>
       </c>
-      <c r="W329" s="30" t="s">
+      <c r="W329" t="s">
         <v>132</v>
       </c>
-      <c r="X329" s="30" t="s">
+      <c r="X329" t="s">
         <v>2315</v>
       </c>
-      <c r="Y329" s="30"/>
-      <c r="Z329" s="30"/>
-      <c r="AA329" s="30"/>
-      <c r="AB329" s="30"/>
-      <c r="AC329" s="30"/>
-      <c r="AD329" s="30"/>
-      <c r="AE329" s="30"/>
-      <c r="AF329" s="31" t="s">
+      <c r="AE329" s="29" t="s">
         <v>2316</v>
       </c>
-      <c r="AG329" s="30"/>
+      <c r="AF329" s="29"/>
       <c r="AH329" s="10"/>
     </row>
     <row r="330" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A330">
         <v>329</v>
       </c>
-      <c r="B330" s="30" t="s">
+      <c r="B330" t="s">
         <v>2317</v>
       </c>
-      <c r="C330" s="30" t="s">
+      <c r="C330" t="s">
         <v>2318</v>
       </c>
-      <c r="D330" s="30"/>
-      <c r="E330" s="30"/>
-      <c r="F330" s="30"/>
-      <c r="G330" s="30" t="s">
+      <c r="G330" t="s">
         <v>2319</v>
       </c>
-      <c r="H330" s="30"/>
-      <c r="I330" s="30" t="s">
+      <c r="I330" t="s">
         <v>2288</v>
       </c>
-      <c r="J330" s="30" t="s">
+      <c r="J330" t="s">
         <v>2299</v>
       </c>
-      <c r="K330" s="30" t="s">
+      <c r="K330" t="s">
         <v>2320</v>
       </c>
-      <c r="L330" s="30" t="s">
+      <c r="L330" t="s">
         <v>2321</v>
       </c>
-      <c r="M330" s="30"/>
-      <c r="N330" s="30" t="s">
+      <c r="N330" t="s">
         <v>192</v>
       </c>
-      <c r="O330" s="30"/>
-      <c r="P330" s="30"/>
-      <c r="Q330" s="30"/>
-      <c r="R330" s="30" t="s">
+      <c r="R330" t="s">
         <v>89</v>
       </c>
-      <c r="S330" s="30" t="s">
+      <c r="S330" t="s">
         <v>2322</v>
       </c>
-      <c r="T330" s="30" t="s">
+      <c r="T330" t="s">
         <v>89</v>
       </c>
-      <c r="U330" s="30" t="s">
+      <c r="U330" t="s">
         <v>2323</v>
       </c>
-      <c r="V330" s="30" t="s">
+      <c r="V330" t="s">
         <v>37</v>
       </c>
-      <c r="W330" s="30" t="s">
+      <c r="W330" t="s">
         <v>132</v>
       </c>
-      <c r="X330" s="30" t="s">
+      <c r="X330" t="s">
         <v>2324</v>
       </c>
-      <c r="Y330" s="30"/>
-      <c r="Z330" s="30"/>
-      <c r="AA330" s="30"/>
-      <c r="AB330" s="30"/>
-      <c r="AC330" s="30"/>
-      <c r="AD330" s="30"/>
-      <c r="AE330" s="30"/>
-      <c r="AF330" s="31" t="s">
+      <c r="AE330" s="29" t="s">
         <v>2325</v>
       </c>
-      <c r="AG330" s="30"/>
+      <c r="AF330" s="29"/>
       <c r="AH330" s="10"/>
     </row>
     <row r="331" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A331">
         <v>330</v>
       </c>
-      <c r="B331" s="30" t="s">
+      <c r="B331" t="s">
         <v>2326</v>
       </c>
-      <c r="C331" s="30" t="s">
+      <c r="C331" t="s">
         <v>77</v>
       </c>
-      <c r="D331" s="30"/>
-      <c r="E331" s="30"/>
-      <c r="F331" s="30"/>
-      <c r="G331" s="30" t="s">
+      <c r="G331" t="s">
         <v>2327</v>
       </c>
-      <c r="H331" s="30"/>
-      <c r="I331" s="30" t="s">
+      <c r="I331" t="s">
         <v>2328</v>
       </c>
-      <c r="J331" s="30" t="s">
+      <c r="J331" t="s">
         <v>2329</v>
       </c>
-      <c r="K331" s="30" t="s">
+      <c r="K331" t="s">
         <v>2330</v>
       </c>
-      <c r="L331" s="30" t="s">
+      <c r="L331" t="s">
         <v>2331</v>
       </c>
-      <c r="M331" s="30"/>
-      <c r="N331" s="30" t="s">
+      <c r="N331" t="s">
         <v>2285</v>
       </c>
-      <c r="O331" s="30"/>
-      <c r="P331" s="30"/>
-      <c r="Q331" s="30"/>
-      <c r="R331" s="30" t="s">
+      <c r="R331" t="s">
         <v>1507</v>
       </c>
-      <c r="S331" s="30" t="s">
+      <c r="S331" t="s">
         <v>2332</v>
       </c>
-      <c r="T331" s="30" t="s">
+      <c r="T331" t="s">
         <v>2333</v>
       </c>
-      <c r="U331" s="30" t="s">
+      <c r="U331" t="s">
         <v>2334</v>
       </c>
-      <c r="V331" s="30" t="s">
+      <c r="V331" t="s">
         <v>37</v>
       </c>
-      <c r="W331" s="30" t="s">
+      <c r="W331" t="s">
         <v>132</v>
       </c>
-      <c r="X331" s="30" t="s">
+      <c r="X331" t="s">
         <v>2335</v>
       </c>
-      <c r="Y331" s="30"/>
-      <c r="Z331" s="30"/>
-      <c r="AA331" s="30"/>
-      <c r="AB331" s="30"/>
-      <c r="AC331" s="30"/>
-      <c r="AD331" s="30"/>
-      <c r="AE331" s="30"/>
-      <c r="AF331" s="31" t="s">
+      <c r="AE331" s="29" t="s">
         <v>2336</v>
       </c>
-      <c r="AG331" s="30"/>
+      <c r="AF331" s="29"/>
       <c r="AH331" s="10"/>
     </row>
     <row r="332" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A332">
         <v>331</v>
       </c>
-      <c r="B332" s="30" t="s">
+      <c r="B332" t="s">
         <v>2317</v>
       </c>
-      <c r="C332" s="30" t="s">
+      <c r="C332" t="s">
         <v>2337</v>
       </c>
-      <c r="D332" s="30"/>
-      <c r="E332" s="30"/>
-      <c r="F332" s="30"/>
-      <c r="G332" s="30" t="s">
+      <c r="G332" t="s">
         <v>2338</v>
       </c>
-      <c r="H332" s="30"/>
-      <c r="I332" s="30" t="s">
+      <c r="I332" t="s">
         <v>2328</v>
       </c>
-      <c r="J332" s="30" t="s">
+      <c r="J332" t="s">
         <v>2299</v>
       </c>
-      <c r="K332" s="30" t="s">
+      <c r="K332" t="s">
         <v>2339</v>
       </c>
-      <c r="L332" s="30" t="s">
+      <c r="L332" t="s">
         <v>2340</v>
       </c>
-      <c r="M332" s="30"/>
-      <c r="N332" s="30" t="s">
+      <c r="N332" t="s">
         <v>192</v>
       </c>
-      <c r="O332" s="30"/>
-      <c r="P332" s="30"/>
-      <c r="Q332" s="30"/>
-      <c r="R332" s="30" t="s">
+      <c r="R332" t="s">
         <v>89</v>
       </c>
-      <c r="S332" s="30" t="s">
+      <c r="S332" t="s">
         <v>2341</v>
       </c>
-      <c r="T332" s="30" t="s">
+      <c r="T332" t="s">
         <v>2342</v>
       </c>
-      <c r="U332" s="30" t="s">
+      <c r="U332" t="s">
         <v>2343</v>
       </c>
-      <c r="V332" s="30" t="s">
+      <c r="V332" t="s">
         <v>37</v>
       </c>
-      <c r="W332" s="30" t="s">
+      <c r="W332" t="s">
         <v>132</v>
       </c>
-      <c r="X332" s="30" t="s">
+      <c r="X332" t="s">
         <v>212</v>
       </c>
-      <c r="Y332" s="30"/>
-      <c r="Z332" s="30"/>
-      <c r="AA332" s="30"/>
-      <c r="AB332" s="30"/>
-      <c r="AC332" s="30"/>
-      <c r="AD332" s="30"/>
-      <c r="AE332" s="30"/>
-      <c r="AF332" s="31" t="s">
+      <c r="AE332" s="29" t="s">
         <v>2344</v>
       </c>
-      <c r="AG332" s="30"/>
+      <c r="AF332" s="29"/>
       <c r="AH332" s="10"/>
     </row>
     <row r="333" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A333">
         <v>332</v>
       </c>
-      <c r="B333" s="30" t="s">
+      <c r="B333" t="s">
         <v>2317</v>
       </c>
-      <c r="C333" s="30" t="s">
+      <c r="C333" t="s">
         <v>2345</v>
       </c>
-      <c r="D333" s="30"/>
-      <c r="E333" s="30"/>
-      <c r="F333" s="30"/>
-      <c r="G333" s="30" t="s">
+      <c r="G333" t="s">
         <v>2346</v>
       </c>
-      <c r="H333" s="30"/>
-      <c r="I333" s="30" t="s">
+      <c r="I333" t="s">
         <v>2328</v>
       </c>
-      <c r="J333" s="30" t="s">
+      <c r="J333" t="s">
         <v>2347</v>
       </c>
-      <c r="K333" s="30" t="s">
+      <c r="K333" t="s">
         <v>2348</v>
       </c>
-      <c r="L333" s="30" t="s">
+      <c r="L333" t="s">
         <v>2349</v>
       </c>
-      <c r="M333" s="30"/>
-      <c r="N333" s="30" t="s">
+      <c r="N333" t="s">
         <v>192</v>
       </c>
-      <c r="O333" s="30"/>
-      <c r="P333" s="30"/>
-      <c r="Q333" s="30"/>
-      <c r="R333" s="30" t="s">
+      <c r="R333" t="s">
         <v>2350</v>
       </c>
-      <c r="S333" s="30" t="s">
+      <c r="S333" t="s">
         <v>2351</v>
       </c>
-      <c r="T333" s="30" t="s">
+      <c r="T333" t="s">
         <v>1615</v>
       </c>
-      <c r="U333" s="30" t="s">
+      <c r="U333" t="s">
         <v>2352</v>
       </c>
-      <c r="V333" s="30" t="s">
+      <c r="V333" t="s">
         <v>37</v>
       </c>
-      <c r="W333" s="30" t="s">
+      <c r="W333" t="s">
         <v>132</v>
       </c>
-      <c r="X333" s="30" t="s">
+      <c r="X333" t="s">
         <v>2353</v>
       </c>
-      <c r="Y333" s="30"/>
-      <c r="Z333" s="30"/>
-      <c r="AA333" s="30"/>
-      <c r="AB333" s="30"/>
-      <c r="AC333" s="30"/>
-      <c r="AD333" s="30"/>
-      <c r="AE333" s="30"/>
-      <c r="AF333" s="31" t="s">
+      <c r="AE333" s="29" t="s">
         <v>2354</v>
       </c>
-      <c r="AG333" s="30"/>
+      <c r="AF333" s="29"/>
       <c r="AH333" s="10"/>
     </row>
     <row r="334" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A334">
         <v>333</v>
       </c>
-      <c r="B334" s="30" t="s">
+      <c r="B334" t="s">
         <v>2317</v>
       </c>
-      <c r="C334" s="30" t="s">
+      <c r="C334" t="s">
         <v>2355</v>
       </c>
-      <c r="D334" s="30"/>
-      <c r="E334" s="30"/>
-      <c r="F334" s="30"/>
-      <c r="G334" s="30" t="s">
+      <c r="G334" t="s">
         <v>2356</v>
       </c>
-      <c r="H334" s="30"/>
-      <c r="I334" s="30" t="s">
+      <c r="I334" t="s">
         <v>2328</v>
       </c>
-      <c r="J334" s="30" t="s">
+      <c r="J334" t="s">
         <v>2357</v>
       </c>
-      <c r="K334" s="30" t="s">
+      <c r="K334" t="s">
         <v>2358</v>
       </c>
-      <c r="L334" s="30" t="s">
+      <c r="L334" t="s">
         <v>2359</v>
       </c>
-      <c r="M334" s="30"/>
-      <c r="N334" s="30" t="s">
+      <c r="N334" t="s">
         <v>192</v>
       </c>
-      <c r="O334" s="30"/>
-      <c r="P334" s="30"/>
-      <c r="Q334" s="30"/>
-      <c r="R334" s="30" t="s">
+      <c r="R334" t="s">
         <v>89</v>
       </c>
-      <c r="S334" s="30" t="s">
+      <c r="S334" t="s">
         <v>2360</v>
       </c>
-      <c r="T334" s="30" t="s">
+      <c r="T334" t="s">
         <v>2361</v>
       </c>
-      <c r="U334" s="30" t="s">
+      <c r="U334" t="s">
         <v>2362</v>
       </c>
-      <c r="V334" s="30" t="s">
+      <c r="V334" t="s">
         <v>37</v>
       </c>
-      <c r="W334" s="30" t="s">
+      <c r="W334" t="s">
         <v>132</v>
       </c>
-      <c r="X334" s="30" t="s">
+      <c r="X334" t="s">
         <v>2363</v>
       </c>
-      <c r="Y334" s="30"/>
-      <c r="Z334" s="30"/>
-      <c r="AA334" s="30"/>
-      <c r="AB334" s="30"/>
-      <c r="AC334" s="30"/>
-      <c r="AD334" s="30"/>
-      <c r="AE334" s="30"/>
-      <c r="AF334" s="31" t="s">
+      <c r="AE334" s="29" t="s">
         <v>2364</v>
       </c>
-      <c r="AG334" s="30"/>
+      <c r="AF334" s="29"/>
       <c r="AH334" s="10"/>
     </row>
     <row r="335" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A335">
         <v>334</v>
       </c>
-      <c r="B335" s="30" t="s">
+      <c r="B335" t="s">
         <v>2365</v>
       </c>
-      <c r="C335" s="30" t="s">
+      <c r="C335" t="s">
         <v>2366</v>
       </c>
-      <c r="D335" s="30"/>
-      <c r="E335" s="30"/>
-      <c r="F335" s="30"/>
-      <c r="G335" s="30" t="s">
+      <c r="G335" t="s">
         <v>2367</v>
       </c>
-      <c r="H335" s="30"/>
-      <c r="I335" s="30" t="s">
+      <c r="I335" t="s">
         <v>2328</v>
       </c>
-      <c r="J335" s="30" t="s">
+      <c r="J335" t="s">
         <v>2368</v>
       </c>
-      <c r="K335" s="30" t="s">
+      <c r="K335" t="s">
         <v>2369</v>
       </c>
-      <c r="L335" s="30" t="s">
+      <c r="L335" t="s">
         <v>2370</v>
       </c>
-      <c r="M335" s="30"/>
-      <c r="N335" s="30" t="s">
+      <c r="N335" t="s">
         <v>237</v>
       </c>
-      <c r="O335" s="30"/>
-      <c r="P335" s="30"/>
-      <c r="Q335" s="30"/>
-      <c r="R335" s="30" t="s">
+      <c r="R335" t="s">
         <v>89</v>
       </c>
-      <c r="S335" s="30" t="s">
+      <c r="S335" t="s">
         <v>2371</v>
       </c>
-      <c r="T335" s="30" t="s">
+      <c r="T335" t="s">
         <v>2372</v>
       </c>
-      <c r="U335" s="30" t="s">
+      <c r="U335" t="s">
         <v>2342</v>
       </c>
-      <c r="V335" s="30" t="s">
+      <c r="V335" t="s">
         <v>37</v>
       </c>
-      <c r="W335" s="30" t="s">
+      <c r="W335" t="s">
         <v>132</v>
       </c>
-      <c r="X335" s="30" t="s">
+      <c r="X335" t="s">
         <v>2373</v>
       </c>
-      <c r="Y335" s="30"/>
-      <c r="Z335" s="30"/>
-      <c r="AA335" s="30"/>
-      <c r="AB335" s="30"/>
-      <c r="AC335" s="30"/>
-      <c r="AD335" s="30"/>
-      <c r="AE335" s="30"/>
-      <c r="AF335" s="31" t="s">
+      <c r="AE335" s="29" t="s">
         <v>2374</v>
       </c>
-      <c r="AG335" s="30"/>
+      <c r="AF335" s="29"/>
       <c r="AH335" s="10"/>
     </row>
     <row r="336" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A336">
         <v>335</v>
       </c>
-      <c r="B336" s="30" t="s">
+      <c r="B336" t="s">
         <v>2375</v>
       </c>
-      <c r="C336" s="30" t="s">
+      <c r="C336" t="s">
         <v>2376</v>
       </c>
-      <c r="D336" s="30"/>
-      <c r="E336" s="30"/>
-      <c r="F336" s="30"/>
-      <c r="G336" s="30" t="s">
+      <c r="G336" t="s">
         <v>2377</v>
       </c>
-      <c r="H336" s="30"/>
-      <c r="I336" s="30" t="s">
+      <c r="I336" t="s">
         <v>2328</v>
       </c>
-      <c r="J336" s="30" t="s">
+      <c r="J336" t="s">
         <v>2299</v>
       </c>
-      <c r="K336" s="30" t="s">
+      <c r="K336" t="s">
         <v>2378</v>
       </c>
-      <c r="L336" s="30" t="s">
+      <c r="L336" t="s">
         <v>2379</v>
       </c>
-      <c r="M336" s="30"/>
-      <c r="N336" s="30" t="s">
+      <c r="N336" t="s">
         <v>66</v>
       </c>
-      <c r="O336" s="30"/>
-      <c r="P336" s="30"/>
-      <c r="Q336" s="30"/>
-      <c r="R336" s="30" t="s">
+      <c r="R336" t="s">
         <v>89</v>
       </c>
-      <c r="S336" s="30" t="s">
+      <c r="S336" t="s">
         <v>2380</v>
       </c>
-      <c r="T336" s="30" t="s">
+      <c r="T336" t="s">
         <v>2381</v>
       </c>
-      <c r="U336" s="30" t="s">
+      <c r="U336" t="s">
         <v>2382</v>
       </c>
-      <c r="V336" s="30" t="s">
+      <c r="V336" t="s">
         <v>37</v>
       </c>
-      <c r="W336" s="30" t="s">
+      <c r="W336" t="s">
         <v>189</v>
       </c>
-      <c r="X336" s="30" t="s">
+      <c r="X336" t="s">
         <v>2383</v>
       </c>
-      <c r="Y336" s="30"/>
-      <c r="Z336" s="30"/>
-      <c r="AA336" s="30"/>
-      <c r="AB336" s="30"/>
-      <c r="AC336" s="30"/>
-      <c r="AD336" s="30"/>
-      <c r="AE336" s="30"/>
-      <c r="AF336" s="31" t="s">
+      <c r="AE336" s="29" t="s">
         <v>2384</v>
       </c>
-      <c r="AG336" s="30"/>
+      <c r="AF336" s="29"/>
       <c r="AH336" s="10"/>
     </row>
-    <row r="337" spans="1:34" s="30" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:34" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A337">
         <v>336</v>
       </c>
-      <c r="B337" s="30" t="s">
+      <c r="B337" t="s">
         <v>2385</v>
       </c>
-      <c r="C337" s="30" t="s">
+      <c r="C337" t="s">
         <v>1194</v>
       </c>
-      <c r="G337" s="30" t="s">
+      <c r="G337" t="s">
         <v>2386</v>
       </c>
-      <c r="I337" s="30" t="s">
+      <c r="I337" t="s">
         <v>2387</v>
       </c>
-      <c r="J337" s="30" t="s">
+      <c r="J337" t="s">
         <v>2388</v>
       </c>
-      <c r="K337" s="30" t="s">
+      <c r="K337" t="s">
         <v>2389</v>
       </c>
-      <c r="L337" s="30" t="s">
+      <c r="L337" t="s">
         <v>2390</v>
       </c>
-      <c r="N337" s="30" t="s">
+      <c r="N337" t="s">
         <v>2391</v>
       </c>
-      <c r="O337" s="30" t="s">
+      <c r="O337" t="s">
         <v>127</v>
       </c>
-      <c r="R337" s="30" t="s">
+      <c r="R337" t="s">
         <v>89</v>
       </c>
-      <c r="S337" s="30" t="s">
+      <c r="S337" t="s">
         <v>1197</v>
       </c>
-      <c r="T337" s="30" t="s">
+      <c r="T337" t="s">
         <v>1198</v>
       </c>
-      <c r="U337" s="30" t="s">
+      <c r="U337" t="s">
         <v>1199</v>
       </c>
-      <c r="V337" s="30" t="s">
+      <c r="V337" t="s">
         <v>37</v>
       </c>
-      <c r="W337" s="30" t="s">
+      <c r="W337" t="s">
         <v>189</v>
       </c>
-      <c r="X337" s="30" t="s">
+      <c r="X337" t="s">
         <v>2392</v>
       </c>
-      <c r="AF337" s="31" t="s">
+      <c r="AE337" s="29" t="s">
         <v>1201</v>
       </c>
-    </row>
-    <row r="338" spans="1:34" s="30" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="AF337" s="29"/>
+    </row>
+    <row r="338" spans="1:34" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A338">
         <v>337</v>
       </c>
-      <c r="B338" s="30" t="s">
+      <c r="B338" t="s">
         <v>2393</v>
       </c>
-      <c r="C338" s="30" t="s">
+      <c r="C338" t="s">
         <v>2394</v>
       </c>
-      <c r="G338" s="30" t="s">
+      <c r="G338" t="s">
         <v>2395</v>
       </c>
-      <c r="I338" s="30" t="s">
+      <c r="I338" t="s">
         <v>2396</v>
       </c>
-      <c r="J338" s="30" t="s">
+      <c r="J338" t="s">
         <v>2388</v>
       </c>
-      <c r="K338" s="30">
+      <c r="K338">
         <v>720981079.20000005</v>
       </c>
-      <c r="L338" s="30" t="s">
+      <c r="L338" t="s">
         <v>2397</v>
       </c>
-      <c r="N338" s="30" t="s">
+      <c r="N338" t="s">
         <v>2391</v>
       </c>
-      <c r="O338" s="30" t="s">
+      <c r="O338" t="s">
         <v>127</v>
       </c>
-      <c r="R338" s="30" t="s">
+      <c r="R338" t="s">
         <v>89</v>
       </c>
-      <c r="S338" s="30" t="s">
+      <c r="S338" t="s">
         <v>1113</v>
       </c>
-      <c r="T338" s="30" t="s">
+      <c r="T338" t="s">
         <v>1114</v>
       </c>
-      <c r="U338" s="30" t="s">
+      <c r="U338" t="s">
         <v>318</v>
       </c>
-      <c r="V338" s="30" t="s">
+      <c r="V338" t="s">
         <v>37</v>
       </c>
-      <c r="W338" s="30" t="s">
+      <c r="W338" t="s">
         <v>1379</v>
       </c>
-      <c r="X338" s="30" t="s">
+      <c r="X338" t="s">
         <v>2398</v>
       </c>
-      <c r="AF338" s="31" t="s">
+      <c r="AE338" s="29" t="s">
         <v>1116</v>
       </c>
-    </row>
-    <row r="339" spans="1:34" s="30" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="AF338" s="29"/>
+    </row>
+    <row r="339" spans="1:34" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A339">
         <v>338</v>
       </c>
-      <c r="B339" s="30" t="s">
+      <c r="B339" t="s">
         <v>2399</v>
       </c>
-      <c r="C339" s="30" t="s">
+      <c r="C339" t="s">
         <v>1006</v>
       </c>
-      <c r="G339" s="30" t="s">
+      <c r="G339" t="s">
         <v>2400</v>
       </c>
-      <c r="I339" s="30" t="s">
+      <c r="I339" t="s">
         <v>2401</v>
       </c>
-      <c r="J339" s="30" t="s">
+      <c r="J339" t="s">
         <v>2402</v>
       </c>
-      <c r="K339" s="30" t="s">
+      <c r="K339" t="s">
         <v>2403</v>
       </c>
-      <c r="L339" s="30" t="s">
+      <c r="L339" t="s">
         <v>2404</v>
       </c>
-      <c r="N339" s="30" t="s">
+      <c r="N339" t="s">
         <v>2405</v>
       </c>
-      <c r="O339" s="30" t="s">
+      <c r="O339" t="s">
         <v>127</v>
       </c>
-      <c r="R339" s="30" t="s">
+      <c r="R339" t="s">
         <v>89</v>
       </c>
-      <c r="S339" s="30" t="s">
+      <c r="S339" t="s">
         <v>1071</v>
       </c>
-      <c r="T339" s="30" t="s">
+      <c r="T339" t="s">
         <v>1072</v>
       </c>
-      <c r="U339" s="30" t="s">
+      <c r="U339" t="s">
         <v>1073</v>
       </c>
-      <c r="V339" s="30" t="s">
+      <c r="V339" t="s">
         <v>37</v>
       </c>
-      <c r="W339" s="30" t="s">
+      <c r="W339" t="s">
         <v>132</v>
       </c>
-      <c r="X339" s="30" t="s">
+      <c r="X339" t="s">
         <v>2406</v>
       </c>
-      <c r="AF339" s="31" t="s">
+      <c r="AE339" s="29" t="s">
         <v>1078</v>
       </c>
+      <c r="AF339" s="29"/>
     </row>
     <row r="340" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B340" s="8"/>
-      <c r="C340" s="8"/>
-      <c r="D340" s="8"/>
-      <c r="E340" s="8"/>
-      <c r="F340" s="8"/>
-      <c r="G340" s="8"/>
-      <c r="H340" s="10"/>
-      <c r="I340" s="8"/>
-      <c r="J340" s="9"/>
-      <c r="K340" s="10"/>
-      <c r="L340" s="10"/>
-      <c r="M340" s="10"/>
-      <c r="N340" s="8"/>
-      <c r="O340" s="8"/>
-      <c r="P340" s="8"/>
-      <c r="Q340" s="8"/>
-      <c r="R340" s="8"/>
-      <c r="S340" s="8"/>
-      <c r="T340" s="8"/>
-      <c r="U340" s="8"/>
-      <c r="V340" s="8"/>
-      <c r="W340" s="8"/>
-      <c r="X340" s="8"/>
-      <c r="Y340" s="8"/>
-      <c r="Z340" s="8"/>
-      <c r="AA340" s="8"/>
-      <c r="AB340" s="8"/>
-      <c r="AC340" s="8"/>
-      <c r="AD340" s="8"/>
-      <c r="AE340" s="8"/>
+      <c r="A340">
+        <v>339</v>
+      </c>
+      <c r="B340" t="s">
+        <v>2317</v>
+      </c>
+      <c r="C340" t="s">
+        <v>2409</v>
+      </c>
+      <c r="D340" t="s">
+        <v>89</v>
+      </c>
+      <c r="E340" t="s">
+        <v>89</v>
+      </c>
+      <c r="F340" t="s">
+        <v>89</v>
+      </c>
+      <c r="G340" t="s">
+        <v>2410</v>
+      </c>
+      <c r="H340" t="s">
+        <v>89</v>
+      </c>
+      <c r="I340" t="s">
+        <v>2288</v>
+      </c>
+      <c r="J340" t="s">
+        <v>2299</v>
+      </c>
+      <c r="K340" t="s">
+        <v>2411</v>
+      </c>
+      <c r="L340" t="s">
+        <v>2412</v>
+      </c>
+      <c r="M340" t="s">
+        <v>2413</v>
+      </c>
+      <c r="N340" t="s">
+        <v>192</v>
+      </c>
+      <c r="O340" t="s">
+        <v>89</v>
+      </c>
+      <c r="P340" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q340" t="s">
+        <v>89</v>
+      </c>
+      <c r="R340" t="s">
+        <v>89</v>
+      </c>
+      <c r="S340" t="s">
+        <v>2414</v>
+      </c>
+      <c r="T340" t="s">
+        <v>2415</v>
+      </c>
+      <c r="U340" t="s">
+        <v>2416</v>
+      </c>
+      <c r="V340" t="s">
+        <v>37</v>
+      </c>
+      <c r="W340" t="s">
+        <v>132</v>
+      </c>
+      <c r="X340" t="s">
+        <v>2417</v>
+      </c>
+      <c r="Y340" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z340" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA340" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB340" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC340" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD340" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE340" s="29" t="s">
+        <v>2418</v>
+      </c>
       <c r="AF340" s="10"/>
       <c r="AH340" s="10"/>
     </row>
     <row r="341" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B341" s="8"/>
-      <c r="C341" s="8"/>
-      <c r="D341" s="8"/>
-      <c r="E341" s="8"/>
-      <c r="F341" s="8"/>
-      <c r="G341" s="8"/>
-      <c r="H341" s="10"/>
-      <c r="I341" s="8"/>
-      <c r="J341" s="9"/>
-      <c r="K341" s="10"/>
-      <c r="L341" s="10"/>
-      <c r="M341" s="10"/>
-      <c r="N341" s="8"/>
-      <c r="O341" s="8"/>
-      <c r="P341" s="8"/>
-      <c r="Q341" s="8"/>
-      <c r="R341" s="8"/>
-      <c r="S341" s="8"/>
-      <c r="T341" s="8"/>
-      <c r="U341" s="8"/>
-      <c r="V341" s="8"/>
-      <c r="W341" s="8"/>
-      <c r="X341" s="8"/>
-      <c r="Y341" s="8"/>
-      <c r="Z341" s="8"/>
-      <c r="AA341" s="8"/>
-      <c r="AB341" s="8"/>
-      <c r="AC341" s="8"/>
-      <c r="AD341" s="8"/>
-      <c r="AE341" s="8"/>
+      <c r="A341">
+        <v>340</v>
+      </c>
+      <c r="B341" t="s">
+        <v>2419</v>
+      </c>
+      <c r="C341" t="s">
+        <v>2286</v>
+      </c>
+      <c r="D341" t="s">
+        <v>89</v>
+      </c>
+      <c r="E341" t="s">
+        <v>89</v>
+      </c>
+      <c r="F341" t="s">
+        <v>89</v>
+      </c>
+      <c r="G341" t="s">
+        <v>2420</v>
+      </c>
+      <c r="H341" t="s">
+        <v>89</v>
+      </c>
+      <c r="I341" t="s">
+        <v>2288</v>
+      </c>
+      <c r="J341" t="s">
+        <v>2299</v>
+      </c>
+      <c r="K341" t="s">
+        <v>2421</v>
+      </c>
+      <c r="L341" t="s">
+        <v>2422</v>
+      </c>
+      <c r="M341" t="s">
+        <v>2423</v>
+      </c>
+      <c r="N341" t="s">
+        <v>1187</v>
+      </c>
+      <c r="O341" t="s">
+        <v>89</v>
+      </c>
+      <c r="P341" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q341" t="s">
+        <v>89</v>
+      </c>
+      <c r="R341" t="s">
+        <v>89</v>
+      </c>
+      <c r="S341" t="s">
+        <v>2424</v>
+      </c>
+      <c r="T341" t="s">
+        <v>2425</v>
+      </c>
+      <c r="U341" t="s">
+        <v>2416</v>
+      </c>
+      <c r="V341" t="s">
+        <v>37</v>
+      </c>
+      <c r="W341" t="s">
+        <v>132</v>
+      </c>
+      <c r="X341" t="s">
+        <v>2426</v>
+      </c>
+      <c r="Y341" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z341" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA341" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB341" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC341" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD341" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE341" s="29" t="s">
+        <v>2427</v>
+      </c>
       <c r="AF341" s="10"/>
       <c r="AH341" s="10"/>
     </row>
     <row r="342" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B342" s="8"/>
-      <c r="C342" s="8"/>
-      <c r="D342" s="8"/>
-      <c r="E342" s="8"/>
-      <c r="F342" s="8"/>
-      <c r="G342" s="8"/>
-      <c r="H342" s="10"/>
-      <c r="I342" s="8"/>
-      <c r="J342" s="9"/>
-      <c r="K342" s="10"/>
-      <c r="L342" s="10"/>
-      <c r="M342" s="10"/>
-      <c r="N342" s="8"/>
-      <c r="O342" s="8"/>
-      <c r="P342" s="8"/>
-      <c r="Q342" s="8"/>
-      <c r="R342" s="8"/>
-      <c r="S342" s="8"/>
-      <c r="T342" s="8"/>
-      <c r="U342" s="8"/>
-      <c r="V342" s="8"/>
-      <c r="W342" s="8"/>
-      <c r="X342" s="8"/>
-      <c r="Y342" s="8"/>
-      <c r="Z342" s="8"/>
-      <c r="AA342" s="8"/>
-      <c r="AB342" s="8"/>
-      <c r="AC342" s="8"/>
-      <c r="AD342" s="8"/>
-      <c r="AE342" s="8"/>
+      <c r="A342">
+        <v>341</v>
+      </c>
+      <c r="B342" t="s">
+        <v>2317</v>
+      </c>
+      <c r="C342" t="s">
+        <v>2428</v>
+      </c>
+      <c r="D342" t="s">
+        <v>89</v>
+      </c>
+      <c r="E342" t="s">
+        <v>89</v>
+      </c>
+      <c r="F342" t="s">
+        <v>89</v>
+      </c>
+      <c r="G342" t="s">
+        <v>2429</v>
+      </c>
+      <c r="H342" t="s">
+        <v>89</v>
+      </c>
+      <c r="I342" t="s">
+        <v>2288</v>
+      </c>
+      <c r="J342" t="s">
+        <v>2299</v>
+      </c>
+      <c r="K342" t="s">
+        <v>2430</v>
+      </c>
+      <c r="L342" t="s">
+        <v>2431</v>
+      </c>
+      <c r="M342" t="s">
+        <v>2432</v>
+      </c>
+      <c r="N342" t="s">
+        <v>192</v>
+      </c>
+      <c r="O342" t="s">
+        <v>89</v>
+      </c>
+      <c r="P342" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q342" t="s">
+        <v>89</v>
+      </c>
+      <c r="R342" t="s">
+        <v>2433</v>
+      </c>
+      <c r="S342" t="s">
+        <v>2304</v>
+      </c>
+      <c r="T342" t="s">
+        <v>2434</v>
+      </c>
+      <c r="U342" t="s">
+        <v>2435</v>
+      </c>
+      <c r="V342" t="s">
+        <v>37</v>
+      </c>
+      <c r="W342" t="s">
+        <v>132</v>
+      </c>
+      <c r="X342" t="s">
+        <v>2436</v>
+      </c>
+      <c r="Y342" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z342" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA342" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB342" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC342" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD342" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE342" s="29" t="s">
+        <v>2437</v>
+      </c>
       <c r="AF342" s="10"/>
       <c r="AH342" s="10"/>
     </row>
     <row r="343" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B343" s="8"/>
-      <c r="C343" s="8"/>
-      <c r="D343" s="8"/>
-      <c r="E343" s="8"/>
-      <c r="F343" s="8"/>
-      <c r="G343" s="8"/>
-      <c r="H343" s="10"/>
-      <c r="I343" s="8"/>
-      <c r="J343" s="9"/>
-      <c r="K343" s="10"/>
-      <c r="L343" s="10"/>
-      <c r="M343" s="10"/>
-      <c r="N343" s="8"/>
-      <c r="O343" s="8"/>
-      <c r="P343" s="8"/>
-      <c r="Q343" s="8"/>
-      <c r="R343" s="8"/>
-      <c r="S343" s="8"/>
-      <c r="T343" s="8"/>
-      <c r="U343" s="8"/>
-      <c r="V343" s="8"/>
-      <c r="W343" s="8"/>
-      <c r="X343" s="8"/>
-      <c r="Y343" s="8"/>
-      <c r="Z343" s="8"/>
-      <c r="AA343" s="8"/>
-      <c r="AB343" s="8"/>
-      <c r="AC343" s="8"/>
-      <c r="AD343" s="8"/>
-      <c r="AE343" s="8"/>
+      <c r="A343">
+        <v>342</v>
+      </c>
+      <c r="B343" t="s">
+        <v>2317</v>
+      </c>
+      <c r="C343" t="s">
+        <v>2438</v>
+      </c>
+      <c r="D343" t="s">
+        <v>89</v>
+      </c>
+      <c r="E343" t="s">
+        <v>89</v>
+      </c>
+      <c r="F343" t="s">
+        <v>89</v>
+      </c>
+      <c r="G343" t="s">
+        <v>2439</v>
+      </c>
+      <c r="H343" t="s">
+        <v>89</v>
+      </c>
+      <c r="I343" t="s">
+        <v>2288</v>
+      </c>
+      <c r="J343" t="s">
+        <v>2440</v>
+      </c>
+      <c r="K343" t="s">
+        <v>2441</v>
+      </c>
+      <c r="L343" t="s">
+        <v>2442</v>
+      </c>
+      <c r="M343" t="s">
+        <v>2443</v>
+      </c>
+      <c r="N343" t="s">
+        <v>192</v>
+      </c>
+      <c r="O343" t="s">
+        <v>89</v>
+      </c>
+      <c r="P343" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q343" t="s">
+        <v>89</v>
+      </c>
+      <c r="R343" t="s">
+        <v>2433</v>
+      </c>
+      <c r="S343" t="s">
+        <v>2444</v>
+      </c>
+      <c r="T343" t="s">
+        <v>760</v>
+      </c>
+      <c r="U343" t="s">
+        <v>2445</v>
+      </c>
+      <c r="V343" t="s">
+        <v>37</v>
+      </c>
+      <c r="W343" t="s">
+        <v>132</v>
+      </c>
+      <c r="X343" t="s">
+        <v>2446</v>
+      </c>
+      <c r="Y343" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z343" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA343" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB343" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC343" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD343" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE343" s="29" t="s">
+        <v>2447</v>
+      </c>
       <c r="AF343" s="10"/>
       <c r="AH343" s="10"/>
     </row>
     <row r="344" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B344" s="8"/>
-      <c r="C344" s="8"/>
-      <c r="D344" s="8"/>
-      <c r="E344" s="8"/>
-      <c r="F344" s="8"/>
-      <c r="G344" s="8"/>
-      <c r="H344" s="10"/>
-      <c r="I344" s="8"/>
-      <c r="J344" s="9"/>
-      <c r="K344" s="10"/>
-      <c r="L344" s="10"/>
-      <c r="M344" s="10"/>
-      <c r="N344" s="8"/>
-      <c r="O344" s="8"/>
-      <c r="P344" s="8"/>
-      <c r="Q344" s="8"/>
-      <c r="R344" s="8"/>
-      <c r="S344" s="8"/>
-      <c r="T344" s="8"/>
-      <c r="U344" s="8"/>
-      <c r="V344" s="8"/>
-      <c r="W344" s="8"/>
-      <c r="X344" s="8"/>
-      <c r="Y344" s="8"/>
-      <c r="Z344" s="8"/>
-      <c r="AA344" s="8"/>
-      <c r="AB344" s="8"/>
-      <c r="AC344" s="8"/>
-      <c r="AD344" s="8"/>
-      <c r="AE344" s="8"/>
+      <c r="A344">
+        <v>343</v>
+      </c>
+      <c r="B344" t="s">
+        <v>2448</v>
+      </c>
+      <c r="C344" t="s">
+        <v>893</v>
+      </c>
+      <c r="D344" t="s">
+        <v>89</v>
+      </c>
+      <c r="E344" t="s">
+        <v>89</v>
+      </c>
+      <c r="F344" t="s">
+        <v>89</v>
+      </c>
+      <c r="G344" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H344" t="s">
+        <v>89</v>
+      </c>
+      <c r="I344" t="s">
+        <v>2288</v>
+      </c>
+      <c r="J344" t="s">
+        <v>2450</v>
+      </c>
+      <c r="K344" t="s">
+        <v>2451</v>
+      </c>
+      <c r="L344" t="s">
+        <v>2452</v>
+      </c>
+      <c r="M344" t="s">
+        <v>2453</v>
+      </c>
+      <c r="N344" t="s">
+        <v>237</v>
+      </c>
+      <c r="O344" t="s">
+        <v>89</v>
+      </c>
+      <c r="P344" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q344" t="s">
+        <v>89</v>
+      </c>
+      <c r="R344" t="s">
+        <v>2454</v>
+      </c>
+      <c r="S344" t="s">
+        <v>2455</v>
+      </c>
+      <c r="T344" t="s">
+        <v>673</v>
+      </c>
+      <c r="U344" t="s">
+        <v>2456</v>
+      </c>
+      <c r="V344" t="s">
+        <v>37</v>
+      </c>
+      <c r="W344" t="s">
+        <v>132</v>
+      </c>
+      <c r="X344" t="s">
+        <v>2457</v>
+      </c>
+      <c r="Y344" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z344" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA344" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB344" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC344" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD344" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE344" s="29" t="s">
+        <v>2458</v>
+      </c>
       <c r="AF344" s="10"/>
       <c r="AH344" s="10"/>
     </row>
     <row r="345" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B345" s="8"/>
-      <c r="C345" s="8"/>
-      <c r="D345" s="8"/>
-      <c r="E345" s="8"/>
-      <c r="F345" s="8"/>
-      <c r="G345" s="8"/>
-      <c r="H345" s="10"/>
-      <c r="I345" s="8"/>
-      <c r="J345" s="9"/>
-      <c r="K345" s="10"/>
-      <c r="L345" s="10"/>
-      <c r="M345" s="10"/>
-      <c r="N345" s="8"/>
-      <c r="O345" s="8"/>
-      <c r="P345" s="8"/>
-      <c r="Q345" s="8"/>
-      <c r="R345" s="8"/>
-      <c r="S345" s="8"/>
-      <c r="T345" s="8"/>
-      <c r="U345" s="8"/>
-      <c r="V345" s="8"/>
-      <c r="W345" s="8"/>
-      <c r="X345" s="8"/>
-      <c r="Y345" s="8"/>
-      <c r="Z345" s="8"/>
-      <c r="AA345" s="8"/>
-      <c r="AB345" s="8"/>
-      <c r="AC345" s="8"/>
-      <c r="AD345" s="8"/>
-      <c r="AE345" s="8"/>
+      <c r="A345">
+        <v>344</v>
+      </c>
+      <c r="B345" t="s">
+        <v>2375</v>
+      </c>
+      <c r="C345" t="s">
+        <v>2459</v>
+      </c>
+      <c r="D345" t="s">
+        <v>89</v>
+      </c>
+      <c r="E345" t="s">
+        <v>89</v>
+      </c>
+      <c r="F345" t="s">
+        <v>89</v>
+      </c>
+      <c r="G345" t="s">
+        <v>2460</v>
+      </c>
+      <c r="H345" t="s">
+        <v>89</v>
+      </c>
+      <c r="I345" t="s">
+        <v>2288</v>
+      </c>
+      <c r="J345" t="s">
+        <v>2407</v>
+      </c>
+      <c r="K345" t="s">
+        <v>2461</v>
+      </c>
+      <c r="L345" t="s">
+        <v>2462</v>
+      </c>
+      <c r="M345" t="s">
+        <v>2463</v>
+      </c>
+      <c r="N345" t="s">
+        <v>66</v>
+      </c>
+      <c r="O345" t="s">
+        <v>89</v>
+      </c>
+      <c r="P345" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q345" t="s">
+        <v>89</v>
+      </c>
+      <c r="R345" t="s">
+        <v>2464</v>
+      </c>
+      <c r="S345" t="s">
+        <v>2465</v>
+      </c>
+      <c r="T345" t="s">
+        <v>2466</v>
+      </c>
+      <c r="U345" t="s">
+        <v>2467</v>
+      </c>
+      <c r="V345" t="s">
+        <v>37</v>
+      </c>
+      <c r="W345" t="s">
+        <v>132</v>
+      </c>
+      <c r="X345" t="s">
+        <v>2468</v>
+      </c>
+      <c r="Y345" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z345" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA345" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB345" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC345" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD345" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE345" s="29" t="s">
+        <v>2469</v>
+      </c>
       <c r="AF345" s="10"/>
       <c r="AH345" s="10"/>
     </row>
     <row r="346" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B346" s="8"/>
-      <c r="C346" s="8"/>
-      <c r="D346" s="8"/>
-      <c r="E346" s="8"/>
-      <c r="F346" s="8"/>
-      <c r="G346" s="8"/>
-      <c r="H346" s="10"/>
-      <c r="I346" s="8"/>
-      <c r="J346" s="9"/>
-      <c r="K346" s="10"/>
-      <c r="L346" s="10"/>
-      <c r="M346" s="10"/>
-      <c r="N346" s="8"/>
-      <c r="O346" s="8"/>
-      <c r="P346" s="8"/>
-      <c r="Q346" s="8"/>
-      <c r="R346" s="8"/>
-      <c r="S346" s="8"/>
-      <c r="T346" s="8"/>
-      <c r="U346" s="8"/>
-      <c r="V346" s="8"/>
-      <c r="W346" s="8"/>
-      <c r="X346" s="8"/>
-      <c r="Y346" s="8"/>
-      <c r="Z346" s="8"/>
-      <c r="AA346" s="8"/>
-      <c r="AB346" s="8"/>
-      <c r="AC346" s="8"/>
-      <c r="AD346" s="8"/>
-      <c r="AE346" s="8"/>
+      <c r="A346">
+        <v>345</v>
+      </c>
+      <c r="B346" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C346" t="s">
+        <v>2471</v>
+      </c>
+      <c r="D346" t="s">
+        <v>89</v>
+      </c>
+      <c r="E346" t="s">
+        <v>89</v>
+      </c>
+      <c r="F346" t="s">
+        <v>89</v>
+      </c>
+      <c r="G346" t="s">
+        <v>2472</v>
+      </c>
+      <c r="H346" t="s">
+        <v>89</v>
+      </c>
+      <c r="I346" t="s">
+        <v>2288</v>
+      </c>
+      <c r="J346" t="s">
+        <v>2357</v>
+      </c>
+      <c r="K346" t="s">
+        <v>2473</v>
+      </c>
+      <c r="L346" t="s">
+        <v>2474</v>
+      </c>
+      <c r="M346" t="s">
+        <v>2475</v>
+      </c>
+      <c r="N346" t="s">
+        <v>2476</v>
+      </c>
+      <c r="O346" t="s">
+        <v>89</v>
+      </c>
+      <c r="P346" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q346" t="s">
+        <v>89</v>
+      </c>
+      <c r="R346" t="s">
+        <v>2477</v>
+      </c>
+      <c r="S346" t="s">
+        <v>2478</v>
+      </c>
+      <c r="T346" t="s">
+        <v>2479</v>
+      </c>
+      <c r="U346" t="s">
+        <v>2480</v>
+      </c>
+      <c r="V346" t="s">
+        <v>37</v>
+      </c>
+      <c r="W346" t="s">
+        <v>132</v>
+      </c>
+      <c r="X346" t="s">
+        <v>2481</v>
+      </c>
+      <c r="Y346" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z346" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA346" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB346" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC346" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD346" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE346" s="29" t="s">
+        <v>2482</v>
+      </c>
       <c r="AF346" s="10"/>
       <c r="AH346" s="10"/>
     </row>
     <row r="347" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B347" s="8"/>
-      <c r="C347" s="8"/>
-      <c r="D347" s="8"/>
-      <c r="E347" s="8"/>
-      <c r="F347" s="8"/>
-      <c r="G347" s="8"/>
-      <c r="H347" s="10"/>
-      <c r="I347" s="8"/>
-      <c r="J347" s="9"/>
-      <c r="K347" s="10"/>
-      <c r="L347" s="10"/>
-      <c r="M347" s="10"/>
-      <c r="N347" s="8"/>
-      <c r="O347" s="8"/>
-      <c r="P347" s="8"/>
-      <c r="Q347" s="8"/>
-      <c r="R347" s="8"/>
-      <c r="S347" s="8"/>
-      <c r="T347" s="8"/>
-      <c r="U347" s="8"/>
-      <c r="V347" s="8"/>
-      <c r="W347" s="8"/>
-      <c r="X347" s="8"/>
-      <c r="Y347" s="8"/>
-      <c r="Z347" s="8"/>
-      <c r="AA347" s="8"/>
-      <c r="AB347" s="8"/>
-      <c r="AC347" s="8"/>
-      <c r="AD347" s="8"/>
-      <c r="AE347" s="8"/>
+      <c r="A347">
+        <v>346</v>
+      </c>
+      <c r="B347" t="s">
+        <v>2317</v>
+      </c>
+      <c r="C347" t="s">
+        <v>2483</v>
+      </c>
+      <c r="D347" t="s">
+        <v>89</v>
+      </c>
+      <c r="E347" t="s">
+        <v>89</v>
+      </c>
+      <c r="F347" t="s">
+        <v>89</v>
+      </c>
+      <c r="G347" t="s">
+        <v>2484</v>
+      </c>
+      <c r="H347" t="s">
+        <v>89</v>
+      </c>
+      <c r="I347" t="s">
+        <v>2288</v>
+      </c>
+      <c r="J347" t="s">
+        <v>2485</v>
+      </c>
+      <c r="K347" t="s">
+        <v>2486</v>
+      </c>
+      <c r="L347" t="s">
+        <v>2487</v>
+      </c>
+      <c r="M347" t="s">
+        <v>2488</v>
+      </c>
+      <c r="N347" t="s">
+        <v>192</v>
+      </c>
+      <c r="O347" t="s">
+        <v>89</v>
+      </c>
+      <c r="P347" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q347" t="s">
+        <v>89</v>
+      </c>
+      <c r="R347" t="s">
+        <v>2489</v>
+      </c>
+      <c r="S347" t="s">
+        <v>2490</v>
+      </c>
+      <c r="T347" t="s">
+        <v>2491</v>
+      </c>
+      <c r="U347" t="s">
+        <v>2492</v>
+      </c>
+      <c r="V347" t="s">
+        <v>37</v>
+      </c>
+      <c r="W347" t="s">
+        <v>132</v>
+      </c>
+      <c r="X347" t="s">
+        <v>2493</v>
+      </c>
+      <c r="Y347" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z347" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA347" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB347" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC347" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD347" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE347" s="29" t="s">
+        <v>2494</v>
+      </c>
       <c r="AF347" s="10"/>
       <c r="AH347" s="10"/>
     </row>
     <row r="348" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B348" s="8"/>
-      <c r="C348" s="8"/>
-      <c r="D348" s="8"/>
-      <c r="E348" s="8"/>
-      <c r="F348" s="8"/>
-      <c r="G348" s="8"/>
-      <c r="H348" s="10"/>
-      <c r="I348" s="8"/>
-      <c r="J348" s="9"/>
-      <c r="K348" s="10"/>
-      <c r="L348" s="10"/>
-      <c r="M348" s="10"/>
-      <c r="N348" s="8"/>
-      <c r="O348" s="8"/>
-      <c r="P348" s="8"/>
-      <c r="Q348" s="8"/>
-      <c r="R348" s="8"/>
-      <c r="S348" s="8"/>
-      <c r="T348" s="8"/>
-      <c r="U348" s="8"/>
-      <c r="V348" s="8"/>
-      <c r="W348" s="8"/>
-      <c r="X348" s="8"/>
-      <c r="Y348" s="8"/>
-      <c r="Z348" s="8"/>
-      <c r="AA348" s="8"/>
-      <c r="AB348" s="8"/>
-      <c r="AC348" s="8"/>
-      <c r="AD348" s="8"/>
-      <c r="AE348" s="8"/>
+      <c r="A348">
+        <v>347</v>
+      </c>
+      <c r="B348" t="s">
+        <v>2375</v>
+      </c>
+      <c r="C348" t="s">
+        <v>2495</v>
+      </c>
+      <c r="D348" t="s">
+        <v>89</v>
+      </c>
+      <c r="E348" t="s">
+        <v>89</v>
+      </c>
+      <c r="F348" t="s">
+        <v>89</v>
+      </c>
+      <c r="G348" t="s">
+        <v>2496</v>
+      </c>
+      <c r="H348" t="s">
+        <v>89</v>
+      </c>
+      <c r="I348" t="s">
+        <v>2288</v>
+      </c>
+      <c r="J348" t="s">
+        <v>2407</v>
+      </c>
+      <c r="K348" t="s">
+        <v>2497</v>
+      </c>
+      <c r="L348" t="s">
+        <v>2498</v>
+      </c>
+      <c r="M348" t="s">
+        <v>2499</v>
+      </c>
+      <c r="N348" t="s">
+        <v>66</v>
+      </c>
+      <c r="O348" t="s">
+        <v>89</v>
+      </c>
+      <c r="P348" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q348" t="s">
+        <v>89</v>
+      </c>
+      <c r="R348" t="s">
+        <v>2500</v>
+      </c>
+      <c r="S348" t="s">
+        <v>1736</v>
+      </c>
+      <c r="T348" t="s">
+        <v>2501</v>
+      </c>
+      <c r="U348" t="s">
+        <v>2502</v>
+      </c>
+      <c r="V348" t="s">
+        <v>37</v>
+      </c>
+      <c r="W348" t="s">
+        <v>132</v>
+      </c>
+      <c r="X348" t="s">
+        <v>2503</v>
+      </c>
+      <c r="Y348" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z348" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA348" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB348" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC348" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD348" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE348" s="29" t="s">
+        <v>2504</v>
+      </c>
       <c r="AF348" s="10"/>
       <c r="AH348" s="10"/>
     </row>
     <row r="349" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B349" s="8"/>
-      <c r="C349" s="8"/>
-      <c r="D349" s="8"/>
-      <c r="E349" s="8"/>
-      <c r="F349" s="8"/>
-      <c r="G349" s="8"/>
-      <c r="H349" s="10"/>
-      <c r="I349" s="8"/>
-      <c r="J349" s="9"/>
-      <c r="K349" s="10"/>
-      <c r="L349" s="10"/>
-      <c r="M349" s="10"/>
-      <c r="N349" s="8"/>
-      <c r="O349" s="8"/>
-      <c r="P349" s="8"/>
-      <c r="Q349" s="8"/>
-      <c r="R349" s="8"/>
-      <c r="S349" s="8"/>
-      <c r="T349" s="8"/>
-      <c r="U349" s="8"/>
-      <c r="V349" s="8"/>
-      <c r="W349" s="8"/>
-      <c r="X349" s="8"/>
-      <c r="Y349" s="8"/>
-      <c r="Z349" s="8"/>
-      <c r="AA349" s="8"/>
-      <c r="AB349" s="8"/>
-      <c r="AC349" s="8"/>
-      <c r="AD349" s="8"/>
-      <c r="AE349" s="8"/>
+      <c r="A349">
+        <v>348</v>
+      </c>
+      <c r="B349" t="s">
+        <v>2317</v>
+      </c>
+      <c r="C349" t="s">
+        <v>2505</v>
+      </c>
+      <c r="D349" t="s">
+        <v>89</v>
+      </c>
+      <c r="E349" t="s">
+        <v>89</v>
+      </c>
+      <c r="F349" t="s">
+        <v>89</v>
+      </c>
+      <c r="G349" t="s">
+        <v>2506</v>
+      </c>
+      <c r="H349" t="s">
+        <v>89</v>
+      </c>
+      <c r="I349" t="s">
+        <v>2288</v>
+      </c>
+      <c r="J349" t="s">
+        <v>2299</v>
+      </c>
+      <c r="K349" t="s">
+        <v>2507</v>
+      </c>
+      <c r="L349" t="s">
+        <v>2508</v>
+      </c>
+      <c r="M349" t="s">
+        <v>2509</v>
+      </c>
+      <c r="N349" t="s">
+        <v>192</v>
+      </c>
+      <c r="O349" t="s">
+        <v>89</v>
+      </c>
+      <c r="P349" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q349" t="s">
+        <v>89</v>
+      </c>
+      <c r="R349" t="s">
+        <v>2433</v>
+      </c>
+      <c r="S349" t="s">
+        <v>2510</v>
+      </c>
+      <c r="T349" t="s">
+        <v>89</v>
+      </c>
+      <c r="U349" t="s">
+        <v>2511</v>
+      </c>
+      <c r="V349" t="s">
+        <v>37</v>
+      </c>
+      <c r="W349" t="s">
+        <v>132</v>
+      </c>
+      <c r="X349" t="s">
+        <v>2512</v>
+      </c>
+      <c r="Y349" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z349" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA349" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB349" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC349" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD349" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE349" s="29" t="s">
+        <v>2513</v>
+      </c>
       <c r="AF349" s="10"/>
       <c r="AH349" s="10"/>
     </row>
     <row r="350" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B350" s="8"/>
-      <c r="C350" s="8"/>
-      <c r="D350" s="8"/>
-      <c r="E350" s="8"/>
-      <c r="F350" s="8"/>
-      <c r="G350" s="8"/>
-      <c r="H350" s="10"/>
-      <c r="I350" s="8"/>
-      <c r="J350" s="9"/>
-      <c r="K350" s="10"/>
-      <c r="L350" s="10"/>
-      <c r="M350" s="10"/>
-      <c r="N350" s="8"/>
-      <c r="O350" s="8"/>
-      <c r="P350" s="8"/>
-      <c r="Q350" s="8"/>
-      <c r="R350" s="8"/>
-      <c r="S350" s="8"/>
-      <c r="T350" s="8"/>
-      <c r="U350" s="8"/>
-      <c r="V350" s="8"/>
-      <c r="W350" s="8"/>
-      <c r="X350" s="8"/>
-      <c r="Y350" s="8"/>
-      <c r="Z350" s="8"/>
-      <c r="AA350" s="8"/>
-      <c r="AB350" s="8"/>
-      <c r="AC350" s="8"/>
-      <c r="AD350" s="8"/>
-      <c r="AE350" s="8"/>
+      <c r="A350">
+        <v>349</v>
+      </c>
+      <c r="B350" t="s">
+        <v>2375</v>
+      </c>
+      <c r="C350" t="s">
+        <v>2514</v>
+      </c>
+      <c r="D350" t="s">
+        <v>89</v>
+      </c>
+      <c r="E350" t="s">
+        <v>89</v>
+      </c>
+      <c r="F350" t="s">
+        <v>89</v>
+      </c>
+      <c r="G350" t="s">
+        <v>2515</v>
+      </c>
+      <c r="H350" t="s">
+        <v>89</v>
+      </c>
+      <c r="I350" t="s">
+        <v>2288</v>
+      </c>
+      <c r="J350" t="s">
+        <v>2516</v>
+      </c>
+      <c r="K350" t="s">
+        <v>2517</v>
+      </c>
+      <c r="L350" t="s">
+        <v>2518</v>
+      </c>
+      <c r="M350" t="s">
+        <v>2519</v>
+      </c>
+      <c r="N350" t="s">
+        <v>66</v>
+      </c>
+      <c r="O350" t="s">
+        <v>89</v>
+      </c>
+      <c r="P350" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q350" t="s">
+        <v>89</v>
+      </c>
+      <c r="R350" t="s">
+        <v>89</v>
+      </c>
+      <c r="S350" t="s">
+        <v>89</v>
+      </c>
+      <c r="T350" t="s">
+        <v>2520</v>
+      </c>
+      <c r="U350" t="s">
+        <v>2521</v>
+      </c>
+      <c r="V350" t="s">
+        <v>37</v>
+      </c>
+      <c r="W350" t="s">
+        <v>189</v>
+      </c>
+      <c r="X350" t="s">
+        <v>2519</v>
+      </c>
+      <c r="Y350" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z350" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA350" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB350" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC350" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD350" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE350" s="29" t="s">
+        <v>2522</v>
+      </c>
       <c r="AF350" s="10"/>
       <c r="AH350" s="10"/>
     </row>
     <row r="351" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B351" s="8"/>
-      <c r="C351" s="8"/>
-      <c r="D351" s="8"/>
-      <c r="E351" s="8"/>
-      <c r="F351" s="8"/>
-      <c r="G351" s="8"/>
-      <c r="H351" s="10"/>
-      <c r="I351" s="8"/>
-      <c r="J351" s="9"/>
-      <c r="K351" s="10"/>
-      <c r="L351" s="10"/>
-      <c r="M351" s="10"/>
-      <c r="N351" s="8"/>
-      <c r="O351" s="8"/>
-      <c r="P351" s="8"/>
-      <c r="Q351" s="8"/>
-      <c r="R351" s="8"/>
-      <c r="S351" s="8"/>
-      <c r="T351" s="8"/>
-      <c r="U351" s="8"/>
-      <c r="V351" s="8"/>
-      <c r="W351" s="8"/>
-      <c r="X351" s="8"/>
-      <c r="Y351" s="8"/>
-      <c r="Z351" s="8"/>
-      <c r="AA351" s="8"/>
-      <c r="AB351" s="8"/>
-      <c r="AC351" s="8"/>
-      <c r="AD351" s="8"/>
-      <c r="AE351" s="8"/>
+      <c r="A351">
+        <v>350</v>
+      </c>
+      <c r="B351" t="s">
+        <v>2523</v>
+      </c>
+      <c r="C351" t="s">
+        <v>2524</v>
+      </c>
+      <c r="D351" t="s">
+        <v>89</v>
+      </c>
+      <c r="E351" t="s">
+        <v>89</v>
+      </c>
+      <c r="F351" t="s">
+        <v>89</v>
+      </c>
+      <c r="G351" t="s">
+        <v>2525</v>
+      </c>
+      <c r="H351" t="s">
+        <v>89</v>
+      </c>
+      <c r="I351" t="s">
+        <v>2288</v>
+      </c>
+      <c r="J351" t="s">
+        <v>2357</v>
+      </c>
+      <c r="K351" t="s">
+        <v>2526</v>
+      </c>
+      <c r="L351" t="s">
+        <v>2527</v>
+      </c>
+      <c r="M351" t="s">
+        <v>2528</v>
+      </c>
+      <c r="N351" t="s">
+        <v>192</v>
+      </c>
+      <c r="O351" t="s">
+        <v>89</v>
+      </c>
+      <c r="P351" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q351" t="s">
+        <v>89</v>
+      </c>
+      <c r="R351" t="s">
+        <v>2433</v>
+      </c>
+      <c r="S351" t="s">
+        <v>2529</v>
+      </c>
+      <c r="T351" t="s">
+        <v>2530</v>
+      </c>
+      <c r="U351" t="s">
+        <v>2531</v>
+      </c>
+      <c r="V351" t="s">
+        <v>37</v>
+      </c>
+      <c r="W351" t="s">
+        <v>132</v>
+      </c>
+      <c r="X351" t="s">
+        <v>2493</v>
+      </c>
+      <c r="Y351" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z351" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA351" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB351" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC351" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD351" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE351" s="29" t="s">
+        <v>2532</v>
+      </c>
       <c r="AF351" s="10"/>
       <c r="AH351" s="10"/>
     </row>
     <row r="352" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B352" s="8"/>
-      <c r="C352" s="8"/>
-      <c r="D352" s="8"/>
-      <c r="E352" s="8"/>
-      <c r="F352" s="8"/>
-      <c r="G352" s="8"/>
-      <c r="H352" s="10"/>
-      <c r="I352" s="8"/>
-      <c r="J352" s="9"/>
-      <c r="K352" s="10"/>
-      <c r="L352" s="10"/>
-      <c r="M352" s="10"/>
-      <c r="N352" s="8"/>
-      <c r="O352" s="8"/>
-      <c r="P352" s="8"/>
-      <c r="Q352" s="8"/>
-      <c r="R352" s="8"/>
-      <c r="S352" s="8"/>
-      <c r="T352" s="8"/>
-      <c r="U352" s="8"/>
-      <c r="V352" s="8"/>
-      <c r="W352" s="8"/>
-      <c r="X352" s="8"/>
-      <c r="Y352" s="8"/>
-      <c r="Z352" s="8"/>
-      <c r="AA352" s="8"/>
-      <c r="AB352" s="8"/>
-      <c r="AC352" s="8"/>
-      <c r="AD352" s="8"/>
-      <c r="AE352" s="8"/>
+      <c r="A352">
+        <v>351</v>
+      </c>
+      <c r="B352" t="s">
+        <v>2317</v>
+      </c>
+      <c r="C352" t="s">
+        <v>2533</v>
+      </c>
+      <c r="D352" t="s">
+        <v>89</v>
+      </c>
+      <c r="E352" t="s">
+        <v>89</v>
+      </c>
+      <c r="F352" t="s">
+        <v>89</v>
+      </c>
+      <c r="G352" t="s">
+        <v>2534</v>
+      </c>
+      <c r="H352" t="s">
+        <v>89</v>
+      </c>
+      <c r="I352" t="s">
+        <v>2288</v>
+      </c>
+      <c r="J352" t="s">
+        <v>2440</v>
+      </c>
+      <c r="K352" t="s">
+        <v>2535</v>
+      </c>
+      <c r="L352" t="s">
+        <v>2536</v>
+      </c>
+      <c r="M352" t="s">
+        <v>2537</v>
+      </c>
+      <c r="N352" t="s">
+        <v>192</v>
+      </c>
+      <c r="O352" t="s">
+        <v>89</v>
+      </c>
+      <c r="P352" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q352" t="s">
+        <v>89</v>
+      </c>
+      <c r="R352" t="s">
+        <v>2433</v>
+      </c>
+      <c r="S352" t="s">
+        <v>2538</v>
+      </c>
+      <c r="T352" t="s">
+        <v>89</v>
+      </c>
+      <c r="U352" t="s">
+        <v>2539</v>
+      </c>
+      <c r="V352" t="s">
+        <v>37</v>
+      </c>
+      <c r="W352" t="s">
+        <v>132</v>
+      </c>
+      <c r="X352" t="s">
+        <v>2540</v>
+      </c>
+      <c r="Y352" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z352" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA352" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB352" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC352" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD352" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE352" s="29" t="s">
+        <v>2541</v>
+      </c>
       <c r="AF352" s="10"/>
       <c r="AH352" s="10"/>
     </row>
-    <row r="353" spans="2:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B353" s="8"/>
-      <c r="C353" s="8"/>
-      <c r="D353" s="8"/>
-      <c r="E353" s="8"/>
-      <c r="F353" s="8"/>
-      <c r="G353" s="8"/>
-      <c r="H353" s="10"/>
-      <c r="I353" s="8"/>
-      <c r="J353" s="9"/>
-      <c r="K353" s="10"/>
-      <c r="L353" s="10"/>
-      <c r="M353" s="10"/>
-      <c r="N353" s="8"/>
-      <c r="O353" s="8"/>
-      <c r="P353" s="8"/>
-      <c r="Q353" s="8"/>
-      <c r="R353" s="8"/>
-      <c r="S353" s="8"/>
-      <c r="T353" s="8"/>
-      <c r="U353" s="8"/>
-      <c r="V353" s="8"/>
-      <c r="W353" s="8"/>
-      <c r="X353" s="8"/>
-      <c r="Y353" s="8"/>
-      <c r="Z353" s="8"/>
-      <c r="AA353" s="8"/>
-      <c r="AB353" s="8"/>
-      <c r="AC353" s="8"/>
-      <c r="AD353" s="8"/>
-      <c r="AE353" s="8"/>
+    <row r="353" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A353">
+        <v>352</v>
+      </c>
+      <c r="B353" t="s">
+        <v>2542</v>
+      </c>
+      <c r="C353" t="s">
+        <v>245</v>
+      </c>
+      <c r="D353" t="s">
+        <v>89</v>
+      </c>
+      <c r="E353" t="s">
+        <v>89</v>
+      </c>
+      <c r="F353" t="s">
+        <v>89</v>
+      </c>
+      <c r="G353" t="s">
+        <v>2543</v>
+      </c>
+      <c r="H353" t="s">
+        <v>89</v>
+      </c>
+      <c r="I353" t="s">
+        <v>2288</v>
+      </c>
+      <c r="J353" t="s">
+        <v>2407</v>
+      </c>
+      <c r="K353" t="s">
+        <v>2544</v>
+      </c>
+      <c r="L353" t="s">
+        <v>2545</v>
+      </c>
+      <c r="M353" t="s">
+        <v>2546</v>
+      </c>
+      <c r="N353" t="s">
+        <v>237</v>
+      </c>
+      <c r="O353" t="s">
+        <v>89</v>
+      </c>
+      <c r="P353" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q353" t="s">
+        <v>89</v>
+      </c>
+      <c r="R353" t="s">
+        <v>2547</v>
+      </c>
+      <c r="S353" t="s">
+        <v>2548</v>
+      </c>
+      <c r="T353" t="s">
+        <v>2549</v>
+      </c>
+      <c r="U353" t="s">
+        <v>2550</v>
+      </c>
+      <c r="V353" t="s">
+        <v>37</v>
+      </c>
+      <c r="W353" t="s">
+        <v>132</v>
+      </c>
+      <c r="X353" t="s">
+        <v>2551</v>
+      </c>
+      <c r="Y353" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z353" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA353" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB353" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC353" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD353" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE353" s="29" t="s">
+        <v>2552</v>
+      </c>
       <c r="AF353" s="10"/>
       <c r="AH353" s="10"/>
     </row>
-    <row r="354" spans="2:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B354" s="8"/>
-      <c r="C354" s="8"/>
-      <c r="D354" s="8"/>
-      <c r="E354" s="8"/>
-      <c r="F354" s="8"/>
-      <c r="G354" s="8"/>
-      <c r="H354" s="10"/>
-      <c r="I354" s="8"/>
-      <c r="J354" s="9"/>
-      <c r="K354" s="10"/>
-      <c r="L354" s="10"/>
-      <c r="M354" s="10"/>
-      <c r="N354" s="8"/>
-      <c r="O354" s="8"/>
-      <c r="P354" s="8"/>
-      <c r="Q354" s="8"/>
-      <c r="R354" s="8"/>
-      <c r="S354" s="8"/>
-      <c r="T354" s="8"/>
-      <c r="U354" s="8"/>
-      <c r="V354" s="8"/>
-      <c r="W354" s="8"/>
-      <c r="X354" s="8"/>
-      <c r="Y354" s="8"/>
-      <c r="Z354" s="8"/>
-      <c r="AA354" s="8"/>
-      <c r="AB354" s="8"/>
-      <c r="AC354" s="8"/>
-      <c r="AD354" s="8"/>
-      <c r="AE354" s="8"/>
+    <row r="354" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A354">
+        <v>353</v>
+      </c>
+      <c r="B354" t="s">
+        <v>2317</v>
+      </c>
+      <c r="C354" t="s">
+        <v>2553</v>
+      </c>
+      <c r="D354" t="s">
+        <v>89</v>
+      </c>
+      <c r="E354" t="s">
+        <v>89</v>
+      </c>
+      <c r="F354" t="s">
+        <v>89</v>
+      </c>
+      <c r="G354" t="s">
+        <v>2554</v>
+      </c>
+      <c r="H354" t="s">
+        <v>89</v>
+      </c>
+      <c r="I354" t="s">
+        <v>2288</v>
+      </c>
+      <c r="J354" t="s">
+        <v>2347</v>
+      </c>
+      <c r="K354" t="s">
+        <v>2555</v>
+      </c>
+      <c r="L354" t="s">
+        <v>2556</v>
+      </c>
+      <c r="M354" t="s">
+        <v>2557</v>
+      </c>
+      <c r="N354" t="s">
+        <v>192</v>
+      </c>
+      <c r="O354" t="s">
+        <v>89</v>
+      </c>
+      <c r="P354" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q354" t="s">
+        <v>89</v>
+      </c>
+      <c r="R354" t="s">
+        <v>1817</v>
+      </c>
+      <c r="S354" t="s">
+        <v>2558</v>
+      </c>
+      <c r="T354" t="s">
+        <v>2559</v>
+      </c>
+      <c r="U354" t="s">
+        <v>2560</v>
+      </c>
+      <c r="V354" t="s">
+        <v>37</v>
+      </c>
+      <c r="W354" t="s">
+        <v>132</v>
+      </c>
+      <c r="X354" t="s">
+        <v>2324</v>
+      </c>
+      <c r="Y354" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z354" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA354" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB354" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC354" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD354" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE354" s="29" t="s">
+        <v>2561</v>
+      </c>
       <c r="AF354" s="10"/>
       <c r="AH354" s="10"/>
     </row>
-    <row r="355" spans="2:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B355" s="8"/>
-      <c r="C355" s="8"/>
-      <c r="D355" s="8"/>
-      <c r="E355" s="8"/>
-      <c r="F355" s="8"/>
-      <c r="G355" s="8"/>
-      <c r="H355" s="10"/>
-      <c r="I355" s="8"/>
-      <c r="J355" s="9"/>
-      <c r="K355" s="10"/>
-      <c r="L355" s="10"/>
-      <c r="M355" s="10"/>
-      <c r="N355" s="8"/>
-      <c r="O355" s="8"/>
-      <c r="P355" s="8"/>
-      <c r="Q355" s="8"/>
-      <c r="R355" s="8"/>
-      <c r="S355" s="8"/>
-      <c r="T355" s="8"/>
-      <c r="U355" s="8"/>
-      <c r="V355" s="8"/>
-      <c r="W355" s="8"/>
-      <c r="X355" s="8"/>
-      <c r="Y355" s="8"/>
-      <c r="Z355" s="8"/>
-      <c r="AA355" s="8"/>
-      <c r="AB355" s="8"/>
-      <c r="AC355" s="8"/>
-      <c r="AD355" s="8"/>
-      <c r="AE355" s="8"/>
+    <row r="355" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A355">
+        <v>354</v>
+      </c>
+      <c r="B355" t="s">
+        <v>2375</v>
+      </c>
+      <c r="C355" t="s">
+        <v>1535</v>
+      </c>
+      <c r="D355" t="s">
+        <v>89</v>
+      </c>
+      <c r="E355" t="s">
+        <v>89</v>
+      </c>
+      <c r="F355" t="s">
+        <v>89</v>
+      </c>
+      <c r="G355" t="s">
+        <v>2562</v>
+      </c>
+      <c r="H355" t="s">
+        <v>89</v>
+      </c>
+      <c r="I355" t="s">
+        <v>2288</v>
+      </c>
+      <c r="J355" t="s">
+        <v>2407</v>
+      </c>
+      <c r="K355" t="s">
+        <v>2563</v>
+      </c>
+      <c r="L355" t="s">
+        <v>2564</v>
+      </c>
+      <c r="M355" t="s">
+        <v>2565</v>
+      </c>
+      <c r="N355" t="s">
+        <v>66</v>
+      </c>
+      <c r="O355" t="s">
+        <v>89</v>
+      </c>
+      <c r="P355" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q355" t="s">
+        <v>89</v>
+      </c>
+      <c r="R355" t="s">
+        <v>1818</v>
+      </c>
+      <c r="S355" t="s">
+        <v>2566</v>
+      </c>
+      <c r="T355" t="s">
+        <v>2567</v>
+      </c>
+      <c r="U355" t="s">
+        <v>2568</v>
+      </c>
+      <c r="V355" t="s">
+        <v>37</v>
+      </c>
+      <c r="W355" t="s">
+        <v>189</v>
+      </c>
+      <c r="X355" t="s">
+        <v>2569</v>
+      </c>
+      <c r="Y355" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z355" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA355" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB355" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC355" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD355" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE355" s="29" t="s">
+        <v>2570</v>
+      </c>
       <c r="AF355" s="10"/>
       <c r="AH355" s="10"/>
     </row>
-    <row r="356" spans="2:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B356" s="8"/>
-      <c r="C356" s="8"/>
-      <c r="D356" s="8"/>
-      <c r="E356" s="8"/>
-      <c r="F356" s="8"/>
-      <c r="G356" s="8"/>
-      <c r="H356" s="10"/>
-      <c r="I356" s="8"/>
-      <c r="J356" s="9"/>
-      <c r="K356" s="10"/>
-      <c r="L356" s="10"/>
-      <c r="M356" s="10"/>
-      <c r="N356" s="8"/>
-      <c r="O356" s="8"/>
-      <c r="P356" s="8"/>
-      <c r="Q356" s="8"/>
-      <c r="R356" s="8"/>
-      <c r="S356" s="8"/>
-      <c r="T356" s="8"/>
-      <c r="U356" s="8"/>
-      <c r="V356" s="8"/>
-      <c r="W356" s="8"/>
-      <c r="X356" s="8"/>
-      <c r="Y356" s="8"/>
-      <c r="Z356" s="8"/>
-      <c r="AA356" s="8"/>
-      <c r="AB356" s="8"/>
-      <c r="AC356" s="8"/>
-      <c r="AD356" s="8"/>
-      <c r="AE356" s="8"/>
+    <row r="356" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A356">
+        <v>355</v>
+      </c>
+      <c r="B356" t="s">
+        <v>2317</v>
+      </c>
+      <c r="C356" t="s">
+        <v>2571</v>
+      </c>
+      <c r="D356" t="s">
+        <v>89</v>
+      </c>
+      <c r="E356" t="s">
+        <v>89</v>
+      </c>
+      <c r="F356" t="s">
+        <v>89</v>
+      </c>
+      <c r="G356" t="s">
+        <v>2572</v>
+      </c>
+      <c r="H356" t="s">
+        <v>89</v>
+      </c>
+      <c r="I356" t="s">
+        <v>2288</v>
+      </c>
+      <c r="J356" t="s">
+        <v>2299</v>
+      </c>
+      <c r="K356" t="s">
+        <v>2573</v>
+      </c>
+      <c r="L356" t="s">
+        <v>2574</v>
+      </c>
+      <c r="M356" t="s">
+        <v>2575</v>
+      </c>
+      <c r="N356" t="s">
+        <v>192</v>
+      </c>
+      <c r="O356" t="s">
+        <v>89</v>
+      </c>
+      <c r="P356" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q356" t="s">
+        <v>89</v>
+      </c>
+      <c r="R356" t="s">
+        <v>2576</v>
+      </c>
+      <c r="S356" t="s">
+        <v>974</v>
+      </c>
+      <c r="T356" t="s">
+        <v>1698</v>
+      </c>
+      <c r="U356" t="s">
+        <v>2434</v>
+      </c>
+      <c r="V356" t="s">
+        <v>37</v>
+      </c>
+      <c r="W356" t="s">
+        <v>132</v>
+      </c>
+      <c r="X356" t="s">
+        <v>1518</v>
+      </c>
+      <c r="Y356" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z356" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA356" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB356" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC356" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD356" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE356" s="29" t="s">
+        <v>2577</v>
+      </c>
       <c r="AF356" s="10"/>
       <c r="AH356" s="10"/>
     </row>
-    <row r="357" spans="2:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B357" s="8"/>
-      <c r="C357" s="8"/>
-      <c r="D357" s="8"/>
-      <c r="E357" s="8"/>
-      <c r="F357" s="8"/>
-      <c r="G357" s="8"/>
-      <c r="H357" s="10"/>
-      <c r="I357" s="8"/>
-      <c r="J357" s="9"/>
-      <c r="K357" s="10"/>
-      <c r="L357" s="10"/>
-      <c r="M357" s="10"/>
-      <c r="N357" s="8"/>
-      <c r="O357" s="8"/>
-      <c r="P357" s="8"/>
-      <c r="Q357" s="8"/>
-      <c r="R357" s="8"/>
-      <c r="S357" s="8"/>
-      <c r="T357" s="8"/>
-      <c r="U357" s="8"/>
-      <c r="V357" s="8"/>
-      <c r="W357" s="8"/>
-      <c r="X357" s="8"/>
-      <c r="Y357" s="8"/>
-      <c r="Z357" s="8"/>
-      <c r="AA357" s="8"/>
-      <c r="AB357" s="8"/>
-      <c r="AC357" s="8"/>
-      <c r="AD357" s="8"/>
-      <c r="AE357" s="8"/>
+    <row r="357" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A357">
+        <v>356</v>
+      </c>
+      <c r="B357" t="s">
+        <v>2375</v>
+      </c>
+      <c r="C357" t="s">
+        <v>2578</v>
+      </c>
+      <c r="D357" t="s">
+        <v>89</v>
+      </c>
+      <c r="E357" t="s">
+        <v>89</v>
+      </c>
+      <c r="F357" t="s">
+        <v>89</v>
+      </c>
+      <c r="G357" t="s">
+        <v>2579</v>
+      </c>
+      <c r="H357" t="s">
+        <v>89</v>
+      </c>
+      <c r="I357" t="s">
+        <v>2288</v>
+      </c>
+      <c r="J357" t="s">
+        <v>2516</v>
+      </c>
+      <c r="K357" t="s">
+        <v>2580</v>
+      </c>
+      <c r="L357" t="s">
+        <v>2581</v>
+      </c>
+      <c r="M357" t="s">
+        <v>2519</v>
+      </c>
+      <c r="N357" t="s">
+        <v>66</v>
+      </c>
+      <c r="O357" t="s">
+        <v>89</v>
+      </c>
+      <c r="P357" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q357" t="s">
+        <v>89</v>
+      </c>
+      <c r="R357" t="s">
+        <v>89</v>
+      </c>
+      <c r="S357" t="s">
+        <v>89</v>
+      </c>
+      <c r="T357" t="s">
+        <v>89</v>
+      </c>
+      <c r="U357" t="s">
+        <v>2582</v>
+      </c>
+      <c r="V357" t="s">
+        <v>37</v>
+      </c>
+      <c r="W357" t="s">
+        <v>1379</v>
+      </c>
+      <c r="X357" t="s">
+        <v>2519</v>
+      </c>
+      <c r="Y357" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z357" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA357" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB357" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC357" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD357" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE357" s="29" t="s">
+        <v>2583</v>
+      </c>
       <c r="AF357" s="10"/>
       <c r="AH357" s="10"/>
     </row>
-    <row r="358" spans="2:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B358" s="8"/>
-      <c r="C358" s="8"/>
-      <c r="D358" s="8"/>
-      <c r="E358" s="8"/>
-      <c r="F358" s="8"/>
-      <c r="G358" s="8"/>
-      <c r="H358" s="10"/>
-      <c r="I358" s="8"/>
-      <c r="J358" s="9"/>
-      <c r="K358" s="10"/>
-      <c r="L358" s="10"/>
-      <c r="M358" s="10"/>
-      <c r="N358" s="8"/>
-      <c r="O358" s="8"/>
-      <c r="P358" s="8"/>
-      <c r="Q358" s="8"/>
-      <c r="R358" s="8"/>
-      <c r="S358" s="8"/>
-      <c r="T358" s="8"/>
-      <c r="U358" s="8"/>
-      <c r="V358" s="8"/>
-      <c r="W358" s="8"/>
-      <c r="X358" s="8"/>
-      <c r="Y358" s="8"/>
-      <c r="Z358" s="8"/>
-      <c r="AA358" s="8"/>
-      <c r="AB358" s="8"/>
-      <c r="AC358" s="8"/>
-      <c r="AD358" s="8"/>
-      <c r="AE358" s="8"/>
+    <row r="358" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A358">
+        <v>357</v>
+      </c>
+      <c r="B358" t="s">
+        <v>2317</v>
+      </c>
+      <c r="C358" t="s">
+        <v>2584</v>
+      </c>
+      <c r="D358" t="s">
+        <v>89</v>
+      </c>
+      <c r="E358" t="s">
+        <v>89</v>
+      </c>
+      <c r="F358" t="s">
+        <v>89</v>
+      </c>
+      <c r="G358" t="s">
+        <v>2585</v>
+      </c>
+      <c r="H358" t="s">
+        <v>89</v>
+      </c>
+      <c r="I358" t="s">
+        <v>2288</v>
+      </c>
+      <c r="J358" t="s">
+        <v>2299</v>
+      </c>
+      <c r="K358" t="s">
+        <v>2586</v>
+      </c>
+      <c r="L358" t="s">
+        <v>2587</v>
+      </c>
+      <c r="M358" t="s">
+        <v>2588</v>
+      </c>
+      <c r="N358" t="s">
+        <v>192</v>
+      </c>
+      <c r="O358" t="s">
+        <v>89</v>
+      </c>
+      <c r="P358" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q358" t="s">
+        <v>89</v>
+      </c>
+      <c r="R358" t="s">
+        <v>2589</v>
+      </c>
+      <c r="S358" t="s">
+        <v>2590</v>
+      </c>
+      <c r="T358" t="s">
+        <v>1707</v>
+      </c>
+      <c r="U358" t="s">
+        <v>2591</v>
+      </c>
+      <c r="V358" t="s">
+        <v>37</v>
+      </c>
+      <c r="W358" t="s">
+        <v>132</v>
+      </c>
+      <c r="X358" t="s">
+        <v>2592</v>
+      </c>
+      <c r="Y358" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z358" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA358" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB358" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC358" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD358" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE358" s="29" t="s">
+        <v>2593</v>
+      </c>
       <c r="AF358" s="10"/>
       <c r="AH358" s="10"/>
     </row>
-    <row r="359" spans="2:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B359" s="8"/>
-      <c r="C359" s="8"/>
-      <c r="D359" s="8"/>
-      <c r="E359" s="8"/>
-      <c r="F359" s="8"/>
-      <c r="G359" s="8"/>
-      <c r="H359" s="10"/>
-      <c r="I359" s="8"/>
-      <c r="J359" s="9"/>
-      <c r="K359" s="10"/>
-      <c r="L359" s="10"/>
-      <c r="M359" s="10"/>
-      <c r="N359" s="8"/>
-      <c r="O359" s="8"/>
-      <c r="P359" s="8"/>
-      <c r="Q359" s="8"/>
-      <c r="R359" s="8"/>
-      <c r="S359" s="8"/>
-      <c r="T359" s="8"/>
-      <c r="U359" s="8"/>
-      <c r="V359" s="8"/>
-      <c r="W359" s="8"/>
-      <c r="X359" s="8"/>
-      <c r="Y359" s="8"/>
-      <c r="Z359" s="8"/>
-      <c r="AA359" s="8"/>
-      <c r="AB359" s="8"/>
-      <c r="AC359" s="8"/>
-      <c r="AD359" s="8"/>
-      <c r="AE359" s="8"/>
+    <row r="359" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A359">
+        <v>358</v>
+      </c>
+      <c r="B359" t="s">
+        <v>2317</v>
+      </c>
+      <c r="C359" t="s">
+        <v>2594</v>
+      </c>
+      <c r="D359" t="s">
+        <v>89</v>
+      </c>
+      <c r="E359" t="s">
+        <v>89</v>
+      </c>
+      <c r="F359" t="s">
+        <v>89</v>
+      </c>
+      <c r="G359" t="s">
+        <v>2554</v>
+      </c>
+      <c r="H359" t="s">
+        <v>89</v>
+      </c>
+      <c r="I359" t="s">
+        <v>2288</v>
+      </c>
+      <c r="J359" t="s">
+        <v>2347</v>
+      </c>
+      <c r="K359" t="s">
+        <v>2595</v>
+      </c>
+      <c r="L359" t="s">
+        <v>2596</v>
+      </c>
+      <c r="M359" t="s">
+        <v>2597</v>
+      </c>
+      <c r="N359" t="s">
+        <v>192</v>
+      </c>
+      <c r="O359" t="s">
+        <v>89</v>
+      </c>
+      <c r="P359" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q359" t="s">
+        <v>89</v>
+      </c>
+      <c r="R359" t="s">
+        <v>2350</v>
+      </c>
+      <c r="S359" t="s">
+        <v>2598</v>
+      </c>
+      <c r="T359" t="s">
+        <v>89</v>
+      </c>
+      <c r="U359" t="s">
+        <v>2295</v>
+      </c>
+      <c r="V359" t="s">
+        <v>37</v>
+      </c>
+      <c r="W359" t="s">
+        <v>132</v>
+      </c>
+      <c r="X359" t="s">
+        <v>2599</v>
+      </c>
+      <c r="Y359" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z359" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA359" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB359" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC359" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD359" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE359" s="29" t="s">
+        <v>2600</v>
+      </c>
       <c r="AF359" s="10"/>
       <c r="AH359" s="10"/>
     </row>
-    <row r="360" spans="2:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B360" s="8"/>
       <c r="C360" s="8"/>
       <c r="D360" s="8"/>
@@ -32421,7 +34106,7 @@
       <c r="AF360" s="10"/>
       <c r="AH360" s="10"/>
     </row>
-    <row r="361" spans="2:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B361" s="8"/>
       <c r="C361" s="8"/>
       <c r="D361" s="8"/>
@@ -32455,7 +34140,7 @@
       <c r="AF361" s="10"/>
       <c r="AH361" s="10"/>
     </row>
-    <row r="362" spans="2:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B362" s="8"/>
       <c r="C362" s="8"/>
       <c r="D362" s="8"/>
@@ -32489,7 +34174,7 @@
       <c r="AF362" s="10"/>
       <c r="AH362" s="10"/>
     </row>
-    <row r="363" spans="2:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B363" s="8"/>
       <c r="C363" s="8"/>
       <c r="D363" s="8"/>
@@ -32523,7 +34208,7 @@
       <c r="AF363" s="10"/>
       <c r="AH363" s="10"/>
     </row>
-    <row r="364" spans="2:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B364" s="8"/>
       <c r="C364" s="8"/>
       <c r="D364" s="8"/>
@@ -32557,7 +34242,7 @@
       <c r="AF364" s="10"/>
       <c r="AH364" s="10"/>
     </row>
-    <row r="365" spans="2:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B365" s="8"/>
       <c r="C365" s="8"/>
       <c r="D365" s="8"/>
@@ -32591,7 +34276,7 @@
       <c r="AF365" s="10"/>
       <c r="AH365" s="10"/>
     </row>
-    <row r="366" spans="2:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B366" s="8"/>
       <c r="C366" s="8"/>
       <c r="D366" s="8"/>
@@ -32625,7 +34310,7 @@
       <c r="AF366" s="10"/>
       <c r="AH366" s="10"/>
     </row>
-    <row r="367" spans="2:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B367" s="8"/>
       <c r="C367" s="8"/>
       <c r="D367" s="8"/>
@@ -32659,7 +34344,7 @@
       <c r="AF367" s="10"/>
       <c r="AH367" s="10"/>
     </row>
-    <row r="368" spans="2:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B368" s="8"/>
       <c r="C368" s="8"/>
       <c r="D368" s="8"/>
@@ -54427,24 +56112,44 @@
     <hyperlink ref="AE324" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
     <hyperlink ref="AE325" r:id="rId242" location=".YpT47u7MI2w" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
     <hyperlink ref="AE326" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="AF327" r:id="rId244" xr:uid="{0EE5AAF6-ECB4-4A26-B581-3FB2C7BCA68B}"/>
-    <hyperlink ref="AF328" r:id="rId245" xr:uid="{7588D4DB-2567-4B28-94BD-146C3986EA8A}"/>
-    <hyperlink ref="AF329" r:id="rId246" xr:uid="{554965DA-8B47-443C-911F-73D7A26AC7D6}"/>
-    <hyperlink ref="AF330" r:id="rId247" xr:uid="{4E45085E-FFA4-4D41-810C-70082440C50E}"/>
-    <hyperlink ref="AF331" r:id="rId248" xr:uid="{4ACF5C2D-09BC-4853-8CF0-05AEE3F3BB86}"/>
-    <hyperlink ref="AF332" r:id="rId249" xr:uid="{198328C0-E989-41A6-8469-2AF6D32EC2E0}"/>
-    <hyperlink ref="AF333" r:id="rId250" xr:uid="{922F73B7-3DD9-41A1-AEDE-C1436E0816E6}"/>
-    <hyperlink ref="AF334" r:id="rId251" xr:uid="{5B783E0E-BFC3-4927-AF9C-AD981089865F}"/>
-    <hyperlink ref="AF335" r:id="rId252" xr:uid="{12F0834D-B325-4801-AB0D-15A7D05F3E01}"/>
-    <hyperlink ref="AF336" r:id="rId253" xr:uid="{02352214-965D-40D4-B2A8-9CA76C961E17}"/>
-    <hyperlink ref="AF337" r:id="rId254" xr:uid="{33BD9BEB-9D4C-4183-8670-207C68D8968F}"/>
-    <hyperlink ref="AF338" r:id="rId255" xr:uid="{AD2D822F-A221-48C3-A954-3616A97D4F56}"/>
-    <hyperlink ref="AF339" r:id="rId256" xr:uid="{2518DE1C-E8AC-4D64-A693-85EAF9CA8624}"/>
-    <hyperlink ref="AF221" r:id="rId257" xr:uid="{86C7975A-C3E8-48E2-A65A-37D6DD83E26E}"/>
+    <hyperlink ref="AF221" r:id="rId244" xr:uid="{86C7975A-C3E8-48E2-A65A-37D6DD83E26E}"/>
+    <hyperlink ref="AE340" r:id="rId245" xr:uid="{D47E63FE-FBB2-4BD0-89CD-35C647629461}"/>
+    <hyperlink ref="AE341" r:id="rId246" xr:uid="{D0DA1572-DF8C-4BE3-8A4C-9066EB3AC0FD}"/>
+    <hyperlink ref="AE342" r:id="rId247" xr:uid="{7056D2A1-3B04-44DF-BFAB-F1B0C04EE790}"/>
+    <hyperlink ref="AE343" r:id="rId248" xr:uid="{EFA0198B-7739-4BEA-AD5D-CFB1D770FCC6}"/>
+    <hyperlink ref="AE344" r:id="rId249" xr:uid="{B5263B6A-5F26-4671-8B63-912757C2DF45}"/>
+    <hyperlink ref="AE345" r:id="rId250" xr:uid="{7065EA14-8772-4ACA-BCE1-8C7F4E84BEAF}"/>
+    <hyperlink ref="AE346" r:id="rId251" xr:uid="{017C7CAD-E40E-414B-951A-728DAD0BCBF0}"/>
+    <hyperlink ref="AE347" r:id="rId252" xr:uid="{1E5C3FAA-755C-4AAE-AFB6-8661B36383B9}"/>
+    <hyperlink ref="AE348" r:id="rId253" xr:uid="{48E0FD45-7500-4971-91B3-88B4202B5326}"/>
+    <hyperlink ref="AE349" r:id="rId254" xr:uid="{357497F1-3454-4ED0-8BA8-B2A7D26D228A}"/>
+    <hyperlink ref="AE350" r:id="rId255" xr:uid="{9169E0B1-7E5D-445E-BB37-73068E7FB16C}"/>
+    <hyperlink ref="AE351" r:id="rId256" xr:uid="{4D78962C-0692-4234-83AD-B0F71D2D9399}"/>
+    <hyperlink ref="AE352" r:id="rId257" xr:uid="{71BFC838-8D08-418C-8D87-E965824AFC3C}"/>
+    <hyperlink ref="AE353" r:id="rId258" xr:uid="{86972993-688D-4526-939C-84702C21D542}"/>
+    <hyperlink ref="AE354" r:id="rId259" xr:uid="{C2C8002F-D22F-4C37-969D-C6575183FA36}"/>
+    <hyperlink ref="AE355" r:id="rId260" xr:uid="{4FBC1960-FB71-481A-9B14-12C9E737E0CA}"/>
+    <hyperlink ref="AE356" r:id="rId261" xr:uid="{27C6894D-51E7-4245-8BA2-5CC7849CC6F2}"/>
+    <hyperlink ref="AE357" r:id="rId262" xr:uid="{63C27EAE-AF0D-483C-BAE0-B7CD01EE12BA}"/>
+    <hyperlink ref="AE358" r:id="rId263" xr:uid="{D7F72AB2-2DDE-412E-BC70-50FBAF2BA774}"/>
+    <hyperlink ref="AE359" r:id="rId264" xr:uid="{EF2C1637-CEC5-48E0-847E-9BE5D60D9667}"/>
+    <hyperlink ref="AE327" r:id="rId265" xr:uid="{4C6D4B02-6A20-4B11-85AE-011091346CE2}"/>
+    <hyperlink ref="AE328" r:id="rId266" xr:uid="{72DBA307-6DEF-47D4-A19F-D14F67A43D1C}"/>
+    <hyperlink ref="AE329" r:id="rId267" xr:uid="{B958B789-57E3-4002-9922-B856100134EB}"/>
+    <hyperlink ref="AE330" r:id="rId268" xr:uid="{7AC82D05-FA5A-4F7E-B094-320EA34F019F}"/>
+    <hyperlink ref="AE331" r:id="rId269" xr:uid="{7B1AB867-BA78-4E4B-85DA-B7B67E7E836E}"/>
+    <hyperlink ref="AE332" r:id="rId270" xr:uid="{0FE1828F-12CC-4440-80AC-1F45A6EF0801}"/>
+    <hyperlink ref="AE333" r:id="rId271" xr:uid="{0547FDF0-CD1A-4F75-9FB7-1DF9D8A0CB4F}"/>
+    <hyperlink ref="AE334" r:id="rId272" xr:uid="{3BC5570E-5996-4DCA-B917-0C9B452EBEEB}"/>
+    <hyperlink ref="AE335" r:id="rId273" xr:uid="{EF63D512-DE82-4C36-AA81-779DE9D1839F}"/>
+    <hyperlink ref="AE336" r:id="rId274" xr:uid="{EE8E49F2-BA17-4E64-A1A4-8C4AD10B7E77}"/>
+    <hyperlink ref="AE337" r:id="rId275" xr:uid="{A320B007-CED6-44A6-8CFC-11EE60CC18E2}"/>
+    <hyperlink ref="AE338" r:id="rId276" xr:uid="{C06BE894-8758-442F-99CC-63E8B22A6D5A}"/>
+    <hyperlink ref="AE339" r:id="rId277" xr:uid="{4645E447-5774-498D-B08E-19DD5C21255B}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId258"/>
-  <legacyDrawing r:id="rId259"/>
+  <pageSetup orientation="landscape" r:id="rId278"/>
+  <legacyDrawing r:id="rId279"/>
 </worksheet>
 </file>
 
